--- a/SimulationStudyData/Model5/SimCase32_Yobs_SimRun2.xlsx
+++ b/SimulationStudyData/Model5/SimCase32_Yobs_SimRun2.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.91252353950017</v>
+        <v>9.95522659460184</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.64833098306154</v>
+        <v>11.5910969497164</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.04577736170246</v>
+        <v>11.5524597527777</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.61497958858649</v>
+        <v>12.7916148101199</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.13275975918049</v>
+        <v>13.4661391329041</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.62195374178647</v>
+        <v>12.9926792154463</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.854523388452</v>
+        <v>16.2340722273583</v>
       </c>
       <c r="H2" t="n">
-        <v>5.392441633614</v>
+        <v>16.9329114783522</v>
       </c>
       <c r="I2" t="n">
-        <v>5.64698816610664</v>
+        <v>17.359682181721</v>
       </c>
       <c r="J2" t="n">
-        <v>6.93587102773265</v>
+        <v>17.1034168151427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.89651402369134</v>
+        <v>10.2539264549217</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.46271688310278</v>
+        <v>-5.31422418546686</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.19863527749524</v>
+        <v>-5.52430071758727</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.39508596099443</v>
+        <v>-6.47704384205467</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.39489372156167</v>
+        <v>-7.00181691596612</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.05485002180428</v>
+        <v>-7.39300886305551</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.94614367949543</v>
+        <v>-7.7863895477049</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.3234210475354</v>
+        <v>-8.38788534005735</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.92945923090025</v>
+        <v>-8.9947916617068</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.59594643342433</v>
+        <v>-9.32521627661948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.13952119310564</v>
+        <v>9.53343020874057</v>
       </c>
       <c r="B4" t="n">
-        <v>10.2525092174686</v>
+        <v>9.93086519803888</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5192249908207</v>
+        <v>11.1942924924931</v>
       </c>
       <c r="D4" t="n">
-        <v>12.149569719369</v>
+        <v>12.3474471090894</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6448753734167</v>
+        <v>15.0930632470626</v>
       </c>
       <c r="F4" t="n">
-        <v>14.6655259048337</v>
+        <v>13.9294571332394</v>
       </c>
       <c r="G4" t="n">
-        <v>16.8286672802651</v>
+        <v>16.2750621931582</v>
       </c>
       <c r="H4" t="n">
-        <v>17.0058730754334</v>
+        <v>16.801855414885</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0773565789585</v>
+        <v>17.5452946128548</v>
       </c>
       <c r="J4" t="n">
-        <v>18.4577830420557</v>
+        <v>20.7815910284929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.07630253957331</v>
+        <v>8.81401825269721</v>
       </c>
       <c r="B5" t="n">
-        <v>3.11937265468192</v>
+        <v>11.3747477081748</v>
       </c>
       <c r="C5" t="n">
-        <v>3.73731438957004</v>
+        <v>11.8860828894106</v>
       </c>
       <c r="D5" t="n">
-        <v>3.61168036134691</v>
+        <v>12.2866395900703</v>
       </c>
       <c r="E5" t="n">
-        <v>4.17650070807291</v>
+        <v>14.9783972540817</v>
       </c>
       <c r="F5" t="n">
-        <v>5.26459128438813</v>
+        <v>13.5652576004493</v>
       </c>
       <c r="G5" t="n">
-        <v>5.73611328976797</v>
+        <v>16.4313025617536</v>
       </c>
       <c r="H5" t="n">
-        <v>5.65422356511489</v>
+        <v>17.2721975247857</v>
       </c>
       <c r="I5" t="n">
-        <v>6.39777395392759</v>
+        <v>17.2470477954731</v>
       </c>
       <c r="J5" t="n">
-        <v>8.0953285356429</v>
+        <v>19.6743767125194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.65064942540917</v>
+        <v>9.76257226302589</v>
       </c>
       <c r="B6" t="n">
-        <v>9.90852114736968</v>
+        <v>11.6453626906814</v>
       </c>
       <c r="C6" t="n">
-        <v>13.1938753199283</v>
+        <v>11.6184333331973</v>
       </c>
       <c r="D6" t="n">
-        <v>13.0700861575144</v>
+        <v>13.4090722368942</v>
       </c>
       <c r="E6" t="n">
-        <v>14.5526433987339</v>
+        <v>13.5610959377727</v>
       </c>
       <c r="F6" t="n">
-        <v>14.9557127930678</v>
+        <v>15.8831593328803</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.88822760647865</v>
+        <v>4.8119116807723</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.61547868225633</v>
+        <v>6.04228833333024</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.59559898387956</v>
+        <v>6.79253248102211</v>
       </c>
       <c r="J6" t="n">
-        <v>-9.60211693819361</v>
+        <v>18.7482277126626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.2811247623447</v>
+        <v>10.0375490501071</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5808852813156</v>
+        <v>11.3227198269179</v>
       </c>
       <c r="C7" t="n">
-        <v>12.1978341905097</v>
+        <v>11.5140475954577</v>
       </c>
       <c r="D7" t="n">
-        <v>3.52445159020327</v>
+        <v>13.4442199971196</v>
       </c>
       <c r="E7" t="n">
-        <v>2.90809980968407</v>
+        <v>-6.93179598176708</v>
       </c>
       <c r="F7" t="n">
-        <v>4.61359726633632</v>
+        <v>-7.14357785110715</v>
       </c>
       <c r="G7" t="n">
-        <v>5.59085538865904</v>
+        <v>-8.15845512757916</v>
       </c>
       <c r="H7" t="n">
-        <v>6.64582618045679</v>
+        <v>-8.69604494968606</v>
       </c>
       <c r="I7" t="n">
-        <v>6.83968764813475</v>
+        <v>-8.9423918035421</v>
       </c>
       <c r="J7" t="n">
-        <v>7.55081523142424</v>
+        <v>-9.32429197219104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.11846110523297</v>
+        <v>10.1670599516761</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.46023116778045</v>
+        <v>10.3905677922626</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.28011409941125</v>
+        <v>13.8967851432379</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.42573093872166</v>
+        <v>12.6322990068932</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.63482083246001</v>
+        <v>14.0119503529765</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.57908431096893</v>
+        <v>14.0694011249677</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.82120056008582</v>
+        <v>16.346882193358</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.63556181145427</v>
+        <v>16.8896511079348</v>
       </c>
       <c r="I8" t="n">
-        <v>-9.08843555750851</v>
+        <v>16.6649511569663</v>
       </c>
       <c r="J8" t="n">
-        <v>-9.26031806409789</v>
+        <v>19.7787328034315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.8422758502701</v>
+        <v>-4.87192877766656</v>
       </c>
       <c r="B9" t="n">
-        <v>10.754526356022</v>
+        <v>-5.2823829029166</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6026337354604</v>
+        <v>-6.21878985787684</v>
       </c>
       <c r="D9" t="n">
-        <v>13.4012779181964</v>
+        <v>-6.70635353723637</v>
       </c>
       <c r="E9" t="n">
-        <v>5.15644431022627</v>
+        <v>-6.80849297148393</v>
       </c>
       <c r="F9" t="n">
-        <v>4.23476965806569</v>
+        <v>-7.7025912060248</v>
       </c>
       <c r="G9" t="n">
-        <v>4.84459218628177</v>
+        <v>-7.78691975462778</v>
       </c>
       <c r="H9" t="n">
-        <v>5.89170997823393</v>
+        <v>-8.33749684668096</v>
       </c>
       <c r="I9" t="n">
-        <v>5.50160340706901</v>
+        <v>-9.32174661434338</v>
       </c>
       <c r="J9" t="n">
-        <v>6.89756277144546</v>
+        <v>-9.40065567320713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.53282913315736</v>
+        <v>3.32097905998818</v>
       </c>
       <c r="B10" t="n">
-        <v>2.77302096179975</v>
+        <v>3.71639787090915</v>
       </c>
       <c r="C10" t="n">
-        <v>3.96966925466333</v>
+        <v>3.89415911253265</v>
       </c>
       <c r="D10" t="n">
-        <v>3.66042645160325</v>
+        <v>4.70270723972</v>
       </c>
       <c r="E10" t="n">
-        <v>4.89572222794447</v>
+        <v>3.88205773626722</v>
       </c>
       <c r="F10" t="n">
-        <v>5.88857480197276</v>
+        <v>4.62496336384778</v>
       </c>
       <c r="G10" t="n">
-        <v>4.43995357051463</v>
+        <v>-8.13579898047398</v>
       </c>
       <c r="H10" t="n">
-        <v>6.14491667550296</v>
+        <v>-8.75479578825837</v>
       </c>
       <c r="I10" t="n">
-        <v>6.20079447853732</v>
+        <v>-8.75219937985136</v>
       </c>
       <c r="J10" t="n">
-        <v>8.46839873812884</v>
+        <v>-10.0247879387377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.8574926792165</v>
+        <v>9.25402759536032</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.38626488437321</v>
+        <v>10.393261687989</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.93235177619465</v>
+        <v>11.6279159367818</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.50582091544207</v>
+        <v>12.5295401310581</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.66957580025</v>
+        <v>16.2611799128629</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.99765734001158</v>
+        <v>15.1371140223013</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.7844699741131</v>
+        <v>16.1756369970038</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.61177066674607</v>
+        <v>16.2976978222548</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.25922814283988</v>
+        <v>18.5158582765048</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.67486888040908</v>
+        <v>20.5876537778395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.533351980621</v>
+        <v>2.34131917197898</v>
       </c>
       <c r="B12" t="n">
-        <v>10.4088284744209</v>
+        <v>9.87019413093656</v>
       </c>
       <c r="C12" t="n">
-        <v>11.9342555480418</v>
+        <v>11.1552561246161</v>
       </c>
       <c r="D12" t="n">
-        <v>13.5189578666429</v>
+        <v>13.2264700733286</v>
       </c>
       <c r="E12" t="n">
-        <v>14.5190674056459</v>
+        <v>14.7547791978649</v>
       </c>
       <c r="F12" t="n">
-        <v>15.454384529147</v>
+        <v>14.570251643757</v>
       </c>
       <c r="G12" t="n">
-        <v>15.1513039490616</v>
+        <v>14.6968107210408</v>
       </c>
       <c r="H12" t="n">
-        <v>17.1748242051868</v>
+        <v>18.04115365754</v>
       </c>
       <c r="I12" t="n">
-        <v>17.4401174272618</v>
+        <v>17.1807977148148</v>
       </c>
       <c r="J12" t="n">
-        <v>18.7067153228667</v>
+        <v>19.0368403959274</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.30487911123083</v>
+        <v>-4.81474035201491</v>
       </c>
       <c r="B13" t="n">
-        <v>9.50047168289816</v>
+        <v>-5.20926359064593</v>
       </c>
       <c r="C13" t="n">
-        <v>12.057457468223</v>
+        <v>-5.93416480143814</v>
       </c>
       <c r="D13" t="n">
-        <v>13.0424984127107</v>
+        <v>-6.47080108448768</v>
       </c>
       <c r="E13" t="n">
-        <v>13.5802384473246</v>
+        <v>-6.93467078645641</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.1195936648672</v>
+        <v>-7.49780247215001</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.63513424488317</v>
+        <v>-8.46737240105025</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.43664472830087</v>
+        <v>-8.29748084932969</v>
       </c>
       <c r="I13" t="n">
-        <v>-8.86449946840345</v>
+        <v>-8.94943119884593</v>
       </c>
       <c r="J13" t="n">
-        <v>-9.76717569958837</v>
+        <v>-9.2820885920849</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.86260521600864</v>
+        <v>3.01705480601543</v>
       </c>
       <c r="B14" t="n">
-        <v>3.25782857260295</v>
+        <v>3.08290901473471</v>
       </c>
       <c r="C14" t="n">
-        <v>3.42530476506318</v>
+        <v>3.49317195757096</v>
       </c>
       <c r="D14" t="n">
-        <v>4.01645787545466</v>
+        <v>4.18490050082813</v>
       </c>
       <c r="E14" t="n">
-        <v>4.48116763063507</v>
+        <v>4.40898095597741</v>
       </c>
       <c r="F14" t="n">
-        <v>5.21975964937636</v>
+        <v>4.27016486397751</v>
       </c>
       <c r="G14" t="n">
-        <v>5.30228102204965</v>
+        <v>4.27565467520357</v>
       </c>
       <c r="H14" t="n">
-        <v>5.25957490309934</v>
+        <v>5.80858908674147</v>
       </c>
       <c r="I14" t="n">
-        <v>7.00613958326257</v>
+        <v>7.81013258782938</v>
       </c>
       <c r="J14" t="n">
-        <v>6.88626568808435</v>
+        <v>7.26086900819297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.5882297969256</v>
+        <v>-5.1194578723402</v>
       </c>
       <c r="B15" t="n">
-        <v>12.0098863330077</v>
+        <v>10.9885394429756</v>
       </c>
       <c r="C15" t="n">
-        <v>3.63723590009507</v>
+        <v>12.0000981412651</v>
       </c>
       <c r="D15" t="n">
-        <v>4.10687233464738</v>
+        <v>12.3100882482138</v>
       </c>
       <c r="E15" t="n">
-        <v>4.86812076512664</v>
+        <v>13.7998156915683</v>
       </c>
       <c r="F15" t="n">
-        <v>4.77719029836084</v>
+        <v>14.8878594889603</v>
       </c>
       <c r="G15" t="n">
-        <v>6.27403835967519</v>
+        <v>17.1574959518842</v>
       </c>
       <c r="H15" t="n">
-        <v>6.36261714031744</v>
+        <v>17.431791861125</v>
       </c>
       <c r="I15" t="n">
-        <v>6.43980155640613</v>
+        <v>17.6135688245575</v>
       </c>
       <c r="J15" t="n">
-        <v>7.32646375459355</v>
+        <v>18.3206110135973</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.9147549707755</v>
+        <v>9.77920470764223</v>
       </c>
       <c r="B16" t="n">
-        <v>9.27558152528</v>
+        <v>10.3335153092917</v>
       </c>
       <c r="C16" t="n">
-        <v>12.6396179822485</v>
+        <v>12.3822795704586</v>
       </c>
       <c r="D16" t="n">
-        <v>12.8844661824708</v>
+        <v>12.6807835736128</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.23115313802597</v>
+        <v>14.907233641824</v>
       </c>
       <c r="F16" t="n">
-        <v>-7.30210061294439</v>
+        <v>15.7298188715851</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.3038178460518</v>
+        <v>16.9370861056641</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.68653141069709</v>
+        <v>16.7614841332303</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.75296511479018</v>
+        <v>16.7617703202081</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.71166781750292</v>
+        <v>18.8520180862879</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.72899090227882</v>
+        <v>9.17331604486559</v>
       </c>
       <c r="B17" t="n">
-        <v>10.4698551709785</v>
+        <v>10.8851518266955</v>
       </c>
       <c r="C17" t="n">
-        <v>12.7350569630768</v>
+        <v>12.8756389074292</v>
       </c>
       <c r="D17" t="n">
-        <v>12.6597019156919</v>
+        <v>12.8102551956161</v>
       </c>
       <c r="E17" t="n">
-        <v>12.7535896281359</v>
+        <v>15.1827821991962</v>
       </c>
       <c r="F17" t="n">
-        <v>15.0031839191066</v>
+        <v>14.9897314704189</v>
       </c>
       <c r="G17" t="n">
-        <v>14.3211758151644</v>
+        <v>15.4625162441048</v>
       </c>
       <c r="H17" t="n">
-        <v>16.8586838300532</v>
+        <v>17.5098102910149</v>
       </c>
       <c r="I17" t="n">
-        <v>18.0680766865617</v>
+        <v>17.0830248141933</v>
       </c>
       <c r="J17" t="n">
-        <v>18.7515535061823</v>
+        <v>19.7446954293303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.88735611458459</v>
+        <v>8.98911532090726</v>
       </c>
       <c r="B18" t="n">
-        <v>11.7954023537612</v>
+        <v>11.9730906582758</v>
       </c>
       <c r="C18" t="n">
-        <v>10.89992870047</v>
+        <v>12.6957610865588</v>
       </c>
       <c r="D18" t="n">
-        <v>12.9114047505806</v>
+        <v>13.102674096306</v>
       </c>
       <c r="E18" t="n">
-        <v>15.1769525762541</v>
+        <v>12.906311381292</v>
       </c>
       <c r="F18" t="n">
-        <v>14.4642279855578</v>
+        <v>15.15680537152</v>
       </c>
       <c r="G18" t="n">
-        <v>17.2915026311548</v>
+        <v>15.7738352540014</v>
       </c>
       <c r="H18" t="n">
-        <v>16.7255390872297</v>
+        <v>16.9951925889542</v>
       </c>
       <c r="I18" t="n">
-        <v>17.9151570604315</v>
+        <v>19.2336701172026</v>
       </c>
       <c r="J18" t="n">
-        <v>18.8859353543181</v>
+        <v>19.2488092918572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.2127822032264</v>
+        <v>9.30854538705413</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.92472541394002</v>
+        <v>11.0828366939566</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.85006367055549</v>
+        <v>12.3524582035467</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.71798823866378</v>
+        <v>14.21673647019</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.82469914818763</v>
+        <v>14.4549222778558</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.40696320699226</v>
+        <v>14.6133882620853</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.17352187945937</v>
+        <v>5.50396710128612</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.70252850978412</v>
+        <v>6.17705322784012</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.91985553503237</v>
+        <v>6.55643687691741</v>
       </c>
       <c r="J19" t="n">
-        <v>-9.5538288113721</v>
+        <v>6.72118026018407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.3402894015611</v>
+        <v>3.21211433448275</v>
       </c>
       <c r="B20" t="n">
-        <v>11.1247441558292</v>
+        <v>2.92457048042404</v>
       </c>
       <c r="C20" t="n">
-        <v>11.697232795095</v>
+        <v>3.30664855695479</v>
       </c>
       <c r="D20" t="n">
-        <v>12.9864111083315</v>
+        <v>3.55323389266756</v>
       </c>
       <c r="E20" t="n">
-        <v>13.8519903928807</v>
+        <v>4.33873066769848</v>
       </c>
       <c r="F20" t="n">
-        <v>15.1563898137491</v>
+        <v>5.50659954677431</v>
       </c>
       <c r="G20" t="n">
-        <v>15.1559460501606</v>
+        <v>5.39712526510261</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.2346620555671</v>
+        <v>6.0691996564984</v>
       </c>
       <c r="I20" t="n">
-        <v>-8.98440322690542</v>
+        <v>7.62027001310166</v>
       </c>
       <c r="J20" t="n">
-        <v>-9.94231833296248</v>
+        <v>7.26378334682632</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.09564777516503</v>
+        <v>-5.33870533733658</v>
       </c>
       <c r="B21" t="n">
-        <v>-6.03950665962784</v>
+        <v>-5.43462238878755</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.73180798354452</v>
+        <v>-5.77810587014537</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.88386423346906</v>
+        <v>-6.32793681979376</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.00126850534471</v>
+        <v>-6.88123698738303</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.70245299346911</v>
+        <v>-7.27019571923086</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.88893157526119</v>
+        <v>-8.42781857975582</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.5543104487495</v>
+        <v>-8.66831693447297</v>
       </c>
       <c r="I21" t="n">
-        <v>-9.16621113988982</v>
+        <v>-9.10986429572159</v>
       </c>
       <c r="J21" t="n">
-        <v>-9.3215506244257</v>
+        <v>-9.17864835345828</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-4.85347760705099</v>
+        <v>2.04102505771446</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.0440674997668</v>
+        <v>2.7334671560856</v>
       </c>
       <c r="C22" t="n">
-        <v>11.9187900555825</v>
+        <v>4.53472775149975</v>
       </c>
       <c r="D22" t="n">
-        <v>13.6511064186757</v>
+        <v>3.14792587260478</v>
       </c>
       <c r="E22" t="n">
-        <v>13.4893055668297</v>
+        <v>4.58848990581462</v>
       </c>
       <c r="F22" t="n">
-        <v>15.4451326987694</v>
+        <v>4.72078158249512</v>
       </c>
       <c r="G22" t="n">
-        <v>17.4360780276141</v>
+        <v>5.37953867619802</v>
       </c>
       <c r="H22" t="n">
-        <v>16.9398560224535</v>
+        <v>5.8488403710524</v>
       </c>
       <c r="I22" t="n">
-        <v>17.4850439324086</v>
+        <v>6.53055826522326</v>
       </c>
       <c r="J22" t="n">
-        <v>18.2667926545314</v>
+        <v>7.1992915435179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-4.83826061200729</v>
+        <v>-5.51177727316034</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.3068748901787</v>
+        <v>-5.37213766175614</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.32833103174774</v>
+        <v>-5.76878822085361</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.3336324558386</v>
+        <v>12.0721013321689</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.83106723564659</v>
+        <v>14.0510912487593</v>
       </c>
       <c r="F23" t="n">
-        <v>4.90345001184502</v>
+        <v>15.5126608626503</v>
       </c>
       <c r="G23" t="n">
-        <v>5.57989859419688</v>
+        <v>15.6166833871713</v>
       </c>
       <c r="H23" t="n">
-        <v>6.16583321639434</v>
+        <v>18.4922451110436</v>
       </c>
       <c r="I23" t="n">
-        <v>7.24619825320421</v>
+        <v>17.8128362963959</v>
       </c>
       <c r="J23" t="n">
-        <v>6.69688914416321</v>
+        <v>20.1994282472364</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.49233243357378</v>
+        <v>10.4859345151086</v>
       </c>
       <c r="B24" t="n">
-        <v>10.1184997962918</v>
+        <v>11.6455948116452</v>
       </c>
       <c r="C24" t="n">
-        <v>11.8394674938776</v>
+        <v>12.5433856858667</v>
       </c>
       <c r="D24" t="n">
-        <v>12.4019108822771</v>
+        <v>12.9550572791419</v>
       </c>
       <c r="E24" t="n">
-        <v>13.9489282232619</v>
+        <v>14.6733308442535</v>
       </c>
       <c r="F24" t="n">
-        <v>15.1928990381474</v>
+        <v>14.863844783827</v>
       </c>
       <c r="G24" t="n">
-        <v>5.60929836458104</v>
+        <v>14.8739028498408</v>
       </c>
       <c r="H24" t="n">
-        <v>6.47718885560241</v>
+        <v>16.5628091473445</v>
       </c>
       <c r="I24" t="n">
-        <v>5.87786824701399</v>
+        <v>17.6046161681468</v>
       </c>
       <c r="J24" t="n">
-        <v>6.55910698316294</v>
+        <v>19.033807270615</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.11808561875948</v>
+        <v>11.0819193685259</v>
       </c>
       <c r="B25" t="n">
-        <v>3.68576448128184</v>
+        <v>10.1414021015472</v>
       </c>
       <c r="C25" t="n">
-        <v>4.36870622838218</v>
+        <v>13.4740546359371</v>
       </c>
       <c r="D25" t="n">
-        <v>4.01260862599845</v>
+        <v>12.3152486267169</v>
       </c>
       <c r="E25" t="n">
-        <v>4.45497673475032</v>
+        <v>13.1726572428887</v>
       </c>
       <c r="F25" t="n">
-        <v>5.52189969280278</v>
+        <v>14.7011107029474</v>
       </c>
       <c r="G25" t="n">
-        <v>5.11891418878508</v>
+        <v>15.0825954816943</v>
       </c>
       <c r="H25" t="n">
-        <v>6.32177357596379</v>
+        <v>16.0715262392785</v>
       </c>
       <c r="I25" t="n">
-        <v>6.18502708588255</v>
+        <v>17.0889765603994</v>
       </c>
       <c r="J25" t="n">
-        <v>7.92636504650473</v>
+        <v>19.6773657352186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.52776624950707</v>
+        <v>10.44397968011</v>
       </c>
       <c r="B26" t="n">
-        <v>11.3926842982861</v>
+        <v>10.6891488795503</v>
       </c>
       <c r="C26" t="n">
-        <v>12.0674631429339</v>
+        <v>12.2154970888035</v>
       </c>
       <c r="D26" t="n">
-        <v>13.7932202295331</v>
+        <v>13.9668936909313</v>
       </c>
       <c r="E26" t="n">
-        <v>13.3721472640613</v>
+        <v>13.4951360553253</v>
       </c>
       <c r="F26" t="n">
-        <v>14.8431450209443</v>
+        <v>15.8730606426929</v>
       </c>
       <c r="G26" t="n">
-        <v>15.8769322312779</v>
+        <v>15.6534508342127</v>
       </c>
       <c r="H26" t="n">
-        <v>16.1648625084983</v>
+        <v>6.4501785043485</v>
       </c>
       <c r="I26" t="n">
-        <v>17.6943129748191</v>
+        <v>5.93939229273629</v>
       </c>
       <c r="J26" t="n">
-        <v>19.3135547115778</v>
+        <v>6.70322878803107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-5.11513080948105</v>
+        <v>10.8535853374202</v>
       </c>
       <c r="B27" t="n">
-        <v>-5.30005619575658</v>
+        <v>11.781551211288</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.96907978259095</v>
+        <v>10.7210759130996</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.92819773323677</v>
+        <v>14.7839566103093</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.36961270498271</v>
+        <v>13.7981800759343</v>
       </c>
       <c r="F27" t="n">
-        <v>-7.76039707981842</v>
+        <v>15.2334205668492</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.91349890806495</v>
+        <v>16.6513938012127</v>
       </c>
       <c r="H27" t="n">
-        <v>-8.35857362176958</v>
+        <v>15.8368680605316</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.02747712212749</v>
+        <v>16.1427526244163</v>
       </c>
       <c r="J27" t="n">
-        <v>-9.70122393718304</v>
+        <v>18.7193022654083</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.958344911633</v>
+        <v>10.2630371820705</v>
       </c>
       <c r="B28" t="n">
-        <v>10.0256954944964</v>
+        <v>9.19150837551831</v>
       </c>
       <c r="C28" t="n">
-        <v>12.8193408994641</v>
+        <v>11.573310428618</v>
       </c>
       <c r="D28" t="n">
-        <v>13.5461421975137</v>
+        <v>12.635735360167</v>
       </c>
       <c r="E28" t="n">
-        <v>15.7570338620119</v>
+        <v>14.3629580111657</v>
       </c>
       <c r="F28" t="n">
-        <v>16.4188012178507</v>
+        <v>15.2458864796787</v>
       </c>
       <c r="G28" t="n">
-        <v>16.3123516569161</v>
+        <v>15.5042911897417</v>
       </c>
       <c r="H28" t="n">
-        <v>18.3561857838828</v>
+        <v>18.0466713359232</v>
       </c>
       <c r="I28" t="n">
-        <v>17.6413806259634</v>
+        <v>17.3473402500342</v>
       </c>
       <c r="J28" t="n">
-        <v>19.3749568952435</v>
+        <v>19.2675146143377</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.5089728573149</v>
+        <v>-5.11242488192084</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.78684200668631</v>
+        <v>-5.73141848364912</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.95364333286086</v>
+        <v>-6.31279445604624</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.87866452769089</v>
+        <v>-6.63164807775683</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.0859442004876</v>
+        <v>-7.19589668707832</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.84881477410102</v>
+        <v>-7.48664470205403</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.06538462582114</v>
+        <v>-7.94943923579962</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.1942786861613</v>
+        <v>-8.31913226632705</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.4692662109467</v>
+        <v>-9.35993606000226</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.39053839265751</v>
+        <v>-9.38759233373304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-4.98809551038947</v>
+        <v>10.1439327084252</v>
       </c>
       <c r="B30" t="n">
-        <v>-5.51023873427431</v>
+        <v>9.88406750147579</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.02923225645873</v>
+        <v>11.7830319126811</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.68339403700916</v>
+        <v>12.9757913999869</v>
       </c>
       <c r="E30" t="n">
-        <v>-7.04299527793113</v>
+        <v>-6.8522993870759</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.26517139567909</v>
+        <v>-7.53227663129157</v>
       </c>
       <c r="G30" t="n">
-        <v>-8.05077853865478</v>
+        <v>-8.0440975010765</v>
       </c>
       <c r="H30" t="n">
-        <v>-8.25616944250337</v>
+        <v>-8.36506214036997</v>
       </c>
       <c r="I30" t="n">
-        <v>-9.13974624766485</v>
+        <v>-9.47073849506258</v>
       </c>
       <c r="J30" t="n">
-        <v>-9.05312619481718</v>
+        <v>-9.70630995011052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-4.90278690734401</v>
+        <v>-5.14888991444661</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.57150959700795</v>
+        <v>-5.47242916031229</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.24671749246479</v>
+        <v>-5.93172931698965</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.61626714531744</v>
+        <v>-6.39616907974136</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.21884196476835</v>
+        <v>-6.61294396197579</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.47854952906885</v>
+        <v>-7.87495173417343</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.36624383294603</v>
+        <v>-8.09435389451768</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.37606194322884</v>
+        <v>-8.44312140469631</v>
       </c>
       <c r="I31" t="n">
-        <v>-9.37138056013109</v>
+        <v>-8.95927541872324</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.4972299677998</v>
+        <v>-9.36672033125018</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.17720371942727</v>
+        <v>-5.20312179162306</v>
       </c>
       <c r="B32" t="n">
-        <v>2.66958331918635</v>
+        <v>-5.69574519916186</v>
       </c>
       <c r="C32" t="n">
-        <v>3.33191390395896</v>
+        <v>-6.25635158263762</v>
       </c>
       <c r="D32" t="n">
-        <v>3.47660970446789</v>
+        <v>-6.85032401696969</v>
       </c>
       <c r="E32" t="n">
-        <v>4.44166868983435</v>
+        <v>-6.99868055712644</v>
       </c>
       <c r="F32" t="n">
-        <v>4.92203801261938</v>
+        <v>-7.67352807608924</v>
       </c>
       <c r="G32" t="n">
-        <v>4.83191924760665</v>
+        <v>-8.25520484428773</v>
       </c>
       <c r="H32" t="n">
-        <v>6.33343348338323</v>
+        <v>-8.81482438298013</v>
       </c>
       <c r="I32" t="n">
-        <v>6.52142975001073</v>
+        <v>-8.9502269677195</v>
       </c>
       <c r="J32" t="n">
-        <v>7.11478722045166</v>
+        <v>-9.26132992187561</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.50647071914707</v>
+        <v>11.8988264456734</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2464309216657</v>
+        <v>11.7692806294587</v>
       </c>
       <c r="C33" t="n">
-        <v>11.7592428686168</v>
+        <v>11.9640142637174</v>
       </c>
       <c r="D33" t="n">
-        <v>12.0186457890256</v>
+        <v>13.4456596936329</v>
       </c>
       <c r="E33" t="n">
-        <v>14.4578894420727</v>
+        <v>13.888079566192</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.41970516257649</v>
+        <v>14.8151467955278</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.24290432968199</v>
+        <v>15.5346496968124</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.60631356585673</v>
+        <v>15.7623382581941</v>
       </c>
       <c r="I33" t="n">
-        <v>17.2630373574882</v>
+        <v>18.0516345050539</v>
       </c>
       <c r="J33" t="n">
-        <v>18.892801315674</v>
+        <v>17.7690630378615</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.08673328066741</v>
+        <v>10.0401614482584</v>
       </c>
       <c r="B34" t="n">
-        <v>12.4537801929787</v>
+        <v>10.751711630914</v>
       </c>
       <c r="C34" t="n">
-        <v>11.7698558926323</v>
+        <v>12.2872148055559</v>
       </c>
       <c r="D34" t="n">
-        <v>13.6410312683849</v>
+        <v>12.7657596254425</v>
       </c>
       <c r="E34" t="n">
-        <v>14.9353358359612</v>
+        <v>4.63040769438237</v>
       </c>
       <c r="F34" t="n">
-        <v>15.4225322009879</v>
+        <v>5.19182057383061</v>
       </c>
       <c r="G34" t="n">
-        <v>14.8147465382477</v>
+        <v>5.68647155249995</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4739743116842</v>
+        <v>5.97845091472735</v>
       </c>
       <c r="I34" t="n">
-        <v>18.6628047094955</v>
+        <v>5.99013039467271</v>
       </c>
       <c r="J34" t="n">
-        <v>18.2414359806818</v>
+        <v>7.01574386193187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-5.49819953291358</v>
+        <v>2.94162189650412</v>
       </c>
       <c r="B35" t="n">
-        <v>3.36608107972899</v>
+        <v>2.24076442121923</v>
       </c>
       <c r="C35" t="n">
-        <v>3.53366913577131</v>
+        <v>2.31733392155846</v>
       </c>
       <c r="D35" t="n">
-        <v>4.42450509440155</v>
+        <v>4.24800128762985</v>
       </c>
       <c r="E35" t="n">
-        <v>4.80095283712213</v>
+        <v>4.59884799923495</v>
       </c>
       <c r="F35" t="n">
-        <v>4.67450863821113</v>
+        <v>4.21049655116727</v>
       </c>
       <c r="G35" t="n">
-        <v>5.1449389493249</v>
+        <v>5.71292983042387</v>
       </c>
       <c r="H35" t="n">
-        <v>5.854896163323</v>
+        <v>6.25062406323151</v>
       </c>
       <c r="I35" t="n">
-        <v>6.23642901974574</v>
+        <v>-8.75790384199438</v>
       </c>
       <c r="J35" t="n">
-        <v>7.37831378029118</v>
+        <v>-9.80957502215068</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.1875004758946</v>
+        <v>-4.59056760582562</v>
       </c>
       <c r="B36" t="n">
-        <v>10.4098047794517</v>
+        <v>-5.28884803491911</v>
       </c>
       <c r="C36" t="n">
-        <v>12.9351118669244</v>
+        <v>-5.50307184395903</v>
       </c>
       <c r="D36" t="n">
-        <v>13.1487096945714</v>
+        <v>-6.93611332479077</v>
       </c>
       <c r="E36" t="n">
-        <v>13.23680421379</v>
+        <v>-6.87187147207067</v>
       </c>
       <c r="F36" t="n">
-        <v>14.7530068774743</v>
+        <v>-7.89257137109609</v>
       </c>
       <c r="G36" t="n">
-        <v>15.9679451603833</v>
+        <v>-7.75024331777225</v>
       </c>
       <c r="H36" t="n">
-        <v>17.1214895625425</v>
+        <v>-8.42646719783248</v>
       </c>
       <c r="I36" t="n">
-        <v>18.4691647571609</v>
+        <v>-9.17760555478088</v>
       </c>
       <c r="J36" t="n">
-        <v>20.0052441599909</v>
+        <v>-9.42803281671926</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.49305672393124</v>
+        <v>9.02117715112167</v>
       </c>
       <c r="B37" t="n">
-        <v>10.8303346685769</v>
+        <v>9.96277736450773</v>
       </c>
       <c r="C37" t="n">
-        <v>-6.25838784939251</v>
+        <v>11.3591228020449</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.95210660329667</v>
+        <v>13.9884452553195</v>
       </c>
       <c r="E37" t="n">
-        <v>-7.17163263573704</v>
+        <v>13.9884235515775</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.61219069996215</v>
+        <v>15.0701465825817</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.80494868664554</v>
+        <v>19.0381805091365</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.47273525629036</v>
+        <v>18.2583001766366</v>
       </c>
       <c r="I37" t="n">
-        <v>-8.8814396750637</v>
+        <v>18.1317749316019</v>
       </c>
       <c r="J37" t="n">
-        <v>5.55012474994796</v>
+        <v>18.6374513882009</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8.77911620879259</v>
+        <v>-4.79500193660835</v>
       </c>
       <c r="B38" t="n">
-        <v>11.6148315611949</v>
+        <v>-5.40243617988688</v>
       </c>
       <c r="C38" t="n">
-        <v>12.2374299620065</v>
+        <v>-6.35913726564891</v>
       </c>
       <c r="D38" t="n">
-        <v>13.2476358627369</v>
+        <v>-6.42843724329194</v>
       </c>
       <c r="E38" t="n">
-        <v>13.1524985314591</v>
+        <v>-6.97787552083177</v>
       </c>
       <c r="F38" t="n">
-        <v>5.27651238147887</v>
+        <v>-7.57339227999043</v>
       </c>
       <c r="G38" t="n">
-        <v>5.48180386957261</v>
+        <v>-7.69303070413163</v>
       </c>
       <c r="H38" t="n">
-        <v>5.88276014378024</v>
+        <v>-8.1835732613457</v>
       </c>
       <c r="I38" t="n">
-        <v>6.54179000751375</v>
+        <v>-9.46861583359696</v>
       </c>
       <c r="J38" t="n">
-        <v>6.98160463910523</v>
+        <v>-9.4186045867578</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8.8932539392867</v>
+        <v>2.28560134194109</v>
       </c>
       <c r="B39" t="n">
-        <v>9.51606027341886</v>
+        <v>2.79266628572331</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.88479002827021</v>
+        <v>4.24784597180295</v>
       </c>
       <c r="D39" t="n">
-        <v>-6.27054578625645</v>
+        <v>3.99217268123249</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.89918047990347</v>
+        <v>4.33263560175254</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.69943409680272</v>
+        <v>4.4441629207192</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.37570570655531</v>
+        <v>5.50169599572799</v>
       </c>
       <c r="H39" t="n">
-        <v>-8.64828317718369</v>
+        <v>5.9068736389311</v>
       </c>
       <c r="I39" t="n">
-        <v>-8.71285198805418</v>
+        <v>6.31444732231084</v>
       </c>
       <c r="J39" t="n">
-        <v>-9.32761048474339</v>
+        <v>6.93920287939516</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.15350383347432</v>
+        <v>9.40176955670908</v>
       </c>
       <c r="B40" t="n">
-        <v>10.9566465794992</v>
+        <v>10.2471463524349</v>
       </c>
       <c r="C40" t="n">
-        <v>10.2430214314838</v>
+        <v>12.3908007600362</v>
       </c>
       <c r="D40" t="n">
-        <v>12.9289383906505</v>
+        <v>14.0535540678717</v>
       </c>
       <c r="E40" t="n">
-        <v>4.38544296217714</v>
+        <v>13.2320792500601</v>
       </c>
       <c r="F40" t="n">
-        <v>5.87525844446407</v>
+        <v>15.9207123850716</v>
       </c>
       <c r="G40" t="n">
-        <v>5.21978838957531</v>
+        <v>16.4455523328655</v>
       </c>
       <c r="H40" t="n">
-        <v>6.29628765179415</v>
+        <v>16.7005579557086</v>
       </c>
       <c r="I40" t="n">
-        <v>6.1156421790388</v>
+        <v>18.6908578984637</v>
       </c>
       <c r="J40" t="n">
-        <v>6.8347931408872</v>
+        <v>17.2275940140263</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.68003619431587</v>
+        <v>10.1370934330412</v>
       </c>
       <c r="B41" t="n">
-        <v>3.1808420497051</v>
+        <v>12.624473556148</v>
       </c>
       <c r="C41" t="n">
-        <v>3.85644642616557</v>
+        <v>10.5641441139939</v>
       </c>
       <c r="D41" t="n">
-        <v>4.77972342700702</v>
+        <v>3.46905327227818</v>
       </c>
       <c r="E41" t="n">
-        <v>5.11315696511228</v>
+        <v>3.93752434224835</v>
       </c>
       <c r="F41" t="n">
-        <v>5.68361167080363</v>
+        <v>5.50922203728698</v>
       </c>
       <c r="G41" t="n">
-        <v>5.98577968755997</v>
+        <v>5.00531588623052</v>
       </c>
       <c r="H41" t="n">
-        <v>6.09008475993924</v>
+        <v>6.19513138162348</v>
       </c>
       <c r="I41" t="n">
-        <v>6.43831852472389</v>
+        <v>6.4752222513969</v>
       </c>
       <c r="J41" t="n">
-        <v>7.81979640615485</v>
+        <v>7.16063209351803</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.85688302821261</v>
+        <v>9.11554191375154</v>
       </c>
       <c r="B42" t="n">
-        <v>3.289384227405</v>
+        <v>11.0672564942474</v>
       </c>
       <c r="C42" t="n">
-        <v>3.95441450661233</v>
+        <v>11.4397195430897</v>
       </c>
       <c r="D42" t="n">
-        <v>5.04710929636073</v>
+        <v>11.9682561722888</v>
       </c>
       <c r="E42" t="n">
-        <v>5.00589927476552</v>
+        <v>14.8298757055069</v>
       </c>
       <c r="F42" t="n">
-        <v>5.9348728620997</v>
+        <v>15.5758026986111</v>
       </c>
       <c r="G42" t="n">
-        <v>5.0246198852316</v>
+        <v>16.611671150076</v>
       </c>
       <c r="H42" t="n">
-        <v>6.29169720081128</v>
+        <v>6.16050808333619</v>
       </c>
       <c r="I42" t="n">
-        <v>7.23031361123038</v>
+        <v>6.93845425771799</v>
       </c>
       <c r="J42" t="n">
-        <v>7.54389534773235</v>
+        <v>7.45747363845538</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.98346702989467</v>
+        <v>9.68564192301674</v>
       </c>
       <c r="B43" t="n">
-        <v>11.3464263342162</v>
+        <v>10.6569325135782</v>
       </c>
       <c r="C43" t="n">
-        <v>12.8542021957865</v>
+        <v>12.9974539046863</v>
       </c>
       <c r="D43" t="n">
-        <v>13.7195201354346</v>
+        <v>13.9068140442468</v>
       </c>
       <c r="E43" t="n">
-        <v>13.8945979549511</v>
+        <v>14.6268737514033</v>
       </c>
       <c r="F43" t="n">
-        <v>14.4881995852745</v>
+        <v>14.8781733635717</v>
       </c>
       <c r="G43" t="n">
-        <v>15.418621690183</v>
+        <v>16.4536396157153</v>
       </c>
       <c r="H43" t="n">
-        <v>17.2426908327815</v>
+        <v>18.0338858713341</v>
       </c>
       <c r="I43" t="n">
-        <v>17.7347471144721</v>
+        <v>18.0659473587459</v>
       </c>
       <c r="J43" t="n">
-        <v>18.7436344394721</v>
+        <v>19.1426442625779</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-5.38333995153476</v>
+        <v>3.18031558028071</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.73361876304072</v>
+        <v>2.89485689884558</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.24862240398154</v>
+        <v>2.66785419730785</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.91655075073598</v>
+        <v>3.51583376294547</v>
       </c>
       <c r="E44" t="n">
-        <v>-6.84850264636604</v>
+        <v>4.71897916223387</v>
       </c>
       <c r="F44" t="n">
-        <v>-7.46792541054067</v>
+        <v>5.16538904989587</v>
       </c>
       <c r="G44" t="n">
-        <v>6.3671926732922</v>
+        <v>5.04143108153856</v>
       </c>
       <c r="H44" t="n">
-        <v>5.46803719388202</v>
+        <v>7.07992199820164</v>
       </c>
       <c r="I44" t="n">
-        <v>6.37565756979059</v>
+        <v>-8.90299252894212</v>
       </c>
       <c r="J44" t="n">
-        <v>6.10405250153151</v>
+        <v>-9.46389047956039</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.90560293958321</v>
+        <v>2.58867377439044</v>
       </c>
       <c r="B45" t="n">
-        <v>2.81152115427591</v>
+        <v>3.00950820663946</v>
       </c>
       <c r="C45" t="n">
-        <v>3.61962763228577</v>
+        <v>3.70925957431595</v>
       </c>
       <c r="D45" t="n">
-        <v>3.96547259006405</v>
+        <v>13.5175388518982</v>
       </c>
       <c r="E45" t="n">
-        <v>4.66000459519821</v>
+        <v>15.1725703337234</v>
       </c>
       <c r="F45" t="n">
-        <v>5.57279217110774</v>
+        <v>13.2965134032931</v>
       </c>
       <c r="G45" t="n">
-        <v>5.04472718862258</v>
+        <v>15.8866195606505</v>
       </c>
       <c r="H45" t="n">
-        <v>5.84775214454851</v>
+        <v>16.7168188085163</v>
       </c>
       <c r="I45" t="n">
-        <v>6.29958308361727</v>
+        <v>6.66522735011863</v>
       </c>
       <c r="J45" t="n">
-        <v>7.02581932793587</v>
+        <v>6.19211136363952</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.9808866860533</v>
+        <v>-4.81873475768081</v>
       </c>
       <c r="B46" t="n">
-        <v>11.1720329394294</v>
+        <v>-5.67426287830227</v>
       </c>
       <c r="C46" t="n">
-        <v>11.799277570874</v>
+        <v>-6.37398950468347</v>
       </c>
       <c r="D46" t="n">
-        <v>13.3273558373254</v>
+        <v>-6.5771913930673</v>
       </c>
       <c r="E46" t="n">
-        <v>13.8760906479371</v>
+        <v>-7.41184010765187</v>
       </c>
       <c r="F46" t="n">
-        <v>14.885125904308</v>
+        <v>-7.61046957769464</v>
       </c>
       <c r="G46" t="n">
-        <v>15.1265781800105</v>
+        <v>-7.83044281569987</v>
       </c>
       <c r="H46" t="n">
-        <v>17.3390027663221</v>
+        <v>-8.56105093448322</v>
       </c>
       <c r="I46" t="n">
-        <v>5.91354600042318</v>
+        <v>-8.71369869195729</v>
       </c>
       <c r="J46" t="n">
-        <v>7.18039577165357</v>
+        <v>-9.80536845039303</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-4.69249894294745</v>
+        <v>-4.83216512997173</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.81147186873763</v>
+        <v>-5.43147365735781</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.36302080399363</v>
+        <v>-5.75770528624754</v>
       </c>
       <c r="D47" t="n">
-        <v>-6.30219996774288</v>
+        <v>-6.55883627944942</v>
       </c>
       <c r="E47" t="n">
-        <v>-6.90053198496012</v>
+        <v>-7.0091711302092</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.15366190966041</v>
+        <v>-7.22923073407669</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.88797103535559</v>
+        <v>-8.41117326939307</v>
       </c>
       <c r="H47" t="n">
-        <v>-8.75813480773916</v>
+        <v>-8.5727504048574</v>
       </c>
       <c r="I47" t="n">
-        <v>-9.12146679420201</v>
+        <v>-9.14070985212907</v>
       </c>
       <c r="J47" t="n">
-        <v>-9.37483006797532</v>
+        <v>-9.06570676161215</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10.0661188462205</v>
+        <v>-4.97876560743139</v>
       </c>
       <c r="B48" t="n">
-        <v>11.3485748709086</v>
+        <v>-5.34734181032451</v>
       </c>
       <c r="C48" t="n">
-        <v>11.9747400933392</v>
+        <v>-5.42067304973332</v>
       </c>
       <c r="D48" t="n">
-        <v>12.4677038912427</v>
+        <v>-6.53810282359706</v>
       </c>
       <c r="E48" t="n">
-        <v>13.3126158927192</v>
+        <v>-7.40477127310274</v>
       </c>
       <c r="F48" t="n">
-        <v>14.2077010818339</v>
+        <v>-7.64513465420495</v>
       </c>
       <c r="G48" t="n">
-        <v>16.8927852304681</v>
+        <v>-7.90506655202836</v>
       </c>
       <c r="H48" t="n">
-        <v>17.7131407278612</v>
+        <v>-8.5052512109558</v>
       </c>
       <c r="I48" t="n">
-        <v>18.2780040392032</v>
+        <v>-8.77954426026208</v>
       </c>
       <c r="J48" t="n">
-        <v>19.7768498776199</v>
+        <v>-9.69639337234192</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-4.79011672692091</v>
+        <v>10.0014200916202</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.33330430463692</v>
+        <v>10.048698680064</v>
       </c>
       <c r="C49" t="n">
-        <v>-5.51159309123603</v>
+        <v>12.0439444554093</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.26146391184406</v>
+        <v>12.5633031429759</v>
       </c>
       <c r="E49" t="n">
-        <v>-6.57044646696496</v>
+        <v>14.4030127295726</v>
       </c>
       <c r="F49" t="n">
-        <v>-7.31514260100263</v>
+        <v>14.696293790623</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.94936990581113</v>
+        <v>16.8393004316525</v>
       </c>
       <c r="H49" t="n">
-        <v>-8.52383635186023</v>
+        <v>17.5363747959079</v>
       </c>
       <c r="I49" t="n">
-        <v>-9.01205608283356</v>
+        <v>7.09856730554901</v>
       </c>
       <c r="J49" t="n">
-        <v>-9.48791794652119</v>
+        <v>7.66493644838771</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9.55245543540026</v>
+        <v>9.74865685968975</v>
       </c>
       <c r="B50" t="n">
-        <v>11.6358547796408</v>
+        <v>10.9034836497197</v>
       </c>
       <c r="C50" t="n">
-        <v>11.2365525228229</v>
+        <v>3.58402398121173</v>
       </c>
       <c r="D50" t="n">
-        <v>12.7898289670502</v>
+        <v>3.12195688496895</v>
       </c>
       <c r="E50" t="n">
-        <v>13.6004072072345</v>
+        <v>3.5988496253587</v>
       </c>
       <c r="F50" t="n">
-        <v>14.4205672106887</v>
+        <v>5.37066543858856</v>
       </c>
       <c r="G50" t="n">
-        <v>15.6393441778797</v>
+        <v>6.57026395197241</v>
       </c>
       <c r="H50" t="n">
-        <v>7.21977748445313</v>
+        <v>6.32914844830656</v>
       </c>
       <c r="I50" t="n">
-        <v>5.83030630418131</v>
+        <v>6.00844706277673</v>
       </c>
       <c r="J50" t="n">
-        <v>7.10126759524753</v>
+        <v>6.87642047389815</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.6359429216361</v>
+        <v>2.98156526398443</v>
       </c>
       <c r="B51" t="n">
-        <v>11.4080909248037</v>
+        <v>2.39750353465599</v>
       </c>
       <c r="C51" t="n">
-        <v>11.2045595500918</v>
+        <v>2.13290303767141</v>
       </c>
       <c r="D51" t="n">
-        <v>13.1248845913044</v>
+        <v>4.47074068349052</v>
       </c>
       <c r="E51" t="n">
-        <v>14.4090467425911</v>
+        <v>4.77795439376132</v>
       </c>
       <c r="F51" t="n">
-        <v>13.8165822146071</v>
+        <v>4.40924553921233</v>
       </c>
       <c r="G51" t="n">
-        <v>16.3196106113058</v>
+        <v>5.3709963190912</v>
       </c>
       <c r="H51" t="n">
-        <v>17.5986100575948</v>
+        <v>6.5315458443076</v>
       </c>
       <c r="I51" t="n">
-        <v>18.5425800592498</v>
+        <v>6.09998016150893</v>
       </c>
       <c r="J51" t="n">
-        <v>19.0491636911449</v>
+        <v>6.3182119912362</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-5.12735243092608</v>
+        <v>9.35803283509338</v>
       </c>
       <c r="B52" t="n">
-        <v>-5.6935346913783</v>
+        <v>10.3225247010887</v>
       </c>
       <c r="C52" t="n">
-        <v>-6.17673475014267</v>
+        <v>12.1941743620283</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.5676605192672</v>
+        <v>12.6352654702212</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.35246552801199</v>
+        <v>13.5502414982027</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.4723638822628</v>
+        <v>15.5701760732427</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.63683422353822</v>
+        <v>15.8742259858303</v>
       </c>
       <c r="H52" t="n">
-        <v>-8.09729256843506</v>
+        <v>17.6286591852919</v>
       </c>
       <c r="I52" t="n">
-        <v>-8.99964952679256</v>
+        <v>19.4639148078768</v>
       </c>
       <c r="J52" t="n">
-        <v>-9.26669128585881</v>
+        <v>19.7324526806175</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.3230097966096</v>
+        <v>9.11258186703715</v>
       </c>
       <c r="B53" t="n">
-        <v>10.3639684435714</v>
+        <v>7.95971078546305</v>
       </c>
       <c r="C53" t="n">
-        <v>-6.12150003707995</v>
+        <v>12.0977822924759</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.32491501369115</v>
+        <v>14.51686342589</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.63412415979628</v>
+        <v>14.6116798518198</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.48501260619736</v>
+        <v>15.2623539810609</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.85590712965616</v>
+        <v>17.3548509127454</v>
       </c>
       <c r="H53" t="n">
-        <v>-8.47363134032339</v>
+        <v>17.0978770526934</v>
       </c>
       <c r="I53" t="n">
-        <v>-8.75514369594572</v>
+        <v>19.1248996023205</v>
       </c>
       <c r="J53" t="n">
-        <v>-8.93119664118117</v>
+        <v>19.1769213428294</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10.0486952114081</v>
+        <v>1.75590626826148</v>
       </c>
       <c r="B54" t="n">
-        <v>10.7516456078106</v>
+        <v>3.6927709038124</v>
       </c>
       <c r="C54" t="n">
-        <v>-6.0684842740637</v>
+        <v>3.21364239177519</v>
       </c>
       <c r="D54" t="n">
-        <v>-6.395311485973</v>
+        <v>3.57310856995999</v>
       </c>
       <c r="E54" t="n">
-        <v>-6.68324209405356</v>
+        <v>4.46078545575673</v>
       </c>
       <c r="F54" t="n">
-        <v>-7.27753444434323</v>
+        <v>4.61617114881227</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.03876355804899</v>
+        <v>5.66669657454002</v>
       </c>
       <c r="H54" t="n">
-        <v>-8.61741806852747</v>
+        <v>5.51311278381022</v>
       </c>
       <c r="I54" t="n">
-        <v>-9.01923283337417</v>
+        <v>5.98682656437215</v>
       </c>
       <c r="J54" t="n">
-        <v>-9.47306179835399</v>
+        <v>7.05349076243272</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-4.69014377573602</v>
+        <v>2.99758462787902</v>
       </c>
       <c r="B55" t="n">
-        <v>-5.40877350802932</v>
+        <v>3.25454727453997</v>
       </c>
       <c r="C55" t="n">
-        <v>-5.6513439186996</v>
+        <v>2.89998594943071</v>
       </c>
       <c r="D55" t="n">
-        <v>-6.67382566304824</v>
+        <v>3.5158150666488</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.28896689742831</v>
+        <v>4.09653043042389</v>
       </c>
       <c r="F55" t="n">
-        <v>-7.28606177251817</v>
+        <v>4.21639313661379</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.91572734126032</v>
+        <v>4.39915875658418</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.70900331534377</v>
+        <v>5.1057287628611</v>
       </c>
       <c r="I55" t="n">
-        <v>-9.08426974160732</v>
+        <v>7.23953839332002</v>
       </c>
       <c r="J55" t="n">
-        <v>-9.51521366823076</v>
+        <v>6.93345329034183</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.9346088967886</v>
+        <v>10.6291638025058</v>
       </c>
       <c r="B56" t="n">
-        <v>11.0113237539678</v>
+        <v>11.0081643382076</v>
       </c>
       <c r="C56" t="n">
-        <v>12.0456186278677</v>
+        <v>10.5321278289541</v>
       </c>
       <c r="D56" t="n">
-        <v>13.725358273897</v>
+        <v>13.454123382926</v>
       </c>
       <c r="E56" t="n">
-        <v>-6.72625405227095</v>
+        <v>15.9351896756736</v>
       </c>
       <c r="F56" t="n">
-        <v>-7.66426533101963</v>
+        <v>14.7541163059328</v>
       </c>
       <c r="G56" t="n">
-        <v>5.5090435906826</v>
+        <v>15.1871357591416</v>
       </c>
       <c r="H56" t="n">
-        <v>5.1211462390988</v>
+        <v>16.5412000394425</v>
       </c>
       <c r="I56" t="n">
-        <v>6.21212646665502</v>
+        <v>16.8187076374339</v>
       </c>
       <c r="J56" t="n">
-        <v>7.02270117229986</v>
+        <v>20.2589517171124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3.02723282128393</v>
+        <v>10.2159279298482</v>
       </c>
       <c r="B57" t="n">
-        <v>3.25190882234916</v>
+        <v>10.4801776230704</v>
       </c>
       <c r="C57" t="n">
-        <v>2.77378887250191</v>
+        <v>11.4053651948354</v>
       </c>
       <c r="D57" t="n">
-        <v>3.74472025194761</v>
+        <v>12.8522307212624</v>
       </c>
       <c r="E57" t="n">
-        <v>4.1946520045044</v>
+        <v>15.050861020061</v>
       </c>
       <c r="F57" t="n">
-        <v>5.54167914649754</v>
+        <v>16.6222883021047</v>
       </c>
       <c r="G57" t="n">
-        <v>5.55064865199606</v>
+        <v>18.0984585067436</v>
       </c>
       <c r="H57" t="n">
-        <v>5.41764618711694</v>
+        <v>18.0678216775145</v>
       </c>
       <c r="I57" t="n">
-        <v>6.37768793196921</v>
+        <v>17.8191413369613</v>
       </c>
       <c r="J57" t="n">
-        <v>6.98547669355767</v>
+        <v>18.7342669525383</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.2882996860534</v>
+        <v>-4.81292040421195</v>
       </c>
       <c r="B58" t="n">
-        <v>11.1836911706201</v>
+        <v>-5.04040507188739</v>
       </c>
       <c r="C58" t="n">
-        <v>12.3964119965291</v>
+        <v>-6.30772833157035</v>
       </c>
       <c r="D58" t="n">
-        <v>4.28968338244252</v>
+        <v>-6.65620577719517</v>
       </c>
       <c r="E58" t="n">
-        <v>4.84575908022732</v>
+        <v>-6.67316118643325</v>
       </c>
       <c r="F58" t="n">
-        <v>4.71644157470972</v>
+        <v>-7.15986824978679</v>
       </c>
       <c r="G58" t="n">
-        <v>5.81489998673359</v>
+        <v>-7.55784555650033</v>
       </c>
       <c r="H58" t="n">
-        <v>6.61858676410505</v>
+        <v>-8.55302633914294</v>
       </c>
       <c r="I58" t="n">
-        <v>5.75637274863519</v>
+        <v>-8.9382197438583</v>
       </c>
       <c r="J58" t="n">
-        <v>5.82642611846374</v>
+        <v>-9.81554369846621</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.02207464949921</v>
+        <v>-5.29464137198674</v>
       </c>
       <c r="B59" t="n">
-        <v>10.7924989970232</v>
+        <v>-5.07164723418214</v>
       </c>
       <c r="C59" t="n">
-        <v>10.9951427838279</v>
+        <v>-6.18690201689946</v>
       </c>
       <c r="D59" t="n">
-        <v>11.8469814101867</v>
+        <v>-6.40747271320269</v>
       </c>
       <c r="E59" t="n">
-        <v>4.96664353089559</v>
+        <v>-7.10330584399292</v>
       </c>
       <c r="F59" t="n">
-        <v>4.72391496169654</v>
+        <v>-7.14441737030893</v>
       </c>
       <c r="G59" t="n">
-        <v>5.88104453923987</v>
+        <v>-8.62456850752131</v>
       </c>
       <c r="H59" t="n">
-        <v>6.43453856843972</v>
+        <v>-8.75537262946278</v>
       </c>
       <c r="I59" t="n">
-        <v>7.00836610402071</v>
+        <v>-9.20322487495659</v>
       </c>
       <c r="J59" t="n">
-        <v>6.26140217692027</v>
+        <v>-8.84058195362204</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11.0441712420099</v>
+        <v>-5.09372960507919</v>
       </c>
       <c r="B60" t="n">
-        <v>10.5017772666217</v>
+        <v>-5.50744734687635</v>
       </c>
       <c r="C60" t="n">
-        <v>12.564225645838</v>
+        <v>10.8400976839771</v>
       </c>
       <c r="D60" t="n">
-        <v>11.9977735498486</v>
+        <v>13.809382275137</v>
       </c>
       <c r="E60" t="n">
-        <v>14.215637059932</v>
+        <v>-6.89939295741164</v>
       </c>
       <c r="F60" t="n">
-        <v>14.1969733676931</v>
+        <v>-7.70104574144003</v>
       </c>
       <c r="G60" t="n">
-        <v>15.0560620993325</v>
+        <v>-8.30568159452894</v>
       </c>
       <c r="H60" t="n">
-        <v>15.7778059303153</v>
+        <v>-8.73435101041055</v>
       </c>
       <c r="I60" t="n">
-        <v>17.6861934722352</v>
+        <v>-8.75376302579297</v>
       </c>
       <c r="J60" t="n">
-        <v>19.0733094375342</v>
+        <v>-9.48817340735978</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.12485271920325</v>
+        <v>1.80323858590563</v>
       </c>
       <c r="B61" t="n">
-        <v>11.8813783870563</v>
+        <v>3.16557749497208</v>
       </c>
       <c r="C61" t="n">
-        <v>11.0567395013325</v>
+        <v>3.47562659068442</v>
       </c>
       <c r="D61" t="n">
-        <v>13.076132473809</v>
+        <v>3.9869765376968</v>
       </c>
       <c r="E61" t="n">
-        <v>14.8110290457019</v>
+        <v>3.91019933394002</v>
       </c>
       <c r="F61" t="n">
-        <v>15.4103611100424</v>
+        <v>5.52955910986531</v>
       </c>
       <c r="G61" t="n">
-        <v>15.3395652422215</v>
+        <v>4.8304044799963</v>
       </c>
       <c r="H61" t="n">
-        <v>16.7817528801864</v>
+        <v>5.68985152771125</v>
       </c>
       <c r="I61" t="n">
-        <v>6.25098230436752</v>
+        <v>-8.89533899565854</v>
       </c>
       <c r="J61" t="n">
-        <v>7.0598562470954</v>
+        <v>-9.35746203975794</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-5.07411588231039</v>
+        <v>10.4871408537051</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.32583078947802</v>
+        <v>11.3524556566062</v>
       </c>
       <c r="C62" t="n">
-        <v>-6.20633795318058</v>
+        <v>-5.93325994310301</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.79476222611823</v>
+        <v>-6.81892792836226</v>
       </c>
       <c r="E62" t="n">
-        <v>4.18195185042739</v>
+        <v>-7.14132644136392</v>
       </c>
       <c r="F62" t="n">
-        <v>4.94217625487046</v>
+        <v>-7.35537719608841</v>
       </c>
       <c r="G62" t="n">
-        <v>4.85797185101918</v>
+        <v>-7.97809137366851</v>
       </c>
       <c r="H62" t="n">
-        <v>6.23061065062235</v>
+        <v>-8.04104015617461</v>
       </c>
       <c r="I62" t="n">
-        <v>7.23855157110822</v>
+        <v>-9.1282751749947</v>
       </c>
       <c r="J62" t="n">
-        <v>6.91977899497891</v>
+        <v>-9.65561220356748</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.30576936772548</v>
+        <v>2.88375916759854</v>
       </c>
       <c r="B63" t="n">
-        <v>11.2589957304205</v>
+        <v>2.08347850811321</v>
       </c>
       <c r="C63" t="n">
-        <v>11.7099365237937</v>
+        <v>3.93263791782049</v>
       </c>
       <c r="D63" t="n">
-        <v>13.3475605565841</v>
+        <v>3.75840489412433</v>
       </c>
       <c r="E63" t="n">
-        <v>14.8743581968594</v>
+        <v>4.80188887756275</v>
       </c>
       <c r="F63" t="n">
-        <v>5.20222827036917</v>
+        <v>5.17721649506627</v>
       </c>
       <c r="G63" t="n">
-        <v>5.767130500053</v>
+        <v>5.30216695967208</v>
       </c>
       <c r="H63" t="n">
-        <v>5.43214344074386</v>
+        <v>5.89267667146971</v>
       </c>
       <c r="I63" t="n">
-        <v>6.67227661845165</v>
+        <v>5.58312446994265</v>
       </c>
       <c r="J63" t="n">
-        <v>7.859277432087</v>
+        <v>6.88352587931899</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-5.11676946995893</v>
+        <v>9.05371073857486</v>
       </c>
       <c r="B64" t="n">
-        <v>-5.55438291459495</v>
+        <v>11.3873254049274</v>
       </c>
       <c r="C64" t="n">
-        <v>-6.17666974087476</v>
+        <v>12.060408535358</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.56119992951396</v>
+        <v>12.7333916230254</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.67117199707271</v>
+        <v>13.6944164034116</v>
       </c>
       <c r="F64" t="n">
-        <v>-7.18184300643519</v>
+        <v>14.4827410486067</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.16407604860486</v>
+        <v>16.4097999185824</v>
       </c>
       <c r="H64" t="n">
-        <v>-8.3066451065875</v>
+        <v>16.6074233475727</v>
       </c>
       <c r="I64" t="n">
-        <v>-8.99850834061629</v>
+        <v>17.3891369600002</v>
       </c>
       <c r="J64" t="n">
-        <v>-8.94092041335593</v>
+        <v>20.0412367506493</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.6377069988544</v>
+        <v>-4.89934049542258</v>
       </c>
       <c r="B65" t="n">
-        <v>11.8920751137388</v>
+        <v>-5.29367960219486</v>
       </c>
       <c r="C65" t="n">
-        <v>2.80045766368528</v>
+        <v>-5.96952122476914</v>
       </c>
       <c r="D65" t="n">
-        <v>4.18676814750492</v>
+        <v>-6.48275723440309</v>
       </c>
       <c r="E65" t="n">
-        <v>4.06372973554691</v>
+        <v>-6.99927271003206</v>
       </c>
       <c r="F65" t="n">
-        <v>6.01849783070555</v>
+        <v>-7.30734952079891</v>
       </c>
       <c r="G65" t="n">
-        <v>5.31834289361024</v>
+        <v>-8.09790110534187</v>
       </c>
       <c r="H65" t="n">
-        <v>6.29409052670861</v>
+        <v>-8.58554988032036</v>
       </c>
       <c r="I65" t="n">
-        <v>6.7290285685537</v>
+        <v>-8.87113425713419</v>
       </c>
       <c r="J65" t="n">
-        <v>6.90198130017007</v>
+        <v>-9.3582841668416</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11.168756000052</v>
+        <v>-5.15267990601864</v>
       </c>
       <c r="B66" t="n">
-        <v>12.5353857654383</v>
+        <v>-5.3488608344629</v>
       </c>
       <c r="C66" t="n">
-        <v>13.6211256142573</v>
+        <v>-6.01583789466049</v>
       </c>
       <c r="D66" t="n">
-        <v>12.307510352853</v>
+        <v>-6.12682110158356</v>
       </c>
       <c r="E66" t="n">
-        <v>14.3499805844959</v>
+        <v>-6.7682780271058</v>
       </c>
       <c r="F66" t="n">
-        <v>14.9174224960177</v>
+        <v>-7.92743598707417</v>
       </c>
       <c r="G66" t="n">
-        <v>16.8571292008697</v>
+        <v>-8.23248811428361</v>
       </c>
       <c r="H66" t="n">
-        <v>16.2519047923833</v>
+        <v>-8.41887344967586</v>
       </c>
       <c r="I66" t="n">
-        <v>18.8824433182862</v>
+        <v>-9.22761725070642</v>
       </c>
       <c r="J66" t="n">
-        <v>19.3816404427608</v>
+        <v>-9.94465367594192</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-4.64643528328302</v>
+        <v>10.6308168456218</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.35943493447864</v>
+        <v>10.2291534519994</v>
       </c>
       <c r="C67" t="n">
-        <v>-6.02013526398092</v>
+        <v>11.7038609597336</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.70175320629225</v>
+        <v>12.6056977332285</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.14350412676744</v>
+        <v>15.2683641809458</v>
       </c>
       <c r="F67" t="n">
-        <v>-7.39920478615404</v>
+        <v>14.4946049806761</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.12408079984491</v>
+        <v>16.1868628060869</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.58929204646131</v>
+        <v>16.7709928841979</v>
       </c>
       <c r="I67" t="n">
-        <v>7.09194743441889</v>
+        <v>19.2216051330377</v>
       </c>
       <c r="J67" t="n">
-        <v>6.64603430544717</v>
+        <v>17.0008182944539</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.3382740444365</v>
+        <v>9.07976114145228</v>
       </c>
       <c r="B68" t="n">
-        <v>10.2218001302901</v>
+        <v>11.1327682440032</v>
       </c>
       <c r="C68" t="n">
-        <v>11.1118708905012</v>
+        <v>11.0214503638169</v>
       </c>
       <c r="D68" t="n">
-        <v>11.6532626903378</v>
+        <v>12.6740139627285</v>
       </c>
       <c r="E68" t="n">
-        <v>13.1855747118167</v>
+        <v>13.6991742006201</v>
       </c>
       <c r="F68" t="n">
-        <v>14.0736984128539</v>
+        <v>15.0131639534154</v>
       </c>
       <c r="G68" t="n">
-        <v>17.0475962717484</v>
+        <v>15.1141226006621</v>
       </c>
       <c r="H68" t="n">
-        <v>5.59541003666458</v>
+        <v>16.4797018030093</v>
       </c>
       <c r="I68" t="n">
-        <v>7.50976987066093</v>
+        <v>17.9356081994747</v>
       </c>
       <c r="J68" t="n">
-        <v>7.43654687482367</v>
+        <v>19.9353430785104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.1797917983669</v>
+        <v>9.41272036798566</v>
       </c>
       <c r="B69" t="n">
-        <v>11.7420599202339</v>
+        <v>10.9738395892039</v>
       </c>
       <c r="C69" t="n">
-        <v>13.2080829712181</v>
+        <v>12.1310321561442</v>
       </c>
       <c r="D69" t="n">
-        <v>12.7450221757575</v>
+        <v>13.2061484450939</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.83333744777386</v>
+        <v>14.4929479633179</v>
       </c>
       <c r="F69" t="n">
-        <v>-7.59315506444684</v>
+        <v>14.7893677433518</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.18531456080868</v>
+        <v>14.4909889266291</v>
       </c>
       <c r="H69" t="n">
-        <v>-8.61652322163919</v>
+        <v>16.747587175084</v>
       </c>
       <c r="I69" t="n">
-        <v>-9.24575824788875</v>
+        <v>18.4978590767572</v>
       </c>
       <c r="J69" t="n">
-        <v>-9.95867061116724</v>
+        <v>19.3533191980614</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-5.17214409605854</v>
+        <v>-4.91317835833812</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.71882153078284</v>
+        <v>-5.10686516106958</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.34783047553473</v>
+        <v>-6.29479224134606</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.55060784284224</v>
+        <v>-6.21365406251675</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.07496103717711</v>
+        <v>-6.68739436274186</v>
       </c>
       <c r="F70" t="n">
-        <v>-7.27304379438037</v>
+        <v>-7.964890991993</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.30195453955725</v>
+        <v>-8.17502917251803</v>
       </c>
       <c r="H70" t="n">
-        <v>-8.52392581253074</v>
+        <v>-8.42764745637664</v>
       </c>
       <c r="I70" t="n">
-        <v>-9.31960133260016</v>
+        <v>-9.09895873083191</v>
       </c>
       <c r="J70" t="n">
-        <v>-9.59584765975088</v>
+        <v>-9.48950419411076</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.5477278544149</v>
+        <v>-4.6691348465845</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.53945212743735</v>
+        <v>-5.40310133787618</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.64052217198791</v>
+        <v>-5.81045167559987</v>
       </c>
       <c r="D71" t="n">
-        <v>-6.40066714652118</v>
+        <v>-6.32914193399423</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.27128393587601</v>
+        <v>-7.44011297647704</v>
       </c>
       <c r="F71" t="n">
-        <v>-7.88338913557224</v>
+        <v>-7.53958218785401</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.19461776003912</v>
+        <v>16.1007887002526</v>
       </c>
       <c r="H71" t="n">
-        <v>-8.6346477909897</v>
+        <v>16.7246431042448</v>
       </c>
       <c r="I71" t="n">
-        <v>-8.77640198160822</v>
+        <v>18.3107789492357</v>
       </c>
       <c r="J71" t="n">
-        <v>-9.34178946142258</v>
+        <v>18.2790241083921</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-5.05599964340282</v>
+        <v>-5.15228234346584</v>
       </c>
       <c r="B72" t="n">
-        <v>-5.66918470715392</v>
+        <v>-5.73618414443882</v>
       </c>
       <c r="C72" t="n">
-        <v>-5.56501685597731</v>
+        <v>-5.69216915360568</v>
       </c>
       <c r="D72" t="n">
-        <v>-6.3938191295009</v>
+        <v>-6.46306780938455</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.98990127041119</v>
+        <v>-7.10515354255926</v>
       </c>
       <c r="F72" t="n">
-        <v>-7.09533683045168</v>
+        <v>-7.6516988568654</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.24954520634735</v>
+        <v>-7.98319770159268</v>
       </c>
       <c r="H72" t="n">
-        <v>-8.75905933363929</v>
+        <v>-8.369667866106</v>
       </c>
       <c r="I72" t="n">
-        <v>-8.93287065021111</v>
+        <v>-9.2888059111019</v>
       </c>
       <c r="J72" t="n">
-        <v>-9.52397522706274</v>
+        <v>-9.1019193403536</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-5.55430841613768</v>
+        <v>11.0220090592764</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.51562537400317</v>
+        <v>11.0629383103494</v>
       </c>
       <c r="C73" t="n">
-        <v>-5.95930005531367</v>
+        <v>13.1065319779325</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.54118324912812</v>
+        <v>12.8930329701859</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.97837459446305</v>
+        <v>13.8648539403511</v>
       </c>
       <c r="F73" t="n">
-        <v>-7.34149246739819</v>
+        <v>14.1278836723787</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.93556328128441</v>
+        <v>14.5821117141975</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.67712972185455</v>
+        <v>17.3783936959857</v>
       </c>
       <c r="I73" t="n">
-        <v>-8.84392193025458</v>
+        <v>18.2862462637485</v>
       </c>
       <c r="J73" t="n">
-        <v>-9.46565252307884</v>
+        <v>18.3729569544077</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8.90481954325863</v>
+        <v>-4.78090574749683</v>
       </c>
       <c r="B74" t="n">
-        <v>11.2122348362239</v>
+        <v>-6.03480019664265</v>
       </c>
       <c r="C74" t="n">
-        <v>11.3911401243074</v>
+        <v>-6.04953153036137</v>
       </c>
       <c r="D74" t="n">
-        <v>14.3346182311975</v>
+        <v>-6.64040322040073</v>
       </c>
       <c r="E74" t="n">
-        <v>14.1184685979984</v>
+        <v>-7.29699893345913</v>
       </c>
       <c r="F74" t="n">
-        <v>14.3513689432199</v>
+        <v>-7.34106829387632</v>
       </c>
       <c r="G74" t="n">
-        <v>15.1650901231197</v>
+        <v>-8.2347899851258</v>
       </c>
       <c r="H74" t="n">
-        <v>17.4738254446229</v>
+        <v>-8.56267968790477</v>
       </c>
       <c r="I74" t="n">
-        <v>18.7029911650343</v>
+        <v>-9.18105709806105</v>
       </c>
       <c r="J74" t="n">
-        <v>18.7537525940908</v>
+        <v>-9.64872894311146</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-5.08516795965624</v>
+        <v>2.85724279398563</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.22533979859011</v>
+        <v>3.84576751706214</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.66147647552876</v>
+        <v>3.66173345024997</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.66043331840677</v>
+        <v>3.81710039488627</v>
       </c>
       <c r="E75" t="n">
-        <v>4.24368192769349</v>
+        <v>4.00888125791072</v>
       </c>
       <c r="F75" t="n">
-        <v>5.99201408232774</v>
+        <v>5.82670253026201</v>
       </c>
       <c r="G75" t="n">
-        <v>5.974546135381</v>
+        <v>5.09288142189369</v>
       </c>
       <c r="H75" t="n">
-        <v>6.28050862400197</v>
+        <v>6.4050079644495</v>
       </c>
       <c r="I75" t="n">
-        <v>5.70154307387827</v>
+        <v>6.4967754743851</v>
       </c>
       <c r="J75" t="n">
-        <v>7.39998661689953</v>
+        <v>8.60154301995698</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10.5476054906228</v>
+        <v>-4.85989387049244</v>
       </c>
       <c r="B76" t="n">
-        <v>11.908943606894</v>
+        <v>-5.61627529414225</v>
       </c>
       <c r="C76" t="n">
-        <v>12.2894118914586</v>
+        <v>13.2626328565228</v>
       </c>
       <c r="D76" t="n">
-        <v>12.7257266305003</v>
+        <v>13.5025122302834</v>
       </c>
       <c r="E76" t="n">
-        <v>14.1350906914743</v>
+        <v>14.0311993756099</v>
       </c>
       <c r="F76" t="n">
-        <v>13.0163129099522</v>
+        <v>13.9079382090545</v>
       </c>
       <c r="G76" t="n">
-        <v>5.23310892900711</v>
+        <v>15.1533045366914</v>
       </c>
       <c r="H76" t="n">
-        <v>5.36642575172534</v>
+        <v>17.5994491676343</v>
       </c>
       <c r="I76" t="n">
-        <v>6.4925835367663</v>
+        <v>18.6441148642378</v>
       </c>
       <c r="J76" t="n">
-        <v>6.89731382695018</v>
+        <v>19.8155144670052</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-4.96978808151434</v>
+        <v>-5.07949671082405</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.51259815464339</v>
+        <v>-5.58477507170557</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.61394613550822</v>
+        <v>-5.81781570678325</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.3907731438545</v>
+        <v>-6.03667698534682</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.62857009004455</v>
+        <v>-7.18422776869611</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.72696354714702</v>
+        <v>-7.24825806479939</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.17032080160504</v>
+        <v>-8.01194050547712</v>
       </c>
       <c r="H77" t="n">
-        <v>-8.34283896543738</v>
+        <v>16.5591178577678</v>
       </c>
       <c r="I77" t="n">
-        <v>-8.99845259507522</v>
+        <v>18.8297800530584</v>
       </c>
       <c r="J77" t="n">
-        <v>-9.36297969131603</v>
+        <v>18.0548124132479</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.75006640145251</v>
+        <v>-4.85873276413845</v>
       </c>
       <c r="B78" t="n">
-        <v>10.7285120812617</v>
+        <v>-5.60996136101078</v>
       </c>
       <c r="C78" t="n">
-        <v>11.122991953597</v>
+        <v>-5.35632036502543</v>
       </c>
       <c r="D78" t="n">
-        <v>13.4662097611286</v>
+        <v>-6.4854678038102</v>
       </c>
       <c r="E78" t="n">
-        <v>14.67878554512</v>
+        <v>-7.05488145918241</v>
       </c>
       <c r="F78" t="n">
-        <v>14.4807527869248</v>
+        <v>-7.45170144610621</v>
       </c>
       <c r="G78" t="n">
-        <v>4.66917690179419</v>
+        <v>-7.06415672023882</v>
       </c>
       <c r="H78" t="n">
-        <v>6.41940256683791</v>
+        <v>-8.64656659563676</v>
       </c>
       <c r="I78" t="n">
-        <v>5.90670086732493</v>
+        <v>-9.12352879393959</v>
       </c>
       <c r="J78" t="n">
-        <v>6.63882530075549</v>
+        <v>-9.44324342547238</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-5.60759494166655</v>
+        <v>1.45016940041755</v>
       </c>
       <c r="B79" t="n">
-        <v>-4.97542621646165</v>
+        <v>2.6079623440622</v>
       </c>
       <c r="C79" t="n">
-        <v>-5.74883322006696</v>
+        <v>2.94988170009767</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.31958612075241</v>
+        <v>3.84004743557223</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.3434447220854</v>
+        <v>5.27664336118829</v>
       </c>
       <c r="F79" t="n">
-        <v>-7.29514171786204</v>
+        <v>5.17406341190846</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.28660069996207</v>
+        <v>5.57502650513592</v>
       </c>
       <c r="H79" t="n">
-        <v>5.49077029910295</v>
+        <v>6.06097077878376</v>
       </c>
       <c r="I79" t="n">
-        <v>6.10264035763401</v>
+        <v>6.02297830719346</v>
       </c>
       <c r="J79" t="n">
-        <v>7.30179951402637</v>
+        <v>7.47131920666316</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-5.26815523810481</v>
+        <v>10.019587733591</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.29742247215424</v>
+        <v>11.7945998387644</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.17403574745562</v>
+        <v>12.2940156335104</v>
       </c>
       <c r="D80" t="n">
-        <v>-6.22960358777717</v>
+        <v>13.6770867782225</v>
       </c>
       <c r="E80" t="n">
-        <v>-6.82619906718495</v>
+        <v>14.0550684490834</v>
       </c>
       <c r="F80" t="n">
-        <v>12.6585340338319</v>
+        <v>14.3708828235561</v>
       </c>
       <c r="G80" t="n">
-        <v>15.9600154772579</v>
+        <v>16.2465505808035</v>
       </c>
       <c r="H80" t="n">
-        <v>17.9901031995661</v>
+        <v>17.0210702708378</v>
       </c>
       <c r="I80" t="n">
-        <v>17.4071522341558</v>
+        <v>17.682549816921</v>
       </c>
       <c r="J80" t="n">
-        <v>19.6910630215446</v>
+        <v>19.4714347588693</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-4.60085599330016</v>
+        <v>9.43766834847516</v>
       </c>
       <c r="B81" t="n">
-        <v>-5.21981165420107</v>
+        <v>10.9952723623067</v>
       </c>
       <c r="C81" t="n">
-        <v>-5.970220136701</v>
+        <v>10.2771698939133</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.63300579866631</v>
+        <v>13.6719867017163</v>
       </c>
       <c r="E81" t="n">
-        <v>-7.02763233134663</v>
+        <v>14.1936184490651</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.49253616454754</v>
+        <v>15.1521084098563</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.80838445523515</v>
+        <v>16.7066556031966</v>
       </c>
       <c r="H81" t="n">
-        <v>-8.2071124922395</v>
+        <v>16.5391004940609</v>
       </c>
       <c r="I81" t="n">
-        <v>-9.22223457608585</v>
+        <v>17.5525991689914</v>
       </c>
       <c r="J81" t="n">
-        <v>-9.11344179841883</v>
+        <v>18.0276084089592</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.64090172992206</v>
+        <v>11.5598212482</v>
       </c>
       <c r="B82" t="n">
-        <v>2.62209423531557</v>
+        <v>11.933161732764</v>
       </c>
       <c r="C82" t="n">
-        <v>2.61403543346416</v>
+        <v>10.5071137724783</v>
       </c>
       <c r="D82" t="n">
-        <v>4.20883936835905</v>
+        <v>12.628104957653</v>
       </c>
       <c r="E82" t="n">
-        <v>4.93914368523571</v>
+        <v>13.3112925820386</v>
       </c>
       <c r="F82" t="n">
-        <v>4.90382563401462</v>
+        <v>14.6078915030583</v>
       </c>
       <c r="G82" t="n">
-        <v>4.91579385643007</v>
+        <v>15.5179346832795</v>
       </c>
       <c r="H82" t="n">
-        <v>6.60603948408386</v>
+        <v>17.3498818772588</v>
       </c>
       <c r="I82" t="n">
-        <v>6.37042313881056</v>
+        <v>17.942878501868</v>
       </c>
       <c r="J82" t="n">
-        <v>7.30834301038043</v>
+        <v>19.6848122159525</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10.4819555695895</v>
+        <v>-4.57182556253223</v>
       </c>
       <c r="B83" t="n">
-        <v>9.82942277062032</v>
+        <v>-5.44035867281503</v>
       </c>
       <c r="C83" t="n">
-        <v>11.6761098422623</v>
+        <v>-6.16086337489435</v>
       </c>
       <c r="D83" t="n">
-        <v>13.114793653674</v>
+        <v>-6.728492247592</v>
       </c>
       <c r="E83" t="n">
-        <v>13.5346459177663</v>
+        <v>-6.91121233391297</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.36435553975143</v>
+        <v>-7.52322226257428</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.75352416616509</v>
+        <v>-7.65562560481896</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.68302226764122</v>
+        <v>-8.24263909446476</v>
       </c>
       <c r="I83" t="n">
-        <v>-8.8652631167479</v>
+        <v>-8.66536259347114</v>
       </c>
       <c r="J83" t="n">
-        <v>-9.51519053063932</v>
+        <v>-9.64080164873643</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.35829731017542</v>
+        <v>10.6728095669664</v>
       </c>
       <c r="B84" t="n">
-        <v>3.62767676573754</v>
+        <v>11.2798012228002</v>
       </c>
       <c r="C84" t="n">
-        <v>4.3135983329165</v>
+        <v>12.568163948174</v>
       </c>
       <c r="D84" t="n">
-        <v>3.1974149403996</v>
+        <v>12.6114224016303</v>
       </c>
       <c r="E84" t="n">
-        <v>4.92295025291392</v>
+        <v>13.2001545915287</v>
       </c>
       <c r="F84" t="n">
-        <v>5.3107701149118</v>
+        <v>15.0114979233793</v>
       </c>
       <c r="G84" t="n">
-        <v>4.68509838219967</v>
+        <v>15.9937873095741</v>
       </c>
       <c r="H84" t="n">
-        <v>6.6461811491998</v>
+        <v>17.0998942754189</v>
       </c>
       <c r="I84" t="n">
-        <v>6.48435320291692</v>
+        <v>17.2056004700383</v>
       </c>
       <c r="J84" t="n">
-        <v>6.33001037817489</v>
+        <v>18.7523182095676</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-4.86645506917721</v>
+        <v>-5.03005489512675</v>
       </c>
       <c r="B85" t="n">
-        <v>-4.83201609288904</v>
+        <v>-5.05572318808076</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.85656861089753</v>
+        <v>-6.0651296103862</v>
       </c>
       <c r="D85" t="n">
-        <v>-6.75583230864706</v>
+        <v>-6.51917251636734</v>
       </c>
       <c r="E85" t="n">
-        <v>-7.28794025639429</v>
+        <v>-7.22973164428575</v>
       </c>
       <c r="F85" t="n">
-        <v>-7.27685746385375</v>
+        <v>-7.67405103799438</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.20765095149634</v>
+        <v>-8.30613276692057</v>
       </c>
       <c r="H85" t="n">
-        <v>-8.76844971597119</v>
+        <v>-8.2898350649113</v>
       </c>
       <c r="I85" t="n">
-        <v>-9.18005188203328</v>
+        <v>-8.88553070043437</v>
       </c>
       <c r="J85" t="n">
-        <v>-9.40527451174442</v>
+        <v>-8.96287459454289</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-5.37077632789871</v>
+        <v>10.6249463762742</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.26459570744353</v>
+        <v>10.9147931938514</v>
       </c>
       <c r="C86" t="n">
-        <v>-6.02666131817095</v>
+        <v>12.0292889537676</v>
       </c>
       <c r="D86" t="n">
-        <v>-6.63341121644789</v>
+        <v>12.7160952052555</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.39109567459963</v>
+        <v>14.1170960596535</v>
       </c>
       <c r="F86" t="n">
-        <v>-7.76793142035105</v>
+        <v>14.0276152820034</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.89327965324202</v>
+        <v>15.6780026900067</v>
       </c>
       <c r="H86" t="n">
-        <v>-8.31459890232448</v>
+        <v>18.0459553256291</v>
       </c>
       <c r="I86" t="n">
-        <v>-9.08993018256668</v>
+        <v>19.4534656302653</v>
       </c>
       <c r="J86" t="n">
-        <v>-9.52297319612127</v>
+        <v>18.1462632789907</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.6806021190543</v>
+        <v>2.45837831673051</v>
       </c>
       <c r="B87" t="n">
-        <v>2.80936894204504</v>
+        <v>2.69940052831327</v>
       </c>
       <c r="C87" t="n">
-        <v>3.06703752486571</v>
+        <v>4.40173928471762</v>
       </c>
       <c r="D87" t="n">
-        <v>4.19793208031698</v>
+        <v>4.04766523511543</v>
       </c>
       <c r="E87" t="n">
-        <v>4.04990548524091</v>
+        <v>5.03812990415898</v>
       </c>
       <c r="F87" t="n">
-        <v>4.93232013377259</v>
+        <v>5.76850014524189</v>
       </c>
       <c r="G87" t="n">
-        <v>6.03130564263255</v>
+        <v>4.86178024598008</v>
       </c>
       <c r="H87" t="n">
-        <v>6.33646742649586</v>
+        <v>6.52126432377444</v>
       </c>
       <c r="I87" t="n">
-        <v>6.18067535436758</v>
+        <v>6.06059472265239</v>
       </c>
       <c r="J87" t="n">
-        <v>7.2240561312918</v>
+        <v>7.46401600653116</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.90285914944938</v>
+        <v>2.82196292778537</v>
       </c>
       <c r="B88" t="n">
-        <v>9.39070950463608</v>
+        <v>2.57152450325343</v>
       </c>
       <c r="C88" t="n">
-        <v>12.9054932119903</v>
+        <v>4.21499087449185</v>
       </c>
       <c r="D88" t="n">
-        <v>14.3395809024227</v>
+        <v>4.19802863131291</v>
       </c>
       <c r="E88" t="n">
-        <v>13.7945565315059</v>
+        <v>4.22459251442278</v>
       </c>
       <c r="F88" t="n">
-        <v>13.8956748980619</v>
+        <v>5.403250473069</v>
       </c>
       <c r="G88" t="n">
-        <v>15.8575429168088</v>
+        <v>6.11272950198713</v>
       </c>
       <c r="H88" t="n">
-        <v>15.452876494222</v>
+        <v>6.43744448064774</v>
       </c>
       <c r="I88" t="n">
-        <v>17.7500514241422</v>
+        <v>6.24731263748142</v>
       </c>
       <c r="J88" t="n">
-        <v>17.7280141342843</v>
+        <v>6.79793774938461</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-4.89840153826392</v>
+        <v>-4.80943781114725</v>
       </c>
       <c r="B89" t="n">
-        <v>-5.64464694190573</v>
+        <v>-5.69113005674875</v>
       </c>
       <c r="C89" t="n">
-        <v>-5.82264375241319</v>
+        <v>-5.94135888259376</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.61449463721711</v>
+        <v>-6.55714386951792</v>
       </c>
       <c r="E89" t="n">
-        <v>-6.61767136707948</v>
+        <v>-7.23369338933329</v>
       </c>
       <c r="F89" t="n">
-        <v>-7.31341804496173</v>
+        <v>-7.28913516005518</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.92452218485846</v>
+        <v>-7.89412972999597</v>
       </c>
       <c r="H89" t="n">
-        <v>-8.30683233240467</v>
+        <v>-8.51386900674196</v>
       </c>
       <c r="I89" t="n">
-        <v>-9.44446518860504</v>
+        <v>17.7445028268765</v>
       </c>
       <c r="J89" t="n">
-        <v>-9.17276817884212</v>
+        <v>18.7716376150283</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.28026766982013</v>
+        <v>10.4802027903477</v>
       </c>
       <c r="B90" t="n">
-        <v>3.38686319117938</v>
+        <v>11.5595290122156</v>
       </c>
       <c r="C90" t="n">
-        <v>3.63063001989807</v>
+        <v>11.5428805700775</v>
       </c>
       <c r="D90" t="n">
-        <v>4.74494982861235</v>
+        <v>13.8957197437565</v>
       </c>
       <c r="E90" t="n">
-        <v>4.8521792476039</v>
+        <v>13.2420766457221</v>
       </c>
       <c r="F90" t="n">
-        <v>5.44593236506696</v>
+        <v>15.5529900246524</v>
       </c>
       <c r="G90" t="n">
-        <v>5.4739510017981</v>
+        <v>16.0337418149856</v>
       </c>
       <c r="H90" t="n">
-        <v>5.77258317130545</v>
+        <v>5.83310126072465</v>
       </c>
       <c r="I90" t="n">
-        <v>6.63844102384472</v>
+        <v>7.08021241366496</v>
       </c>
       <c r="J90" t="n">
-        <v>7.24415817102341</v>
+        <v>6.44225809699537</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9.32196391940605</v>
+        <v>9.76234444908126</v>
       </c>
       <c r="B91" t="n">
-        <v>11.0607715215111</v>
+        <v>12.5996202639572</v>
       </c>
       <c r="C91" t="n">
-        <v>12.2646016095983</v>
+        <v>12.5821007031074</v>
       </c>
       <c r="D91" t="n">
-        <v>14.4059018093589</v>
+        <v>12.9638311095015</v>
       </c>
       <c r="E91" t="n">
-        <v>12.650499459664</v>
+        <v>12.9902092017073</v>
       </c>
       <c r="F91" t="n">
-        <v>14.3633348125836</v>
+        <v>14.5161891746938</v>
       </c>
       <c r="G91" t="n">
-        <v>15.3687473662966</v>
+        <v>16.6813408844212</v>
       </c>
       <c r="H91" t="n">
-        <v>16.7716420276474</v>
+        <v>17.7261109595921</v>
       </c>
       <c r="I91" t="n">
-        <v>6.18949322640534</v>
+        <v>18.2913616351379</v>
       </c>
       <c r="J91" t="n">
-        <v>7.30836166631462</v>
+        <v>17.9085552737294</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.71152745186772</v>
+        <v>9.01318663475451</v>
       </c>
       <c r="B92" t="n">
-        <v>11.3027533338741</v>
+        <v>9.34194301570118</v>
       </c>
       <c r="C92" t="n">
-        <v>11.6962870658469</v>
+        <v>13.0467974723127</v>
       </c>
       <c r="D92" t="n">
-        <v>12.0568179354439</v>
+        <v>12.9793981897072</v>
       </c>
       <c r="E92" t="n">
-        <v>14.4614049465612</v>
+        <v>15.0468169246044</v>
       </c>
       <c r="F92" t="n">
-        <v>14.8525562122095</v>
+        <v>16.0456113370815</v>
       </c>
       <c r="G92" t="n">
-        <v>17.3416491516725</v>
+        <v>5.39812222596584</v>
       </c>
       <c r="H92" t="n">
-        <v>16.129031321417</v>
+        <v>5.7125116837917</v>
       </c>
       <c r="I92" t="n">
-        <v>17.9920121284404</v>
+        <v>7.30016384444005</v>
       </c>
       <c r="J92" t="n">
-        <v>19.7673910503242</v>
+        <v>6.12645878836803</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.45794935923047</v>
+        <v>-5.06823913388799</v>
       </c>
       <c r="B93" t="n">
-        <v>11.2624111375775</v>
+        <v>-5.74601450080011</v>
       </c>
       <c r="C93" t="n">
-        <v>11.3257590084361</v>
+        <v>-6.16635767880273</v>
       </c>
       <c r="D93" t="n">
-        <v>12.523621488217</v>
+        <v>-6.22790794130122</v>
       </c>
       <c r="E93" t="n">
-        <v>14.5083215355869</v>
+        <v>-7.33609389642941</v>
       </c>
       <c r="F93" t="n">
-        <v>14.2241791137879</v>
+        <v>-7.21993952509323</v>
       </c>
       <c r="G93" t="n">
-        <v>16.9143415779717</v>
+        <v>-7.95362447422022</v>
       </c>
       <c r="H93" t="n">
-        <v>18.533623123852</v>
+        <v>-8.92605319028351</v>
       </c>
       <c r="I93" t="n">
-        <v>18.637676076178</v>
+        <v>-9.43164626723426</v>
       </c>
       <c r="J93" t="n">
-        <v>19.5113801589708</v>
+        <v>-9.74701446746034</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-4.26732625082846</v>
+        <v>9.67281553615208</v>
       </c>
       <c r="B94" t="n">
-        <v>-5.27878861252062</v>
+        <v>10.8997636845553</v>
       </c>
       <c r="C94" t="n">
-        <v>-5.83046782822085</v>
+        <v>10.5225902413406</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.7650227673132</v>
+        <v>11.8223913009614</v>
       </c>
       <c r="E94" t="n">
-        <v>-7.26985789762533</v>
+        <v>14.5831223682467</v>
       </c>
       <c r="F94" t="n">
-        <v>-7.20127225936265</v>
+        <v>15.6778834607439</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.51281366452894</v>
+        <v>16.1431718007649</v>
       </c>
       <c r="H94" t="n">
-        <v>-8.45954981720971</v>
+        <v>17.9263120826028</v>
       </c>
       <c r="I94" t="n">
-        <v>-9.11546880081695</v>
+        <v>19.0422642487487</v>
       </c>
       <c r="J94" t="n">
-        <v>-9.49594945161446</v>
+        <v>17.7374064385051</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.96167890990923</v>
+        <v>10.8982856806668</v>
       </c>
       <c r="B95" t="n">
-        <v>3.2949898672218</v>
+        <v>10.285241408117</v>
       </c>
       <c r="C95" t="n">
-        <v>4.03216749047618</v>
+        <v>13.3051428846783</v>
       </c>
       <c r="D95" t="n">
-        <v>3.7365603891075</v>
+        <v>11.2553292511731</v>
       </c>
       <c r="E95" t="n">
-        <v>4.84912717500446</v>
+        <v>13.6437645357603</v>
       </c>
       <c r="F95" t="n">
-        <v>4.76246203922607</v>
+        <v>15.3391895697811</v>
       </c>
       <c r="G95" t="n">
-        <v>5.22526860695574</v>
+        <v>17.0214424830189</v>
       </c>
       <c r="H95" t="n">
-        <v>16.1739349279852</v>
+        <v>16.2268725212744</v>
       </c>
       <c r="I95" t="n">
-        <v>17.747653321585</v>
+        <v>18.8868372367355</v>
       </c>
       <c r="J95" t="n">
-        <v>18.9468962456345</v>
+        <v>18.0516426599953</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.0573276001282</v>
+        <v>2.24881793212864</v>
       </c>
       <c r="B96" t="n">
-        <v>11.343919279363</v>
+        <v>2.80288710990706</v>
       </c>
       <c r="C96" t="n">
-        <v>11.7337771635615</v>
+        <v>3.60452216262132</v>
       </c>
       <c r="D96" t="n">
-        <v>12.3496971790627</v>
+        <v>4.4646181933018</v>
       </c>
       <c r="E96" t="n">
-        <v>14.0594622941714</v>
+        <v>5.08390403809426</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.18044208473432</v>
+        <v>4.79418363087407</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.71854612454424</v>
+        <v>5.27417569920174</v>
       </c>
       <c r="H96" t="n">
-        <v>-8.0374314114426</v>
+        <v>5.98437261463635</v>
       </c>
       <c r="I96" t="n">
-        <v>-9.02105666608771</v>
+        <v>6.7694239963369</v>
       </c>
       <c r="J96" t="n">
-        <v>-9.12862282584436</v>
+        <v>5.68447016356117</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-4.62020162146626</v>
+        <v>9.91006327995395</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.39173657782406</v>
+        <v>10.32997106749</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.69828126309528</v>
+        <v>12.4601983648856</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.33987753483341</v>
+        <v>14.2175502260967</v>
       </c>
       <c r="E97" t="n">
-        <v>-6.67391724872051</v>
+        <v>14.0947971326817</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.72024175473845</v>
+        <v>15.1394537994251</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.27630775275064</v>
+        <v>15.9981844578489</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.28640464158662</v>
+        <v>17.9520843423992</v>
       </c>
       <c r="I97" t="n">
-        <v>-9.55010460908802</v>
+        <v>17.2538958678562</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.40222269166062</v>
+        <v>18.4204442158221</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10.2432866353559</v>
+        <v>-4.72554715330142</v>
       </c>
       <c r="B98" t="n">
-        <v>10.9832645717464</v>
+        <v>-5.53326215004823</v>
       </c>
       <c r="C98" t="n">
-        <v>12.1120383683191</v>
+        <v>-5.72290209353692</v>
       </c>
       <c r="D98" t="n">
-        <v>13.4286227088746</v>
+        <v>-6.60791200713921</v>
       </c>
       <c r="E98" t="n">
-        <v>14.358053268534</v>
+        <v>4.42056398492134</v>
       </c>
       <c r="F98" t="n">
-        <v>16.0708106715465</v>
+        <v>5.97615353798075</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.10111827865259</v>
+        <v>6.34989676969409</v>
       </c>
       <c r="H98" t="n">
-        <v>-8.4791023797951</v>
+        <v>5.66262274094118</v>
       </c>
       <c r="I98" t="n">
-        <v>-9.47594359567945</v>
+        <v>6.29598551112094</v>
       </c>
       <c r="J98" t="n">
-        <v>-9.64852560496381</v>
+        <v>7.14436622952161</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-4.98550360285342</v>
+        <v>-4.90206500209773</v>
       </c>
       <c r="B99" t="n">
-        <v>-5.42234582940853</v>
+        <v>-5.20914903350689</v>
       </c>
       <c r="C99" t="n">
-        <v>-6.36625250479462</v>
+        <v>-5.7453013159212</v>
       </c>
       <c r="D99" t="n">
-        <v>-5.98484518189945</v>
+        <v>-6.46762143502524</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.00885860851217</v>
+        <v>-7.05417525209954</v>
       </c>
       <c r="F99" t="n">
-        <v>-7.73116047621814</v>
+        <v>-7.59618915444608</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.66727967845454</v>
+        <v>-8.11405539763271</v>
       </c>
       <c r="H99" t="n">
-        <v>-8.70957954023399</v>
+        <v>-8.4375399893243</v>
       </c>
       <c r="I99" t="n">
-        <v>-9.44194723369789</v>
+        <v>-8.91701178597104</v>
       </c>
       <c r="J99" t="n">
-        <v>-9.29514925308392</v>
+        <v>-9.67202214288487</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10.8442889384443</v>
+        <v>-5.15973161249588</v>
       </c>
       <c r="B100" t="n">
-        <v>2.83188740481371</v>
+        <v>-5.39178886400095</v>
       </c>
       <c r="C100" t="n">
-        <v>3.52624354123282</v>
+        <v>-5.65155245159682</v>
       </c>
       <c r="D100" t="n">
-        <v>3.81397258004153</v>
+        <v>-6.85878927418845</v>
       </c>
       <c r="E100" t="n">
-        <v>4.36193233347749</v>
+        <v>-7.34888823847204</v>
       </c>
       <c r="F100" t="n">
-        <v>4.30878916059653</v>
+        <v>-7.47432945425495</v>
       </c>
       <c r="G100" t="n">
-        <v>4.77077717597236</v>
+        <v>-7.79138097321124</v>
       </c>
       <c r="H100" t="n">
-        <v>5.9873274841754</v>
+        <v>-8.44642243670154</v>
       </c>
       <c r="I100" t="n">
-        <v>6.17949489840534</v>
+        <v>-8.74658681711728</v>
       </c>
       <c r="J100" t="n">
-        <v>7.6664803871149</v>
+        <v>-9.33160626635636</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.5680826624654</v>
+        <v>-5.08254815296481</v>
       </c>
       <c r="B101" t="n">
-        <v>11.592769913427</v>
+        <v>-4.99450823111273</v>
       </c>
       <c r="C101" t="n">
-        <v>11.5701792238972</v>
+        <v>-5.91840389973342</v>
       </c>
       <c r="D101" t="n">
-        <v>13.9481896381835</v>
+        <v>-7.03211831691832</v>
       </c>
       <c r="E101" t="n">
-        <v>14.9346960641235</v>
+        <v>-6.79688139270562</v>
       </c>
       <c r="F101" t="n">
-        <v>14.0483194574158</v>
+        <v>-7.47462719386091</v>
       </c>
       <c r="G101" t="n">
-        <v>16.0392943035141</v>
+        <v>-7.97233354007297</v>
       </c>
       <c r="H101" t="n">
-        <v>17.792278038083</v>
+        <v>-8.32998665673363</v>
       </c>
       <c r="I101" t="n">
-        <v>17.1215688367387</v>
+        <v>18.5296021479694</v>
       </c>
       <c r="J101" t="n">
-        <v>17.8624505590219</v>
+        <v>19.3152186231545</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-4.7085310166354</v>
+        <v>8.90950357386996</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.95401822823144</v>
+        <v>11.5727729890666</v>
       </c>
       <c r="C102" t="n">
-        <v>-6.07736679962176</v>
+        <v>12.7395587460553</v>
       </c>
       <c r="D102" t="n">
-        <v>-5.79342592364022</v>
+        <v>13.0199971129605</v>
       </c>
       <c r="E102" t="n">
-        <v>-6.89996304147283</v>
+        <v>13.290348797532</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.57311297418775</v>
+        <v>15.614241830586</v>
       </c>
       <c r="G102" t="n">
-        <v>-8.24469847133342</v>
+        <v>14.503459018141</v>
       </c>
       <c r="H102" t="n">
-        <v>-8.78460852011333</v>
+        <v>16.7535083515293</v>
       </c>
       <c r="I102" t="n">
-        <v>-9.39104827372725</v>
+        <v>17.5239283846131</v>
       </c>
       <c r="J102" t="n">
-        <v>-9.14785556849254</v>
+        <v>18.3964211474649</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.47202404465201</v>
+        <v>8.72907962204974</v>
       </c>
       <c r="B103" t="n">
-        <v>2.91852444332979</v>
+        <v>12.1287930700165</v>
       </c>
       <c r="C103" t="n">
-        <v>3.60333994712267</v>
+        <v>12.3983551481776</v>
       </c>
       <c r="D103" t="n">
-        <v>3.60351804052878</v>
+        <v>12.6394269997334</v>
       </c>
       <c r="E103" t="n">
-        <v>4.72371930806719</v>
+        <v>12.9891593951764</v>
       </c>
       <c r="F103" t="n">
-        <v>4.15555850533949</v>
+        <v>13.4826177732991</v>
       </c>
       <c r="G103" t="n">
-        <v>5.71698556463715</v>
+        <v>5.37487863013037</v>
       </c>
       <c r="H103" t="n">
-        <v>6.11971136520999</v>
+        <v>5.62810213811148</v>
       </c>
       <c r="I103" t="n">
-        <v>6.87476762144323</v>
+        <v>7.24809430100763</v>
       </c>
       <c r="J103" t="n">
-        <v>7.27423511745383</v>
+        <v>6.91930867619907</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.7291581934155</v>
+        <v>2.39141505790866</v>
       </c>
       <c r="B104" t="n">
-        <v>10.4879681016959</v>
+        <v>3.55206094472286</v>
       </c>
       <c r="C104" t="n">
-        <v>12.4652350976815</v>
+        <v>4.19509454744319</v>
       </c>
       <c r="D104" t="n">
-        <v>11.7682286179973</v>
+        <v>3.77235187449539</v>
       </c>
       <c r="E104" t="n">
-        <v>13.2605000659444</v>
+        <v>5.49156001868122</v>
       </c>
       <c r="F104" t="n">
-        <v>-7.15392797653027</v>
+        <v>5.40606197718412</v>
       </c>
       <c r="G104" t="n">
-        <v>-8.04935493013916</v>
+        <v>5.63716149665276</v>
       </c>
       <c r="H104" t="n">
-        <v>-8.89444122542025</v>
+        <v>5.8217494518334</v>
       </c>
       <c r="I104" t="n">
-        <v>-8.94759280228169</v>
+        <v>6.57212286490176</v>
       </c>
       <c r="J104" t="n">
-        <v>-9.22529762090318</v>
+        <v>8.48192816112987</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>10.4756507535994</v>
+        <v>11.2216399981119</v>
       </c>
       <c r="B105" t="n">
-        <v>10.7746509579642</v>
+        <v>-5.5628537584835</v>
       </c>
       <c r="C105" t="n">
-        <v>10.1034186082372</v>
+        <v>-6.38543035651673</v>
       </c>
       <c r="D105" t="n">
-        <v>11.9208895876882</v>
+        <v>-6.75476377073849</v>
       </c>
       <c r="E105" t="n">
-        <v>15.5716495622121</v>
+        <v>-7.22206762976776</v>
       </c>
       <c r="F105" t="n">
-        <v>16.3518814071795</v>
+        <v>-7.59786715573542</v>
       </c>
       <c r="G105" t="n">
-        <v>16.6639560302457</v>
+        <v>-7.79184651398617</v>
       </c>
       <c r="H105" t="n">
-        <v>17.0123758858617</v>
+        <v>-8.61923797321876</v>
       </c>
       <c r="I105" t="n">
-        <v>17.1598203825327</v>
+        <v>-8.89545991138831</v>
       </c>
       <c r="J105" t="n">
-        <v>18.881306270926</v>
+        <v>-9.73745247438726</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>10.0788303839833</v>
+        <v>9.53265980651093</v>
       </c>
       <c r="B106" t="n">
-        <v>11.0039985233656</v>
+        <v>10.9625319294953</v>
       </c>
       <c r="C106" t="n">
-        <v>11.416557049133</v>
+        <v>11.7210303462052</v>
       </c>
       <c r="D106" t="n">
-        <v>12.5259034347717</v>
+        <v>13.0360932550688</v>
       </c>
       <c r="E106" t="n">
-        <v>15.7468986641104</v>
+        <v>15.049068577129</v>
       </c>
       <c r="F106" t="n">
-        <v>14.8737797637051</v>
+        <v>15.0146847012384</v>
       </c>
       <c r="G106" t="n">
-        <v>16.5728311742899</v>
+        <v>16.3133298250809</v>
       </c>
       <c r="H106" t="n">
-        <v>17.0243768705897</v>
+        <v>17.7486367847785</v>
       </c>
       <c r="I106" t="n">
-        <v>18.2782445468714</v>
+        <v>17.8117623221902</v>
       </c>
       <c r="J106" t="n">
-        <v>18.3374770281742</v>
+        <v>19.0435155069006</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5.3338706229438</v>
+        <v>1.53266838646674</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.37120632803694</v>
+        <v>3.91442244463935</v>
       </c>
       <c r="C107" t="n">
-        <v>-5.97224010355234</v>
+        <v>3.66401357167942</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.72509731451646</v>
+        <v>-6.48456587104114</v>
       </c>
       <c r="E107" t="n">
-        <v>-6.91466832143937</v>
+        <v>-6.97313962774879</v>
       </c>
       <c r="F107" t="n">
-        <v>-7.24108534525988</v>
+        <v>-7.5910066939387</v>
       </c>
       <c r="G107" t="n">
-        <v>16.4432173550369</v>
+        <v>-7.88480778697871</v>
       </c>
       <c r="H107" t="n">
-        <v>17.792405750569</v>
+        <v>-8.43385742016175</v>
       </c>
       <c r="I107" t="n">
-        <v>18.9276865506317</v>
+        <v>-8.8077497696128</v>
       </c>
       <c r="J107" t="n">
-        <v>18.9910604145388</v>
+        <v>-9.2204260118804</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.1909273802434</v>
+        <v>-4.84275837822946</v>
       </c>
       <c r="B108" t="n">
-        <v>10.8027729583522</v>
+        <v>-5.82504445666029</v>
       </c>
       <c r="C108" t="n">
-        <v>12.6788924040933</v>
+        <v>-6.17927997744393</v>
       </c>
       <c r="D108" t="n">
-        <v>13.4859235447253</v>
+        <v>-6.68232109907149</v>
       </c>
       <c r="E108" t="n">
-        <v>15.1837054722634</v>
+        <v>-7.1594171154253</v>
       </c>
       <c r="F108" t="n">
-        <v>14.5674768823647</v>
+        <v>-7.37589794146007</v>
       </c>
       <c r="G108" t="n">
-        <v>15.6371208240654</v>
+        <v>-8.13700279495182</v>
       </c>
       <c r="H108" t="n">
-        <v>16.7398453795959</v>
+        <v>-8.4568389920893</v>
       </c>
       <c r="I108" t="n">
-        <v>17.5811298965519</v>
+        <v>-8.86435605905409</v>
       </c>
       <c r="J108" t="n">
-        <v>19.4955103433792</v>
+        <v>7.74172292931387</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.33776122801135</v>
+        <v>1.85941001635453</v>
       </c>
       <c r="B109" t="n">
-        <v>11.2893970172084</v>
+        <v>3.2681823484331</v>
       </c>
       <c r="C109" t="n">
-        <v>11.8895565308623</v>
+        <v>3.35790530051501</v>
       </c>
       <c r="D109" t="n">
-        <v>12.9494907827264</v>
+        <v>2.84840842216339</v>
       </c>
       <c r="E109" t="n">
-        <v>15.5380549598498</v>
+        <v>4.63129552681611</v>
       </c>
       <c r="F109" t="n">
-        <v>4.78507345099247</v>
+        <v>4.73996431894642</v>
       </c>
       <c r="G109" t="n">
-        <v>5.42211757215965</v>
+        <v>5.43709509392143</v>
       </c>
       <c r="H109" t="n">
-        <v>5.29430742242436</v>
+        <v>5.51629000697328</v>
       </c>
       <c r="I109" t="n">
-        <v>7.67821113776032</v>
+        <v>6.63689907415312</v>
       </c>
       <c r="J109" t="n">
-        <v>7.34032940647623</v>
+        <v>7.47252135856145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.8970337489464</v>
+        <v>10.0881640679316</v>
       </c>
       <c r="B110" t="n">
-        <v>9.94618345300644</v>
+        <v>10.3139464095548</v>
       </c>
       <c r="C110" t="n">
-        <v>12.7479648748198</v>
+        <v>10.5819025981976</v>
       </c>
       <c r="D110" t="n">
-        <v>12.8548543554041</v>
+        <v>12.7437690345869</v>
       </c>
       <c r="E110" t="n">
-        <v>15.1185210380299</v>
+        <v>12.9488049786292</v>
       </c>
       <c r="F110" t="n">
-        <v>14.9181407271876</v>
+        <v>15.8183687674124</v>
       </c>
       <c r="G110" t="n">
-        <v>16.0430686013951</v>
+        <v>14.2367457159967</v>
       </c>
       <c r="H110" t="n">
-        <v>17.1523043478775</v>
+        <v>15.7639833679513</v>
       </c>
       <c r="I110" t="n">
-        <v>18.3034547949558</v>
+        <v>16.7149953924158</v>
       </c>
       <c r="J110" t="n">
-        <v>19.054176656774</v>
+        <v>19.0667589512627</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-4.89338715187017</v>
+        <v>9.91177861221813</v>
       </c>
       <c r="B111" t="n">
-        <v>-5.59724032975168</v>
+        <v>11.0859009753316</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.17779466309407</v>
+        <v>12.5899314475286</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.61240767304362</v>
+        <v>11.5236314623493</v>
       </c>
       <c r="E111" t="n">
-        <v>4.99586754300205</v>
+        <v>13.6129785369602</v>
       </c>
       <c r="F111" t="n">
-        <v>5.41295225419488</v>
+        <v>14.9789930070402</v>
       </c>
       <c r="G111" t="n">
-        <v>4.97943584946019</v>
+        <v>17.1240587997878</v>
       </c>
       <c r="H111" t="n">
-        <v>6.36461322259467</v>
+        <v>17.2124094684556</v>
       </c>
       <c r="I111" t="n">
-        <v>6.49188320911154</v>
+        <v>18.832803941686</v>
       </c>
       <c r="J111" t="n">
-        <v>6.18103483510191</v>
+        <v>18.8338221877037</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.60679591662244</v>
+        <v>9.39834349563302</v>
       </c>
       <c r="B112" t="n">
-        <v>2.52761458532125</v>
+        <v>11.3106367839152</v>
       </c>
       <c r="C112" t="n">
-        <v>3.31862477908756</v>
+        <v>11.6106419734978</v>
       </c>
       <c r="D112" t="n">
-        <v>5.21124309661168</v>
+        <v>13.9007217477498</v>
       </c>
       <c r="E112" t="n">
-        <v>5.22049348388999</v>
+        <v>13.0320723999702</v>
       </c>
       <c r="F112" t="n">
-        <v>4.47796223250816</v>
+        <v>15.630389650108</v>
       </c>
       <c r="G112" t="n">
-        <v>5.46646783528424</v>
+        <v>16.6789406636556</v>
       </c>
       <c r="H112" t="n">
-        <v>5.43222193830071</v>
+        <v>18.0194624506021</v>
       </c>
       <c r="I112" t="n">
-        <v>6.26308252896355</v>
+        <v>19.0431928860722</v>
       </c>
       <c r="J112" t="n">
-        <v>7.59623790595086</v>
+        <v>18.7709229274226</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-5.00361246615718</v>
+        <v>9.32903423122922</v>
       </c>
       <c r="B113" t="n">
-        <v>-6.15949908370118</v>
+        <v>10.9129265531214</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.34657708655624</v>
+        <v>11.3379878110703</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.82695296644083</v>
+        <v>12.6967766098007</v>
       </c>
       <c r="E113" t="n">
-        <v>-6.60036843852608</v>
+        <v>14.4814931751105</v>
       </c>
       <c r="F113" t="n">
-        <v>-7.61192023234747</v>
+        <v>14.581938702928</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.83221671697383</v>
+        <v>14.2219855058646</v>
       </c>
       <c r="H113" t="n">
-        <v>-8.28968574907155</v>
+        <v>17.5260383086396</v>
       </c>
       <c r="I113" t="n">
-        <v>-8.86347776721221</v>
+        <v>17.9295023975207</v>
       </c>
       <c r="J113" t="n">
-        <v>-9.70371553429377</v>
+        <v>19.4844745801273</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.89211762624427</v>
+        <v>9.90346156545184</v>
       </c>
       <c r="B114" t="n">
-        <v>10.8955175300092</v>
+        <v>11.2621364927325</v>
       </c>
       <c r="C114" t="n">
-        <v>11.9187189572554</v>
+        <v>12.2965081129811</v>
       </c>
       <c r="D114" t="n">
-        <v>12.9638589001795</v>
+        <v>13.8109774811271</v>
       </c>
       <c r="E114" t="n">
-        <v>13.6441749564585</v>
+        <v>13.9355029515622</v>
       </c>
       <c r="F114" t="n">
-        <v>15.4563160342203</v>
+        <v>13.7441688813338</v>
       </c>
       <c r="G114" t="n">
-        <v>15.0945061103409</v>
+        <v>17.8257170285327</v>
       </c>
       <c r="H114" t="n">
-        <v>17.3556186424869</v>
+        <v>18.6222828849238</v>
       </c>
       <c r="I114" t="n">
-        <v>16.5637705591979</v>
+        <v>17.9259297812973</v>
       </c>
       <c r="J114" t="n">
-        <v>18.3814604983148</v>
+        <v>18.3504067001782</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.4801418929734</v>
+        <v>10.1321482267825</v>
       </c>
       <c r="B115" t="n">
-        <v>10.6667417830328</v>
+        <v>10.7269114636603</v>
       </c>
       <c r="C115" t="n">
-        <v>12.4721737910408</v>
+        <v>12.4161110559562</v>
       </c>
       <c r="D115" t="n">
-        <v>13.5272110319018</v>
+        <v>14.3220316345885</v>
       </c>
       <c r="E115" t="n">
-        <v>4.33705473018363</v>
+        <v>14.1030384192491</v>
       </c>
       <c r="F115" t="n">
-        <v>4.44552070092952</v>
+        <v>15.3766104977801</v>
       </c>
       <c r="G115" t="n">
-        <v>5.05053645485437</v>
+        <v>17.6072605954473</v>
       </c>
       <c r="H115" t="n">
-        <v>5.58009411891028</v>
+        <v>16.5947992452838</v>
       </c>
       <c r="I115" t="n">
-        <v>6.30759428522161</v>
+        <v>17.710948200274</v>
       </c>
       <c r="J115" t="n">
-        <v>7.22395945542997</v>
+        <v>18.9785254912644</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.79150821530024</v>
+        <v>10.2068093337983</v>
       </c>
       <c r="B116" t="n">
-        <v>10.9453775247647</v>
+        <v>10.1007364410038</v>
       </c>
       <c r="C116" t="n">
-        <v>11.8637039801967</v>
+        <v>12.3905613450069</v>
       </c>
       <c r="D116" t="n">
-        <v>12.8261444965209</v>
+        <v>12.5860779517513</v>
       </c>
       <c r="E116" t="n">
-        <v>15.4252511888059</v>
+        <v>14.040358999471</v>
       </c>
       <c r="F116" t="n">
-        <v>14.7516731851268</v>
+        <v>14.4568737528174</v>
       </c>
       <c r="G116" t="n">
-        <v>17.0922525628058</v>
+        <v>14.2976559309419</v>
       </c>
       <c r="H116" t="n">
-        <v>18.266247002133</v>
+        <v>18.2112371462925</v>
       </c>
       <c r="I116" t="n">
-        <v>17.7640192138419</v>
+        <v>19.0500060138654</v>
       </c>
       <c r="J116" t="n">
-        <v>18.8987633175524</v>
+        <v>17.900531876234</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.14376186409879</v>
+        <v>9.33140423228601</v>
       </c>
       <c r="B117" t="n">
-        <v>3.33110448661795</v>
+        <v>12.565275620356</v>
       </c>
       <c r="C117" t="n">
-        <v>3.7553613679442</v>
+        <v>12.7833448369938</v>
       </c>
       <c r="D117" t="n">
-        <v>2.9896292769917</v>
+        <v>13.826378557696</v>
       </c>
       <c r="E117" t="n">
-        <v>14.3097006075162</v>
+        <v>15.5661700883823</v>
       </c>
       <c r="F117" t="n">
-        <v>15.2146662650755</v>
+        <v>15.0116086475645</v>
       </c>
       <c r="G117" t="n">
-        <v>15.7068196228396</v>
+        <v>14.7337312161719</v>
       </c>
       <c r="H117" t="n">
-        <v>6.33156054654613</v>
+        <v>16.5908102275744</v>
       </c>
       <c r="I117" t="n">
-        <v>6.73812335170982</v>
+        <v>16.5203662451178</v>
       </c>
       <c r="J117" t="n">
-        <v>7.40302588318956</v>
+        <v>18.3345926493632</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.7197279389153</v>
+        <v>-4.61296155235619</v>
       </c>
       <c r="B118" t="n">
-        <v>10.4725435570889</v>
+        <v>-5.29880201441457</v>
       </c>
       <c r="C118" t="n">
-        <v>12.6648094772902</v>
+        <v>-6.08744331742587</v>
       </c>
       <c r="D118" t="n">
-        <v>13.0012243972599</v>
+        <v>-6.10301739004781</v>
       </c>
       <c r="E118" t="n">
-        <v>-6.71993501971554</v>
+        <v>-6.86752751208195</v>
       </c>
       <c r="F118" t="n">
-        <v>-7.37114924354215</v>
+        <v>-7.84471623581526</v>
       </c>
       <c r="G118" t="n">
-        <v>-8.04898604530199</v>
+        <v>-8.41420342846619</v>
       </c>
       <c r="H118" t="n">
-        <v>-8.77214218786055</v>
+        <v>-9.18085611054352</v>
       </c>
       <c r="I118" t="n">
-        <v>-8.78590401764611</v>
+        <v>-8.57652194114639</v>
       </c>
       <c r="J118" t="n">
-        <v>-9.51912729529275</v>
+        <v>-9.61793350650142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>3.00662062099337</v>
+        <v>-5.14612217322692</v>
       </c>
       <c r="B119" t="n">
-        <v>2.82650341327222</v>
+        <v>-5.56433396572109</v>
       </c>
       <c r="C119" t="n">
-        <v>3.44511882730636</v>
+        <v>-5.6710860999947</v>
       </c>
       <c r="D119" t="n">
-        <v>3.59489338184223</v>
+        <v>-6.75563342989319</v>
       </c>
       <c r="E119" t="n">
-        <v>4.92315815683585</v>
+        <v>-6.95253592905162</v>
       </c>
       <c r="F119" t="n">
-        <v>4.87456247227864</v>
+        <v>-7.40012477211114</v>
       </c>
       <c r="G119" t="n">
-        <v>6.05738664326648</v>
+        <v>-8.11224442956759</v>
       </c>
       <c r="H119" t="n">
-        <v>5.79395619162687</v>
+        <v>-8.15916223331084</v>
       </c>
       <c r="I119" t="n">
-        <v>5.88051448059718</v>
+        <v>-9.03270311316388</v>
       </c>
       <c r="J119" t="n">
-        <v>7.14232155789191</v>
+        <v>-9.42702411590202</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.75609295954216</v>
+        <v>8.53610151196736</v>
       </c>
       <c r="B120" t="n">
-        <v>10.1503476293398</v>
+        <v>11.5622321839148</v>
       </c>
       <c r="C120" t="n">
-        <v>12.2349475575826</v>
+        <v>11.6460294762365</v>
       </c>
       <c r="D120" t="n">
-        <v>11.520124296474</v>
+        <v>13.9866373501835</v>
       </c>
       <c r="E120" t="n">
-        <v>12.8367310473115</v>
+        <v>14.2524213501718</v>
       </c>
       <c r="F120" t="n">
-        <v>14.5893383607263</v>
+        <v>14.6497626646955</v>
       </c>
       <c r="G120" t="n">
-        <v>4.66274131903004</v>
+        <v>15.4131690380408</v>
       </c>
       <c r="H120" t="n">
-        <v>6.62079275616445</v>
+        <v>17.6745370711997</v>
       </c>
       <c r="I120" t="n">
-        <v>6.63993358814882</v>
+        <v>18.5888742402992</v>
       </c>
       <c r="J120" t="n">
-        <v>7.0197698570834</v>
+        <v>19.2146153210184</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>10.4307165678308</v>
+        <v>2.71667615139498</v>
       </c>
       <c r="B121" t="n">
-        <v>11.3114732951428</v>
+        <v>2.73757491035512</v>
       </c>
       <c r="C121" t="n">
-        <v>-5.39708018540085</v>
+        <v>3.08223239208139</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.19645742135253</v>
+        <v>4.08688713112516</v>
       </c>
       <c r="E121" t="n">
-        <v>-6.95135786407031</v>
+        <v>4.24836630026464</v>
       </c>
       <c r="F121" t="n">
-        <v>-7.85238088434763</v>
+        <v>5.48832001132889</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.4695669988832</v>
+        <v>-7.6302160629757</v>
       </c>
       <c r="H121" t="n">
-        <v>-8.42969814609589</v>
+        <v>15.8126422923458</v>
       </c>
       <c r="I121" t="n">
-        <v>-8.62337604961634</v>
+        <v>17.4859823894402</v>
       </c>
       <c r="J121" t="n">
-        <v>-9.61477494410531</v>
+        <v>18.9034479487423</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-5.49324099377927</v>
+        <v>2.06592927525757</v>
       </c>
       <c r="B122" t="n">
-        <v>-5.65192036381668</v>
+        <v>2.80162899064375</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.88560656342141</v>
+        <v>4.46586009554706</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.52319099480515</v>
+        <v>3.51631633979912</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.04970810735519</v>
+        <v>3.53007316871451</v>
       </c>
       <c r="F122" t="n">
-        <v>-7.08197032713376</v>
+        <v>5.23878764829302</v>
       </c>
       <c r="G122" t="n">
-        <v>-7.84209871285149</v>
+        <v>5.44151273579749</v>
       </c>
       <c r="H122" t="n">
-        <v>-8.41593605777435</v>
+        <v>5.96783465566821</v>
       </c>
       <c r="I122" t="n">
-        <v>-9.20260404979875</v>
+        <v>5.99264889771317</v>
       </c>
       <c r="J122" t="n">
-        <v>-9.28006922226552</v>
+        <v>6.92708395296945</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.62158052615899</v>
+        <v>10.3323328970872</v>
       </c>
       <c r="B123" t="n">
-        <v>10.7376686844744</v>
+        <v>11.1468738880098</v>
       </c>
       <c r="C123" t="n">
-        <v>11.0709000869816</v>
+        <v>12.3200719845946</v>
       </c>
       <c r="D123" t="n">
-        <v>14.0882235917646</v>
+        <v>13.6858241414043</v>
       </c>
       <c r="E123" t="n">
-        <v>13.4133212340914</v>
+        <v>15.2969548648054</v>
       </c>
       <c r="F123" t="n">
-        <v>5.35359284909535</v>
+        <v>13.4810038973796</v>
       </c>
       <c r="G123" t="n">
-        <v>5.37334057997725</v>
+        <v>16.3957305395487</v>
       </c>
       <c r="H123" t="n">
-        <v>6.37717897284982</v>
+        <v>16.1601612670675</v>
       </c>
       <c r="I123" t="n">
-        <v>6.76337647604896</v>
+        <v>17.7192721516985</v>
       </c>
       <c r="J123" t="n">
-        <v>7.4536877655274</v>
+        <v>20.2999585972284</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.41213191804709</v>
+        <v>9.62723543694204</v>
       </c>
       <c r="B124" t="n">
-        <v>2.59867057418363</v>
+        <v>10.9570761080272</v>
       </c>
       <c r="C124" t="n">
-        <v>3.82945486403106</v>
+        <v>10.7947675555282</v>
       </c>
       <c r="D124" t="n">
-        <v>3.58655883658518</v>
+        <v>12.9646792445226</v>
       </c>
       <c r="E124" t="n">
-        <v>3.96031168760643</v>
+        <v>12.7878927608456</v>
       </c>
       <c r="F124" t="n">
-        <v>4.55273981093203</v>
+        <v>15.1336507983173</v>
       </c>
       <c r="G124" t="n">
-        <v>5.58648156884901</v>
+        <v>15.4274156307336</v>
       </c>
       <c r="H124" t="n">
-        <v>6.77928778973255</v>
+        <v>17.061654114132</v>
       </c>
       <c r="I124" t="n">
-        <v>5.68732467390545</v>
+        <v>18.18366732448</v>
       </c>
       <c r="J124" t="n">
-        <v>7.04898501054162</v>
+        <v>19.4813693841579</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10.7078883639916</v>
+        <v>-4.66188503900032</v>
       </c>
       <c r="B125" t="n">
-        <v>11.0367325882765</v>
+        <v>-5.63663779632589</v>
       </c>
       <c r="C125" t="n">
-        <v>12.7562016579874</v>
+        <v>-5.70554346575091</v>
       </c>
       <c r="D125" t="n">
-        <v>12.3805984539556</v>
+        <v>-6.47526097533013</v>
       </c>
       <c r="E125" t="n">
-        <v>13.8324835493889</v>
+        <v>13.3126290119792</v>
       </c>
       <c r="F125" t="n">
-        <v>16.1972280087766</v>
+        <v>14.5376444144702</v>
       </c>
       <c r="G125" t="n">
-        <v>15.658678123283</v>
+        <v>16.4143601369813</v>
       </c>
       <c r="H125" t="n">
-        <v>17.5707076825318</v>
+        <v>15.9663422073519</v>
       </c>
       <c r="I125" t="n">
-        <v>16.9879200831653</v>
+        <v>17.6367062255327</v>
       </c>
       <c r="J125" t="n">
-        <v>19.0665637137151</v>
+        <v>19.0591300305161</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.2866007000546</v>
+        <v>2.21535957384341</v>
       </c>
       <c r="B126" t="n">
-        <v>10.9074170598804</v>
+        <v>3.94632637877871</v>
       </c>
       <c r="C126" t="n">
-        <v>11.5553399484812</v>
+        <v>2.94461658935772</v>
       </c>
       <c r="D126" t="n">
-        <v>12.6628204290514</v>
+        <v>3.90728707970696</v>
       </c>
       <c r="E126" t="n">
-        <v>14.4431955400376</v>
+        <v>4.48286656470879</v>
       </c>
       <c r="F126" t="n">
-        <v>14.6402021358</v>
+        <v>4.82373412847004</v>
       </c>
       <c r="G126" t="n">
-        <v>14.6133378966873</v>
+        <v>5.78379534726375</v>
       </c>
       <c r="H126" t="n">
-        <v>17.3517016917436</v>
+        <v>5.79081410234295</v>
       </c>
       <c r="I126" t="n">
-        <v>18.780318242513</v>
+        <v>6.86140448848423</v>
       </c>
       <c r="J126" t="n">
-        <v>20.2167418654443</v>
+        <v>7.27355175072342</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.57364450743242</v>
+        <v>9.21151271021717</v>
       </c>
       <c r="B127" t="n">
-        <v>3.16043469492151</v>
+        <v>11.8614861992242</v>
       </c>
       <c r="C127" t="n">
-        <v>3.83889766062482</v>
+        <v>11.1544052341973</v>
       </c>
       <c r="D127" t="n">
-        <v>4.28343767276532</v>
+        <v>12.2268511642305</v>
       </c>
       <c r="E127" t="n">
-        <v>4.97883260596626</v>
+        <v>14.120386586502</v>
       </c>
       <c r="F127" t="n">
-        <v>5.12634764939208</v>
+        <v>13.3702314244873</v>
       </c>
       <c r="G127" t="n">
-        <v>5.81995537736554</v>
+        <v>16.2204638370783</v>
       </c>
       <c r="H127" t="n">
-        <v>6.23497551830873</v>
+        <v>16.645065533883</v>
       </c>
       <c r="I127" t="n">
-        <v>7.18419647394157</v>
+        <v>18.8022127768771</v>
       </c>
       <c r="J127" t="n">
-        <v>7.69814783017457</v>
+        <v>18.1498367402699</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.66336582191072</v>
+        <v>1.89617518763923</v>
       </c>
       <c r="B128" t="n">
-        <v>3.20978991803082</v>
+        <v>9.76864824197703</v>
       </c>
       <c r="C128" t="n">
-        <v>2.92986558667953</v>
+        <v>11.5162851785889</v>
       </c>
       <c r="D128" t="n">
-        <v>4.00086514902484</v>
+        <v>13.0680580398497</v>
       </c>
       <c r="E128" t="n">
-        <v>4.32029622499355</v>
+        <v>14.2264626431743</v>
       </c>
       <c r="F128" t="n">
-        <v>5.57273869291925</v>
+        <v>14.244634723968</v>
       </c>
       <c r="G128" t="n">
-        <v>5.83285797061811</v>
+        <v>15.0291709077705</v>
       </c>
       <c r="H128" t="n">
-        <v>5.11528208386198</v>
+        <v>17.3642140928358</v>
       </c>
       <c r="I128" t="n">
-        <v>6.6163277533772</v>
+        <v>19.2910984936726</v>
       </c>
       <c r="J128" t="n">
-        <v>6.65458881575421</v>
+        <v>18.6155060842805</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4.55716553318652</v>
+        <v>9.30263754268977</v>
       </c>
       <c r="B129" t="n">
-        <v>-5.32580931968729</v>
+        <v>10.3389936844828</v>
       </c>
       <c r="C129" t="n">
-        <v>-6.21919685387924</v>
+        <v>12.6661618055389</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.92705851904341</v>
+        <v>13.4784721031691</v>
       </c>
       <c r="E129" t="n">
-        <v>-7.06815843671179</v>
+        <v>14.5186836429989</v>
       </c>
       <c r="F129" t="n">
-        <v>-7.79407710091927</v>
+        <v>15.2815532871933</v>
       </c>
       <c r="G129" t="n">
-        <v>-7.82776214780874</v>
+        <v>16.2355919606729</v>
       </c>
       <c r="H129" t="n">
-        <v>-8.3222335395323</v>
+        <v>16.2360681585444</v>
       </c>
       <c r="I129" t="n">
-        <v>6.45271955956334</v>
+        <v>16.5686920780505</v>
       </c>
       <c r="J129" t="n">
-        <v>5.67159819847308</v>
+        <v>19.1070523886561</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.41961362014224</v>
+        <v>9.67907943807832</v>
       </c>
       <c r="B130" t="n">
-        <v>10.7533064945315</v>
+        <v>11.1135779645302</v>
       </c>
       <c r="C130" t="n">
-        <v>11.662462141169</v>
+        <v>13.2742506911045</v>
       </c>
       <c r="D130" t="n">
-        <v>12.1382645809127</v>
+        <v>12.1607470015952</v>
       </c>
       <c r="E130" t="n">
-        <v>13.0504845628848</v>
+        <v>13.6764389812928</v>
       </c>
       <c r="F130" t="n">
-        <v>13.5938291021884</v>
+        <v>15.4705976808743</v>
       </c>
       <c r="G130" t="n">
-        <v>16.9351185781058</v>
+        <v>16.0260065617625</v>
       </c>
       <c r="H130" t="n">
-        <v>17.1596083314745</v>
+        <v>17.2267729926191</v>
       </c>
       <c r="I130" t="n">
-        <v>17.9046109622818</v>
+        <v>18.5064309262538</v>
       </c>
       <c r="J130" t="n">
-        <v>19.3153682623656</v>
+        <v>19.6579502992825</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-5.48152615961177</v>
+        <v>2.61218949109195</v>
       </c>
       <c r="B131" t="n">
-        <v>-5.38207094830993</v>
+        <v>2.39734296672448</v>
       </c>
       <c r="C131" t="n">
-        <v>12.8603695693646</v>
+        <v>3.13496017170687</v>
       </c>
       <c r="D131" t="n">
-        <v>12.2187120528508</v>
+        <v>3.80826102008986</v>
       </c>
       <c r="E131" t="n">
-        <v>12.9411320878658</v>
+        <v>4.96677197989228</v>
       </c>
       <c r="F131" t="n">
-        <v>14.2970495076202</v>
+        <v>4.66961370184293</v>
       </c>
       <c r="G131" t="n">
-        <v>14.5811691394948</v>
+        <v>5.62408121447698</v>
       </c>
       <c r="H131" t="n">
-        <v>16.6759041405158</v>
+        <v>5.62409590971251</v>
       </c>
       <c r="I131" t="n">
-        <v>18.2710253031264</v>
+        <v>6.19107653629917</v>
       </c>
       <c r="J131" t="n">
-        <v>18.9748088476222</v>
+        <v>6.82843268513953</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.1861191647044</v>
+        <v>10.0913229514369</v>
       </c>
       <c r="B132" t="n">
-        <v>12.2690842795925</v>
+        <v>9.53329729665507</v>
       </c>
       <c r="C132" t="n">
-        <v>11.4688083541225</v>
+        <v>10.7505737948264</v>
       </c>
       <c r="D132" t="n">
-        <v>13.544869888944</v>
+        <v>12.9077050030909</v>
       </c>
       <c r="E132" t="n">
-        <v>14.5023178821713</v>
+        <v>14.4988942411279</v>
       </c>
       <c r="F132" t="n">
-        <v>15.3062882071405</v>
+        <v>15.3374967548763</v>
       </c>
       <c r="G132" t="n">
-        <v>15.3496723697593</v>
+        <v>16.9041733661787</v>
       </c>
       <c r="H132" t="n">
-        <v>17.3522500833029</v>
+        <v>16.2862941603463</v>
       </c>
       <c r="I132" t="n">
-        <v>17.1824603470776</v>
+        <v>17.878379072307</v>
       </c>
       <c r="J132" t="n">
-        <v>20.2506929675918</v>
+        <v>17.9254247485142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.8374138915847</v>
+        <v>-4.77737136538667</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.31978105926</v>
+        <v>-5.25406956282352</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.72900130188785</v>
+        <v>-6.16242487984665</v>
       </c>
       <c r="D133" t="n">
-        <v>3.7230078044398</v>
+        <v>-6.624770450476</v>
       </c>
       <c r="E133" t="n">
-        <v>5.0026418224989</v>
+        <v>-6.89773249987321</v>
       </c>
       <c r="F133" t="n">
-        <v>5.48501849836838</v>
+        <v>-7.34446011822642</v>
       </c>
       <c r="G133" t="n">
-        <v>5.74662053462917</v>
+        <v>-8.27842940071356</v>
       </c>
       <c r="H133" t="n">
-        <v>6.29858811001676</v>
+        <v>-8.58714864824237</v>
       </c>
       <c r="I133" t="n">
-        <v>6.38319385901076</v>
+        <v>-9.25220323453233</v>
       </c>
       <c r="J133" t="n">
-        <v>6.5505405941849</v>
+        <v>-9.93378748696945</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>11.0296748475105</v>
+        <v>-5.0455017812332</v>
       </c>
       <c r="B134" t="n">
-        <v>11.3292789756057</v>
+        <v>-5.18815892125892</v>
       </c>
       <c r="C134" t="n">
-        <v>12.9566382586363</v>
+        <v>-6.08431582892385</v>
       </c>
       <c r="D134" t="n">
-        <v>13.7716492310197</v>
+        <v>-6.18279966138722</v>
       </c>
       <c r="E134" t="n">
-        <v>13.9175514241854</v>
+        <v>-6.79683607148085</v>
       </c>
       <c r="F134" t="n">
-        <v>15.4469160138735</v>
+        <v>-7.23515450239661</v>
       </c>
       <c r="G134" t="n">
-        <v>16.1781363512457</v>
+        <v>-8.24095012154604</v>
       </c>
       <c r="H134" t="n">
-        <v>16.7377254134437</v>
+        <v>-8.57501019778499</v>
       </c>
       <c r="I134" t="n">
-        <v>7.0628005188629</v>
+        <v>-9.51626126164883</v>
       </c>
       <c r="J134" t="n">
-        <v>6.81270530808012</v>
+        <v>-9.80321673538195</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10.9086772726328</v>
+        <v>-4.84483969144211</v>
       </c>
       <c r="B135" t="n">
-        <v>2.95595140390421</v>
+        <v>-5.41093513876114</v>
       </c>
       <c r="C135" t="n">
-        <v>3.21856237541853</v>
+        <v>11.8583687353522</v>
       </c>
       <c r="D135" t="n">
-        <v>3.3130391286641</v>
+        <v>13.2218209480405</v>
       </c>
       <c r="E135" t="n">
-        <v>4.7539905242305</v>
+        <v>14.1102665917077</v>
       </c>
       <c r="F135" t="n">
-        <v>5.63873588583828</v>
+        <v>14.1617482185259</v>
       </c>
       <c r="G135" t="n">
-        <v>5.15270928893407</v>
+        <v>16.5060520473744</v>
       </c>
       <c r="H135" t="n">
-        <v>5.61412981657277</v>
+        <v>18.6639982599014</v>
       </c>
       <c r="I135" t="n">
-        <v>5.78475067898118</v>
+        <v>17.5753251336343</v>
       </c>
       <c r="J135" t="n">
-        <v>6.53575380076458</v>
+        <v>17.8010312274399</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-5.11522210123049</v>
+        <v>2.51480790379914</v>
       </c>
       <c r="B136" t="n">
-        <v>-5.75822211221062</v>
+        <v>2.4331250439671</v>
       </c>
       <c r="C136" t="n">
-        <v>-5.49852699967916</v>
+        <v>3.72468277335251</v>
       </c>
       <c r="D136" t="n">
-        <v>-6.57305983851235</v>
+        <v>3.69527767975272</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.13928800610166</v>
+        <v>5.26290234532321</v>
       </c>
       <c r="F136" t="n">
-        <v>-7.9142207505331</v>
+        <v>4.45261983896804</v>
       </c>
       <c r="G136" t="n">
-        <v>-7.90961302226089</v>
+        <v>5.00621512048982</v>
       </c>
       <c r="H136" t="n">
-        <v>-8.16671689425106</v>
+        <v>5.61605278547341</v>
       </c>
       <c r="I136" t="n">
-        <v>-8.85884337755997</v>
+        <v>6.59402218548623</v>
       </c>
       <c r="J136" t="n">
-        <v>-9.42867171913064</v>
+        <v>6.62224852515544</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.93707343383628</v>
+        <v>10.1711748119394</v>
       </c>
       <c r="B137" t="n">
-        <v>12.087227204959</v>
+        <v>11.3728871292435</v>
       </c>
       <c r="C137" t="n">
-        <v>11.3955724211324</v>
+        <v>11.7080528825587</v>
       </c>
       <c r="D137" t="n">
-        <v>13.0228971025223</v>
+        <v>12.9525875394475</v>
       </c>
       <c r="E137" t="n">
-        <v>-6.78114647091107</v>
+        <v>13.4416075623016</v>
       </c>
       <c r="F137" t="n">
-        <v>-7.99345075439657</v>
+        <v>15.5542959063003</v>
       </c>
       <c r="G137" t="n">
-        <v>-8.01559467961883</v>
+        <v>15.4678762636868</v>
       </c>
       <c r="H137" t="n">
-        <v>-8.76946701616643</v>
+        <v>16.9310011569793</v>
       </c>
       <c r="I137" t="n">
-        <v>-8.82388302133837</v>
+        <v>18.8670263941416</v>
       </c>
       <c r="J137" t="n">
-        <v>-9.29896105178517</v>
+        <v>19.8510887910904</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.0877946737907</v>
+        <v>2.26507612501047</v>
       </c>
       <c r="B138" t="n">
-        <v>12.0421697251051</v>
+        <v>3.00781928565025</v>
       </c>
       <c r="C138" t="n">
-        <v>11.8902569104265</v>
+        <v>3.7177221001777</v>
       </c>
       <c r="D138" t="n">
-        <v>13.4472543996925</v>
+        <v>3.35819050286444</v>
       </c>
       <c r="E138" t="n">
-        <v>13.6010523072646</v>
+        <v>4.53335138311323</v>
       </c>
       <c r="F138" t="n">
-        <v>4.79111073400141</v>
+        <v>4.76596388866149</v>
       </c>
       <c r="G138" t="n">
-        <v>15.575622606402</v>
+        <v>5.35953187860235</v>
       </c>
       <c r="H138" t="n">
-        <v>17.7378030680475</v>
+        <v>5.54796660533691</v>
       </c>
       <c r="I138" t="n">
-        <v>17.062827744883</v>
+        <v>6.42710445310576</v>
       </c>
       <c r="J138" t="n">
-        <v>18.8512719982134</v>
+        <v>6.28758304891012</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.04676872233552</v>
+        <v>2.06998386941229</v>
       </c>
       <c r="B139" t="n">
-        <v>3.36877968002416</v>
+        <v>2.9818586044913</v>
       </c>
       <c r="C139" t="n">
-        <v>4.28652891971395</v>
+        <v>3.36184329264481</v>
       </c>
       <c r="D139" t="n">
-        <v>3.99711384046283</v>
+        <v>3.55572218287844</v>
       </c>
       <c r="E139" t="n">
-        <v>3.6941568029872</v>
+        <v>4.27135104736047</v>
       </c>
       <c r="F139" t="n">
-        <v>4.7550635060045</v>
+        <v>4.80420943187361</v>
       </c>
       <c r="G139" t="n">
-        <v>5.81943708561959</v>
+        <v>6.1477984565612</v>
       </c>
       <c r="H139" t="n">
-        <v>6.30764283143992</v>
+        <v>5.93529295110848</v>
       </c>
       <c r="I139" t="n">
-        <v>6.45725278583364</v>
+        <v>7.02611220053538</v>
       </c>
       <c r="J139" t="n">
-        <v>6.88308088220492</v>
+        <v>6.85098255234999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10.3134161902414</v>
+        <v>2.39443549997574</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.69678594645557</v>
+        <v>3.32136760010411</v>
       </c>
       <c r="C140" t="n">
-        <v>-5.97862121494404</v>
+        <v>3.64871538069573</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.98611955678972</v>
+        <v>3.89349639744772</v>
       </c>
       <c r="E140" t="n">
-        <v>-6.96826919260893</v>
+        <v>4.4446701292928</v>
       </c>
       <c r="F140" t="n">
-        <v>-7.3504497627437</v>
+        <v>4.72255682759108</v>
       </c>
       <c r="G140" t="n">
-        <v>-8.1206660400567</v>
+        <v>5.36909169872308</v>
       </c>
       <c r="H140" t="n">
-        <v>-8.08985059554664</v>
+        <v>6.13833991845428</v>
       </c>
       <c r="I140" t="n">
-        <v>-8.78386021069182</v>
+        <v>6.14382942516796</v>
       </c>
       <c r="J140" t="n">
-        <v>-9.31018915959135</v>
+        <v>6.73244836180924</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10.0101244372036</v>
+        <v>2.48342864413371</v>
       </c>
       <c r="B141" t="n">
-        <v>11.6285763528076</v>
+        <v>2.38070320723714</v>
       </c>
       <c r="C141" t="n">
-        <v>4.12972103363797</v>
+        <v>3.94754226450398</v>
       </c>
       <c r="D141" t="n">
-        <v>4.27147107451098</v>
+        <v>4.26953705895453</v>
       </c>
       <c r="E141" t="n">
-        <v>4.54009810399267</v>
+        <v>4.50268670622185</v>
       </c>
       <c r="F141" t="n">
-        <v>5.4892281462248</v>
+        <v>5.05728829255601</v>
       </c>
       <c r="G141" t="n">
-        <v>5.62115985101396</v>
+        <v>6.10222489032554</v>
       </c>
       <c r="H141" t="n">
-        <v>5.86336417824698</v>
+        <v>5.99205674428065</v>
       </c>
       <c r="I141" t="n">
-        <v>6.66206500668234</v>
+        <v>6.3353797693157</v>
       </c>
       <c r="J141" t="n">
-        <v>6.97830676024577</v>
+        <v>7.47537827564402</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.61683067560197</v>
+        <v>10.8191195103601</v>
       </c>
       <c r="B142" t="n">
-        <v>12.1420776179912</v>
+        <v>-5.53099894532025</v>
       </c>
       <c r="C142" t="n">
-        <v>12.5235086783375</v>
+        <v>-5.97115373147696</v>
       </c>
       <c r="D142" t="n">
-        <v>14.1674257554084</v>
+        <v>-6.66055673326086</v>
       </c>
       <c r="E142" t="n">
-        <v>13.4514054771073</v>
+        <v>-6.84997505084792</v>
       </c>
       <c r="F142" t="n">
-        <v>14.6270391862069</v>
+        <v>-7.64402248620777</v>
       </c>
       <c r="G142" t="n">
-        <v>17.0427739091174</v>
+        <v>-8.25650280446312</v>
       </c>
       <c r="H142" t="n">
-        <v>16.1484919083186</v>
+        <v>-8.49450360959909</v>
       </c>
       <c r="I142" t="n">
-        <v>18.6138485963953</v>
+        <v>-9.07159017925648</v>
       </c>
       <c r="J142" t="n">
-        <v>18.0294393618113</v>
+        <v>-9.50806846144269</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-5.20583511066794</v>
+        <v>10.4889401180487</v>
       </c>
       <c r="B143" t="n">
-        <v>-5.51599372121929</v>
+        <v>10.2952489391882</v>
       </c>
       <c r="C143" t="n">
-        <v>-6.52900938208871</v>
+        <v>12.2960200920254</v>
       </c>
       <c r="D143" t="n">
-        <v>-6.25952526810108</v>
+        <v>14.5044390767165</v>
       </c>
       <c r="E143" t="n">
-        <v>-6.72806087015096</v>
+        <v>12.2930453454545</v>
       </c>
       <c r="F143" t="n">
-        <v>-7.92796418442894</v>
+        <v>15.4138589750105</v>
       </c>
       <c r="G143" t="n">
-        <v>-7.81537237959557</v>
+        <v>17.2282001798794</v>
       </c>
       <c r="H143" t="n">
-        <v>18.0982406379507</v>
+        <v>16.5835138984523</v>
       </c>
       <c r="I143" t="n">
-        <v>17.6510129239043</v>
+        <v>17.7630907354236</v>
       </c>
       <c r="J143" t="n">
-        <v>19.3346809542693</v>
+        <v>20.3599288470338</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2.59615869965763</v>
+        <v>-5.1277420476677</v>
       </c>
       <c r="B144" t="n">
-        <v>3.03943679928981</v>
+        <v>-5.49410430385095</v>
       </c>
       <c r="C144" t="n">
-        <v>3.9640255026108</v>
+        <v>-6.08861339243954</v>
       </c>
       <c r="D144" t="n">
-        <v>4.24061924685232</v>
+        <v>-6.54580572239347</v>
       </c>
       <c r="E144" t="n">
-        <v>3.86677506277919</v>
+        <v>3.78286694897479</v>
       </c>
       <c r="F144" t="n">
-        <v>5.37931181807383</v>
+        <v>4.89929597633665</v>
       </c>
       <c r="G144" t="n">
-        <v>4.78055063720096</v>
+        <v>6.13036078539673</v>
       </c>
       <c r="H144" t="n">
-        <v>5.40033362697852</v>
+        <v>6.81194219209174</v>
       </c>
       <c r="I144" t="n">
-        <v>5.73733645995493</v>
+        <v>7.18312675862537</v>
       </c>
       <c r="J144" t="n">
-        <v>7.63517652593061</v>
+        <v>6.65864455525282</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3.65137611838044</v>
+        <v>-4.84844595791078</v>
       </c>
       <c r="B145" t="n">
-        <v>2.56691164159206</v>
+        <v>-5.42142653737158</v>
       </c>
       <c r="C145" t="n">
-        <v>3.60416184448396</v>
+        <v>-6.25663798827315</v>
       </c>
       <c r="D145" t="n">
-        <v>3.36074749765458</v>
+        <v>-6.65098868239349</v>
       </c>
       <c r="E145" t="n">
-        <v>4.80611083265424</v>
+        <v>-6.87854466163376</v>
       </c>
       <c r="F145" t="n">
-        <v>4.56378037124603</v>
+        <v>-7.28804035978013</v>
       </c>
       <c r="G145" t="n">
-        <v>4.79859009273222</v>
+        <v>-8.05723469778063</v>
       </c>
       <c r="H145" t="n">
-        <v>5.53177576449676</v>
+        <v>-8.10269745364602</v>
       </c>
       <c r="I145" t="n">
-        <v>6.35634278272308</v>
+        <v>-8.93568513682806</v>
       </c>
       <c r="J145" t="n">
-        <v>6.97688991463489</v>
+        <v>-9.32028544657301</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-4.29210907195307</v>
+        <v>10.7918505177856</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.39381131659671</v>
+        <v>10.1220732342925</v>
       </c>
       <c r="C146" t="n">
-        <v>-5.66838807808801</v>
+        <v>11.5063367515745</v>
       </c>
       <c r="D146" t="n">
-        <v>-6.57232327755016</v>
+        <v>13.0626295348903</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.0787545828654</v>
+        <v>13.8011569862708</v>
       </c>
       <c r="F146" t="n">
-        <v>-7.53228205470284</v>
+        <v>14.8930419648778</v>
       </c>
       <c r="G146" t="n">
-        <v>17.0437717300636</v>
+        <v>15.3086595976071</v>
       </c>
       <c r="H146" t="n">
-        <v>17.1782961070525</v>
+        <v>16.6882685406676</v>
       </c>
       <c r="I146" t="n">
-        <v>19.2486672299047</v>
+        <v>6.98010168941336</v>
       </c>
       <c r="J146" t="n">
-        <v>-9.88936174112105</v>
+        <v>7.38852462418891</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-5.01515492049637</v>
+        <v>2.73427487749549</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.466102791233</v>
+        <v>3.0488609854963</v>
       </c>
       <c r="C147" t="n">
-        <v>-6.23824584704409</v>
+        <v>3.6842492581588</v>
       </c>
       <c r="D147" t="n">
-        <v>-6.68951887818773</v>
+        <v>3.61394165062811</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.35075587751324</v>
+        <v>-6.97478664521665</v>
       </c>
       <c r="F147" t="n">
-        <v>-6.94361257627852</v>
+        <v>-7.62354189156301</v>
       </c>
       <c r="G147" t="n">
-        <v>-8.31357374597027</v>
+        <v>-8.02628092453054</v>
       </c>
       <c r="H147" t="n">
-        <v>-8.66318372911383</v>
+        <v>-8.35625156642994</v>
       </c>
       <c r="I147" t="n">
-        <v>-9.04354370527464</v>
+        <v>-9.20434878383275</v>
       </c>
       <c r="J147" t="n">
-        <v>7.18608756734861</v>
+        <v>-9.4183757652473</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.268668102348</v>
+        <v>-4.92854294824707</v>
       </c>
       <c r="B148" t="n">
-        <v>10.4417129771482</v>
+        <v>-5.46866328395844</v>
       </c>
       <c r="C148" t="n">
-        <v>11.4113170431188</v>
+        <v>-5.99844741888055</v>
       </c>
       <c r="D148" t="n">
-        <v>12.4577212486103</v>
+        <v>-6.35067788840465</v>
       </c>
       <c r="E148" t="n">
-        <v>-6.34354807266512</v>
+        <v>-6.9379046667285</v>
       </c>
       <c r="F148" t="n">
-        <v>-7.60538330389459</v>
+        <v>-8.0065157455868</v>
       </c>
       <c r="G148" t="n">
-        <v>-8.06766799734996</v>
+        <v>-7.62450722992221</v>
       </c>
       <c r="H148" t="n">
-        <v>-8.63669367663198</v>
+        <v>-8.53686851602798</v>
       </c>
       <c r="I148" t="n">
-        <v>-9.03817388001109</v>
+        <v>17.6676981645241</v>
       </c>
       <c r="J148" t="n">
-        <v>-9.26935066029203</v>
+        <v>19.7622106074939</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.5562979235319</v>
+        <v>9.91106317890041</v>
       </c>
       <c r="B149" t="n">
-        <v>2.95768488545568</v>
+        <v>10.9458623315025</v>
       </c>
       <c r="C149" t="n">
-        <v>3.9788264731369</v>
+        <v>13.9831420937117</v>
       </c>
       <c r="D149" t="n">
-        <v>4.3397614912778</v>
+        <v>3.85787341812472</v>
       </c>
       <c r="E149" t="n">
-        <v>5.55516344074915</v>
+        <v>4.5772461062613</v>
       </c>
       <c r="F149" t="n">
-        <v>4.77426629061209</v>
+        <v>5.0420085809797</v>
       </c>
       <c r="G149" t="n">
-        <v>5.48567452023353</v>
+        <v>5.55672400870538</v>
       </c>
       <c r="H149" t="n">
-        <v>5.88857512297761</v>
+        <v>6.06232078897054</v>
       </c>
       <c r="I149" t="n">
-        <v>6.67735382460144</v>
+        <v>6.32352097628275</v>
       </c>
       <c r="J149" t="n">
-        <v>7.00179146066665</v>
+        <v>6.85739430944679</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.4173533718646</v>
+        <v>-4.93974629302534</v>
       </c>
       <c r="B150" t="n">
-        <v>10.1805636648666</v>
+        <v>-5.08195439686958</v>
       </c>
       <c r="C150" t="n">
-        <v>11.0397359138823</v>
+        <v>-5.80332115383854</v>
       </c>
       <c r="D150" t="n">
-        <v>13.1057390992024</v>
+        <v>14.5013689480724</v>
       </c>
       <c r="E150" t="n">
-        <v>14.5797215579829</v>
+        <v>12.9256938551407</v>
       </c>
       <c r="F150" t="n">
-        <v>15.2674850760797</v>
+        <v>15.1446791904389</v>
       </c>
       <c r="G150" t="n">
-        <v>16.3628006017422</v>
+        <v>16.9363207034292</v>
       </c>
       <c r="H150" t="n">
-        <v>17.5297266680617</v>
+        <v>17.2856626830537</v>
       </c>
       <c r="I150" t="n">
-        <v>16.7008031485013</v>
+        <v>-8.98253936205255</v>
       </c>
       <c r="J150" t="n">
-        <v>18.7054010742592</v>
+        <v>-9.34552929377338</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-5.09680995513608</v>
+        <v>-4.92886662751039</v>
       </c>
       <c r="B151" t="n">
-        <v>-5.76111947551565</v>
+        <v>-5.74740742135001</v>
       </c>
       <c r="C151" t="n">
-        <v>-5.80585270401393</v>
+        <v>-5.41987571348696</v>
       </c>
       <c r="D151" t="n">
-        <v>-6.25271976795462</v>
+        <v>-6.04745938361126</v>
       </c>
       <c r="E151" t="n">
-        <v>-7.32777618301073</v>
+        <v>-6.94472321129303</v>
       </c>
       <c r="F151" t="n">
-        <v>-7.66232345906141</v>
+        <v>-7.33333752642718</v>
       </c>
       <c r="G151" t="n">
-        <v>-8.16623483410247</v>
+        <v>5.67805782423168</v>
       </c>
       <c r="H151" t="n">
-        <v>-8.56032956949944</v>
+        <v>5.2581452881374</v>
       </c>
       <c r="I151" t="n">
-        <v>-8.90860727388036</v>
+        <v>5.77640839153344</v>
       </c>
       <c r="J151" t="n">
-        <v>-9.48024998769295</v>
+        <v>5.66269586507965</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.29161568506707</v>
+        <v>9.40808279185322</v>
       </c>
       <c r="B152" t="n">
-        <v>2.86497955301396</v>
+        <v>10.7522140086805</v>
       </c>
       <c r="C152" t="n">
-        <v>3.83339614541262</v>
+        <v>10.9111602691295</v>
       </c>
       <c r="D152" t="n">
-        <v>4.63604507641964</v>
+        <v>12.4218283110267</v>
       </c>
       <c r="E152" t="n">
-        <v>4.21556910743611</v>
+        <v>14.5455898239999</v>
       </c>
       <c r="F152" t="n">
-        <v>5.34147789234523</v>
+        <v>14.6698700891227</v>
       </c>
       <c r="G152" t="n">
-        <v>5.28330372049891</v>
+        <v>15.3881051140779</v>
       </c>
       <c r="H152" t="n">
-        <v>5.53576693703132</v>
+        <v>18.5552964938085</v>
       </c>
       <c r="I152" t="n">
-        <v>6.93392914611968</v>
+        <v>18.5371385873706</v>
       </c>
       <c r="J152" t="n">
-        <v>7.14584708098513</v>
+        <v>19.9713065125411</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-4.49146359162798</v>
+        <v>8.25404245909562</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.68695008720929</v>
+        <v>10.705079347201</v>
       </c>
       <c r="C153" t="n">
-        <v>-5.923711563553</v>
+        <v>12.1162627462044</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.59576353424069</v>
+        <v>13.1520275426039</v>
       </c>
       <c r="E153" t="n">
-        <v>-6.72040926497753</v>
+        <v>14.2384313019811</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.55729858365701</v>
+        <v>15.2500057251803</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.65055646936487</v>
+        <v>14.1660230434198</v>
       </c>
       <c r="H153" t="n">
-        <v>-8.75272629248825</v>
+        <v>16.4254445884785</v>
       </c>
       <c r="I153" t="n">
-        <v>-9.15452335289931</v>
+        <v>19.0450281455909</v>
       </c>
       <c r="J153" t="n">
-        <v>-9.84976262036449</v>
+        <v>18.8297708063159</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.77501707158368</v>
+        <v>9.90246873697319</v>
       </c>
       <c r="B154" t="n">
-        <v>3.19137943197311</v>
+        <v>11.7522497689252</v>
       </c>
       <c r="C154" t="n">
-        <v>4.04161211793404</v>
+        <v>11.5362447813269</v>
       </c>
       <c r="D154" t="n">
-        <v>3.93945856123532</v>
+        <v>12.2844124359505</v>
       </c>
       <c r="E154" t="n">
-        <v>4.23178586288496</v>
+        <v>13.3649992924652</v>
       </c>
       <c r="F154" t="n">
-        <v>3.84944727640796</v>
+        <v>14.8462953783765</v>
       </c>
       <c r="G154" t="n">
-        <v>4.98301479583486</v>
+        <v>16.028835959632</v>
       </c>
       <c r="H154" t="n">
-        <v>5.87044729511424</v>
+        <v>16.8791768268651</v>
       </c>
       <c r="I154" t="n">
-        <v>7.10719278669393</v>
+        <v>17.4968528416896</v>
       </c>
       <c r="J154" t="n">
-        <v>6.95674888844392</v>
+        <v>20.6353543437419</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-4.81546760793256</v>
+        <v>11.0087184427583</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.22114544078043</v>
+        <v>10.2310359205622</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.8312160264215</v>
+        <v>10.3128895266195</v>
       </c>
       <c r="D155" t="n">
-        <v>-6.3721198968459</v>
+        <v>3.92514462962379</v>
       </c>
       <c r="E155" t="n">
-        <v>-6.82799822828549</v>
+        <v>4.6370937446021</v>
       </c>
       <c r="F155" t="n">
-        <v>-7.46156861954685</v>
+        <v>4.85732214917285</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.96911595676505</v>
+        <v>5.37347418433126</v>
       </c>
       <c r="H155" t="n">
-        <v>15.9241454410989</v>
+        <v>5.5847827213665</v>
       </c>
       <c r="I155" t="n">
-        <v>17.6689683933152</v>
+        <v>17.3071139397813</v>
       </c>
       <c r="J155" t="n">
-        <v>18.6751913458595</v>
+        <v>18.8426136408542</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-5.09673289680962</v>
+        <v>-5.06262373024032</v>
       </c>
       <c r="B156" t="n">
-        <v>-5.55846754446104</v>
+        <v>-5.40072229276795</v>
       </c>
       <c r="C156" t="n">
-        <v>-5.84984941064096</v>
+        <v>11.0339698878763</v>
       </c>
       <c r="D156" t="n">
-        <v>-6.82310765579872</v>
+        <v>12.1783788978036</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.16499307780685</v>
+        <v>14.4469483900168</v>
       </c>
       <c r="F156" t="n">
-        <v>-7.82281201058901</v>
+        <v>14.2448937977626</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.90783392685378</v>
+        <v>15.7656384092063</v>
       </c>
       <c r="H156" t="n">
-        <v>-8.6827645293822</v>
+        <v>15.737974699988</v>
       </c>
       <c r="I156" t="n">
-        <v>-8.71808467476325</v>
+        <v>18.965139162649</v>
       </c>
       <c r="J156" t="n">
-        <v>-9.31064730012106</v>
+        <v>19.4516418415769</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9.67834882819821</v>
+        <v>1.88284050845569</v>
       </c>
       <c r="B157" t="n">
-        <v>11.9394399387337</v>
+        <v>3.15956311349076</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.54989208164094</v>
+        <v>3.76532112312663</v>
       </c>
       <c r="D157" t="n">
-        <v>-6.46345055163197</v>
+        <v>4.2224448574865</v>
       </c>
       <c r="E157" t="n">
-        <v>-7.2496044614196</v>
+        <v>4.94902081323787</v>
       </c>
       <c r="F157" t="n">
-        <v>-7.70061278877174</v>
+        <v>5.14822463218059</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.84806865621136</v>
+        <v>6.04259944845604</v>
       </c>
       <c r="H157" t="n">
-        <v>-8.55855994293719</v>
+        <v>5.82360099211698</v>
       </c>
       <c r="I157" t="n">
-        <v>-9.06360916171319</v>
+        <v>6.84925881400348</v>
       </c>
       <c r="J157" t="n">
-        <v>-9.9580131666321</v>
+        <v>6.66651630870647</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>11.0769122346101</v>
+        <v>-5.04387665893306</v>
       </c>
       <c r="B158" t="n">
-        <v>9.74884306479023</v>
+        <v>-5.8222097377694</v>
       </c>
       <c r="C158" t="n">
-        <v>12.1457587612459</v>
+        <v>-5.7561089863843</v>
       </c>
       <c r="D158" t="n">
-        <v>15.1185434926995</v>
+        <v>-6.11492471784367</v>
       </c>
       <c r="E158" t="n">
-        <v>14.8904315357932</v>
+        <v>-6.58313641749445</v>
       </c>
       <c r="F158" t="n">
-        <v>14.8049209526298</v>
+        <v>-7.03989137444462</v>
       </c>
       <c r="G158" t="n">
-        <v>15.6936987970186</v>
+        <v>-7.64883469805017</v>
       </c>
       <c r="H158" t="n">
-        <v>16.8109660899412</v>
+        <v>-8.48248737678912</v>
       </c>
       <c r="I158" t="n">
-        <v>18.456225060441</v>
+        <v>-8.88444521395592</v>
       </c>
       <c r="J158" t="n">
-        <v>18.8273739287333</v>
+        <v>-9.67199302282488</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.7416959956725</v>
+        <v>11.541664217575</v>
       </c>
       <c r="B159" t="n">
-        <v>2.78547982122491</v>
+        <v>11.6201751780852</v>
       </c>
       <c r="C159" t="n">
-        <v>3.20925443821947</v>
+        <v>11.7048071398296</v>
       </c>
       <c r="D159" t="n">
-        <v>4.78871073686472</v>
+        <v>13.2865725666997</v>
       </c>
       <c r="E159" t="n">
-        <v>4.12663984097511</v>
+        <v>13.8875938184969</v>
       </c>
       <c r="F159" t="n">
-        <v>5.90407843940241</v>
+        <v>15.2287830691533</v>
       </c>
       <c r="G159" t="n">
-        <v>6.20740103577657</v>
+        <v>15.2177044007401</v>
       </c>
       <c r="H159" t="n">
-        <v>6.60381119817973</v>
+        <v>17.2392488473352</v>
       </c>
       <c r="I159" t="n">
-        <v>6.79277396305937</v>
+        <v>18.8926000744662</v>
       </c>
       <c r="J159" t="n">
-        <v>6.395683895865</v>
+        <v>18.9192120524581</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.5838887292726</v>
+        <v>1.42359202264962</v>
       </c>
       <c r="B160" t="n">
-        <v>3.22248910346781</v>
+        <v>2.8972972434808</v>
       </c>
       <c r="C160" t="n">
-        <v>2.96534907153352</v>
+        <v>4.2587001854722</v>
       </c>
       <c r="D160" t="n">
-        <v>4.15369160541177</v>
+        <v>4.31134965854663</v>
       </c>
       <c r="E160" t="n">
-        <v>5.10469568866964</v>
+        <v>5.88677442702885</v>
       </c>
       <c r="F160" t="n">
-        <v>4.73306956355082</v>
+        <v>4.70085257986401</v>
       </c>
       <c r="G160" t="n">
-        <v>4.96349178257522</v>
+        <v>5.27696084492587</v>
       </c>
       <c r="H160" t="n">
-        <v>6.06860308628264</v>
+        <v>6.23602732150536</v>
       </c>
       <c r="I160" t="n">
-        <v>5.57027320216654</v>
+        <v>6.96596267646631</v>
       </c>
       <c r="J160" t="n">
-        <v>7.42852743582782</v>
+        <v>6.76095957216568</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.1852417446716</v>
+        <v>8.52272274266395</v>
       </c>
       <c r="B161" t="n">
-        <v>10.2272221684856</v>
+        <v>10.3227018505933</v>
       </c>
       <c r="C161" t="n">
-        <v>11.6328213895519</v>
+        <v>12.7673487790177</v>
       </c>
       <c r="D161" t="n">
-        <v>12.5393745104944</v>
+        <v>12.6735293833653</v>
       </c>
       <c r="E161" t="n">
-        <v>13.3900123016867</v>
+        <v>13.9213886214362</v>
       </c>
       <c r="F161" t="n">
-        <v>15.7610289849199</v>
+        <v>16.1064065396067</v>
       </c>
       <c r="G161" t="n">
-        <v>16.4081607366071</v>
+        <v>16.9553578665957</v>
       </c>
       <c r="H161" t="n">
-        <v>17.6440194603493</v>
+        <v>16.5088423438861</v>
       </c>
       <c r="I161" t="n">
-        <v>17.4011860620712</v>
+        <v>18.6754148068374</v>
       </c>
       <c r="J161" t="n">
-        <v>18.9875391208847</v>
+        <v>19.3973139621936</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>9.42420703269624</v>
+        <v>8.8704850702009</v>
       </c>
       <c r="B162" t="n">
-        <v>10.6838186348388</v>
+        <v>8.95200326775087</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.85129880192916</v>
+        <v>10.282159026909</v>
       </c>
       <c r="D162" t="n">
-        <v>-6.40539799965254</v>
+        <v>13.2954867853494</v>
       </c>
       <c r="E162" t="n">
-        <v>-7.240877039876</v>
+        <v>14.9443931414629</v>
       </c>
       <c r="F162" t="n">
-        <v>-7.73592674624409</v>
+        <v>14.8873394985879</v>
       </c>
       <c r="G162" t="n">
-        <v>-8.09924536225474</v>
+        <v>16.4424923339302</v>
       </c>
       <c r="H162" t="n">
-        <v>-8.68222126616831</v>
+        <v>17.1031078442837</v>
       </c>
       <c r="I162" t="n">
-        <v>-8.89511553288723</v>
+        <v>18.3668133541576</v>
       </c>
       <c r="J162" t="n">
-        <v>-9.64744528045296</v>
+        <v>17.7282461898836</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9.00148622780656</v>
+        <v>9.28331384580896</v>
       </c>
       <c r="B163" t="n">
-        <v>10.1482045685595</v>
+        <v>11.5442436036084</v>
       </c>
       <c r="C163" t="n">
-        <v>11.6710021615704</v>
+        <v>11.016760582912</v>
       </c>
       <c r="D163" t="n">
-        <v>12.4822064520324</v>
+        <v>12.7011940158877</v>
       </c>
       <c r="E163" t="n">
-        <v>14.4021975226309</v>
+        <v>14.5719805027303</v>
       </c>
       <c r="F163" t="n">
-        <v>15.298625464356</v>
+        <v>14.595585055093</v>
       </c>
       <c r="G163" t="n">
-        <v>15.1134995049441</v>
+        <v>16.5625381704791</v>
       </c>
       <c r="H163" t="n">
-        <v>16.9435406296925</v>
+        <v>-8.57804393300385</v>
       </c>
       <c r="I163" t="n">
-        <v>18.1918803692505</v>
+        <v>-9.14712322836573</v>
       </c>
       <c r="J163" t="n">
-        <v>20.3421901194025</v>
+        <v>-9.58164497421702</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.62749716158859</v>
+        <v>-4.83627736940847</v>
       </c>
       <c r="B164" t="n">
-        <v>2.75189490042266</v>
+        <v>-5.42662512440022</v>
       </c>
       <c r="C164" t="n">
-        <v>3.80989752070703</v>
+        <v>-5.97447426444342</v>
       </c>
       <c r="D164" t="n">
-        <v>3.74656778101946</v>
+        <v>-6.63996355991927</v>
       </c>
       <c r="E164" t="n">
-        <v>4.29206972558071</v>
+        <v>-7.0875973310377</v>
       </c>
       <c r="F164" t="n">
-        <v>4.9475109235922</v>
+        <v>-7.64010512181016</v>
       </c>
       <c r="G164" t="n">
-        <v>5.77407218073198</v>
+        <v>-8.07334919367057</v>
       </c>
       <c r="H164" t="n">
-        <v>5.82401286164681</v>
+        <v>-9.03278892143671</v>
       </c>
       <c r="I164" t="n">
-        <v>6.0392369915823</v>
+        <v>-9.50875721550182</v>
       </c>
       <c r="J164" t="n">
-        <v>7.21820502707701</v>
+        <v>-9.36490361708999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9.94170482776449</v>
+        <v>1.91940253964729</v>
       </c>
       <c r="B165" t="n">
-        <v>11.2230550094082</v>
+        <v>2.9181525066175</v>
       </c>
       <c r="C165" t="n">
-        <v>12.068761872944</v>
+        <v>2.31477519747354</v>
       </c>
       <c r="D165" t="n">
-        <v>13.5441035790759</v>
+        <v>4.17242557956466</v>
       </c>
       <c r="E165" t="n">
-        <v>14.2589245077439</v>
+        <v>4.06221778421341</v>
       </c>
       <c r="F165" t="n">
-        <v>14.0584458224013</v>
+        <v>4.94372363913577</v>
       </c>
       <c r="G165" t="n">
-        <v>16.6114418714045</v>
+        <v>6.21531752103366</v>
       </c>
       <c r="H165" t="n">
-        <v>16.5616824951646</v>
+        <v>6.99488297182154</v>
       </c>
       <c r="I165" t="n">
-        <v>17.0994140886405</v>
+        <v>7.03825035760225</v>
       </c>
       <c r="J165" t="n">
-        <v>17.9671598742976</v>
+        <v>6.27848297163526</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-4.99470526964387</v>
+        <v>10.4744286672319</v>
       </c>
       <c r="B166" t="n">
-        <v>-5.48934517502803</v>
+        <v>10.3556417323471</v>
       </c>
       <c r="C166" t="n">
-        <v>-5.57667243818293</v>
+        <v>12.3578898073583</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.071608763911</v>
+        <v>12.2579656555802</v>
       </c>
       <c r="E166" t="n">
-        <v>-7.19893092989216</v>
+        <v>14.9432112758136</v>
       </c>
       <c r="F166" t="n">
-        <v>-7.72326810804096</v>
+        <v>16.2352979379319</v>
       </c>
       <c r="G166" t="n">
-        <v>-7.72337807869025</v>
+        <v>16.4001931423312</v>
       </c>
       <c r="H166" t="n">
-        <v>-8.44277363725335</v>
+        <v>18.123682659142</v>
       </c>
       <c r="I166" t="n">
-        <v>-9.13206451362157</v>
+        <v>17.0053865751582</v>
       </c>
       <c r="J166" t="n">
-        <v>7.35699990810367</v>
+        <v>18.9246118277772</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.83136277595605</v>
+        <v>-4.70962598375867</v>
       </c>
       <c r="B167" t="n">
-        <v>2.91994497883002</v>
+        <v>-5.50148268137389</v>
       </c>
       <c r="C167" t="n">
-        <v>3.64412162104685</v>
+        <v>-5.82204668192318</v>
       </c>
       <c r="D167" t="n">
-        <v>4.23461463335815</v>
+        <v>-6.05723814466712</v>
       </c>
       <c r="E167" t="n">
-        <v>4.95371236004289</v>
+        <v>-6.70970922280924</v>
       </c>
       <c r="F167" t="n">
-        <v>4.73554075951181</v>
+        <v>-7.16285001401328</v>
       </c>
       <c r="G167" t="n">
-        <v>5.06391395067745</v>
+        <v>-7.76340723351553</v>
       </c>
       <c r="H167" t="n">
-        <v>5.47553559521801</v>
+        <v>-8.71875312223968</v>
       </c>
       <c r="I167" t="n">
-        <v>6.54848008687148</v>
+        <v>-8.76129981029786</v>
       </c>
       <c r="J167" t="n">
-        <v>6.88648201027814</v>
+        <v>-9.46738786952928</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-5.26257547569447</v>
+        <v>10.841321837151</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.57989419792099</v>
+        <v>12.0994781628321</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.00644496415971</v>
+        <v>11.3125572220808</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.3967699230129</v>
+        <v>12.5759202849213</v>
       </c>
       <c r="E168" t="n">
-        <v>-6.60173504274685</v>
+        <v>12.2256534997925</v>
       </c>
       <c r="F168" t="n">
-        <v>4.80104129064817</v>
+        <v>15.6532435398433</v>
       </c>
       <c r="G168" t="n">
-        <v>5.53431091489352</v>
+        <v>15.0289978364531</v>
       </c>
       <c r="H168" t="n">
-        <v>6.28766356999224</v>
+        <v>17.2492126586684</v>
       </c>
       <c r="I168" t="n">
-        <v>6.88813343361763</v>
+        <v>18.0033249200524</v>
       </c>
       <c r="J168" t="n">
-        <v>6.88761745616667</v>
+        <v>19.3239200841482</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9.46282695250096</v>
+        <v>10.0250717315626</v>
       </c>
       <c r="B169" t="n">
-        <v>9.51573706963785</v>
+        <v>10.4367425253395</v>
       </c>
       <c r="C169" t="n">
-        <v>10.833623280293</v>
+        <v>11.6933358611219</v>
       </c>
       <c r="D169" t="n">
-        <v>13.5138092836168</v>
+        <v>12.8835064628994</v>
       </c>
       <c r="E169" t="n">
-        <v>12.801139242234</v>
+        <v>14.3206298693362</v>
       </c>
       <c r="F169" t="n">
-        <v>14.856202259373</v>
+        <v>15.2579833764766</v>
       </c>
       <c r="G169" t="n">
-        <v>15.5575474972402</v>
+        <v>15.7045458947819</v>
       </c>
       <c r="H169" t="n">
-        <v>17.4532573368422</v>
+        <v>18.1118829428937</v>
       </c>
       <c r="I169" t="n">
-        <v>18.6497616090718</v>
+        <v>17.3913391156806</v>
       </c>
       <c r="J169" t="n">
-        <v>18.9179893685475</v>
+        <v>17.7317332157032</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9.59236223394545</v>
+        <v>9.75171441959382</v>
       </c>
       <c r="B170" t="n">
-        <v>11.7185433438273</v>
+        <v>10.8436942741991</v>
       </c>
       <c r="C170" t="n">
-        <v>13.5525254568364</v>
+        <v>11.6563839539704</v>
       </c>
       <c r="D170" t="n">
-        <v>13.7859452538157</v>
+        <v>13.9336882739454</v>
       </c>
       <c r="E170" t="n">
-        <v>14.7874359370498</v>
+        <v>14.0219528480464</v>
       </c>
       <c r="F170" t="n">
-        <v>-7.85718634785274</v>
+        <v>15.1534354841252</v>
       </c>
       <c r="G170" t="n">
-        <v>-8.0308891841177</v>
+        <v>16.7006134101559</v>
       </c>
       <c r="H170" t="n">
-        <v>-8.64481560589712</v>
+        <v>18.0957273327642</v>
       </c>
       <c r="I170" t="n">
-        <v>-9.2713358658401</v>
+        <v>18.2400600691808</v>
       </c>
       <c r="J170" t="n">
-        <v>-9.00386543806426</v>
+        <v>17.8551323828496</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9.23733385412843</v>
+        <v>10.213573340864</v>
       </c>
       <c r="B171" t="n">
-        <v>10.3497953404928</v>
+        <v>11.6774185523632</v>
       </c>
       <c r="C171" t="n">
-        <v>12.2068512051612</v>
+        <v>11.8504695883311</v>
       </c>
       <c r="D171" t="n">
-        <v>13.477695173148</v>
+        <v>12.1916558279581</v>
       </c>
       <c r="E171" t="n">
-        <v>13.4461797559757</v>
+        <v>12.6195019078113</v>
       </c>
       <c r="F171" t="n">
-        <v>13.6913859464747</v>
+        <v>14.7794020237389</v>
       </c>
       <c r="G171" t="n">
-        <v>15.7391563502311</v>
+        <v>15.5630894328997</v>
       </c>
       <c r="H171" t="n">
-        <v>16.4860246605601</v>
+        <v>18.4322796000246</v>
       </c>
       <c r="I171" t="n">
-        <v>18.6276495727897</v>
+        <v>17.7176836671965</v>
       </c>
       <c r="J171" t="n">
-        <v>18.0559987814295</v>
+        <v>18.8895113155469</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-4.63457838211948</v>
+        <v>1.67475801463948</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.43274964311256</v>
+        <v>2.6777959407601</v>
       </c>
       <c r="C172" t="n">
-        <v>-6.00944888417032</v>
+        <v>3.2037473216825</v>
       </c>
       <c r="D172" t="n">
-        <v>-6.60724948634941</v>
+        <v>4.40911605817835</v>
       </c>
       <c r="E172" t="n">
-        <v>-6.76810500678087</v>
+        <v>4.64001946179048</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.65131829481402</v>
+        <v>4.01917155936732</v>
       </c>
       <c r="G172" t="n">
-        <v>-7.95652038959776</v>
+        <v>4.88395809367743</v>
       </c>
       <c r="H172" t="n">
-        <v>-8.09051248675327</v>
+        <v>6.47651201850611</v>
       </c>
       <c r="I172" t="n">
-        <v>-8.59779432194008</v>
+        <v>6.61895053566873</v>
       </c>
       <c r="J172" t="n">
-        <v>-8.84245775035882</v>
+        <v>7.05563468953125</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4.8851663575648</v>
+        <v>-4.76455455268018</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.34356937978396</v>
+        <v>-5.64296175351936</v>
       </c>
       <c r="C173" t="n">
-        <v>-6.14178996273051</v>
+        <v>-5.97641784836544</v>
       </c>
       <c r="D173" t="n">
-        <v>-5.87418562209284</v>
+        <v>-6.59988846498966</v>
       </c>
       <c r="E173" t="n">
-        <v>-6.88021504647914</v>
+        <v>-6.65081194639238</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.28078625479434</v>
+        <v>-7.54576103850077</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.84745041604801</v>
+        <v>-7.92138350907574</v>
       </c>
       <c r="H173" t="n">
-        <v>-8.15894136889884</v>
+        <v>5.15820172431608</v>
       </c>
       <c r="I173" t="n">
-        <v>-9.35688588040113</v>
+        <v>6.49840568114711</v>
       </c>
       <c r="J173" t="n">
-        <v>-10.2404944446523</v>
+        <v>7.124026273132</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-5.11690191557473</v>
+        <v>10.1442301470453</v>
       </c>
       <c r="B174" t="n">
-        <v>-5.57558408681625</v>
+        <v>10.9043339864175</v>
       </c>
       <c r="C174" t="n">
-        <v>-5.96119334473013</v>
+        <v>3.11489801671585</v>
       </c>
       <c r="D174" t="n">
-        <v>-6.19309779577926</v>
+        <v>12.9602553188031</v>
       </c>
       <c r="E174" t="n">
-        <v>-6.85429044406255</v>
+        <v>13.8021850208777</v>
       </c>
       <c r="F174" t="n">
-        <v>-7.29685254570789</v>
+        <v>14.6309265538991</v>
       </c>
       <c r="G174" t="n">
-        <v>-7.94643565340439</v>
+        <v>16.3356328637173</v>
       </c>
       <c r="H174" t="n">
-        <v>-8.69985273323586</v>
+        <v>17.9924531974622</v>
       </c>
       <c r="I174" t="n">
-        <v>-9.22828455715634</v>
+        <v>17.6679910047357</v>
       </c>
       <c r="J174" t="n">
-        <v>-9.48601027284634</v>
+        <v>18.1589900330696</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8.53584316740811</v>
+        <v>-5.06821375566339</v>
       </c>
       <c r="B175" t="n">
-        <v>11.9943300582555</v>
+        <v>11.802428370119</v>
       </c>
       <c r="C175" t="n">
-        <v>-6.19646379095863</v>
+        <v>11.0431759623233</v>
       </c>
       <c r="D175" t="n">
-        <v>-6.31552054206679</v>
+        <v>13.5563523928578</v>
       </c>
       <c r="E175" t="n">
-        <v>-6.87580154942363</v>
+        <v>14.1240849325642</v>
       </c>
       <c r="F175" t="n">
-        <v>-7.63916785944085</v>
+        <v>15.9922591726473</v>
       </c>
       <c r="G175" t="n">
-        <v>-7.81635669728365</v>
+        <v>14.8179612184</v>
       </c>
       <c r="H175" t="n">
-        <v>-9.01129734609069</v>
+        <v>16.5105447589406</v>
       </c>
       <c r="I175" t="n">
-        <v>-9.11357924755447</v>
+        <v>18.2485431932263</v>
       </c>
       <c r="J175" t="n">
-        <v>-9.69033312029779</v>
+        <v>19.777054596612</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9.81953169726003</v>
+        <v>-5.24391564140666</v>
       </c>
       <c r="B176" t="n">
-        <v>10.6511945385672</v>
+        <v>-5.48670649911873</v>
       </c>
       <c r="C176" t="n">
-        <v>11.6837224471501</v>
+        <v>-5.69831530507502</v>
       </c>
       <c r="D176" t="n">
-        <v>12.048982028376</v>
+        <v>-6.45217914862772</v>
       </c>
       <c r="E176" t="n">
-        <v>13.6833040147851</v>
+        <v>-6.84777067783416</v>
       </c>
       <c r="F176" t="n">
-        <v>14.5075766505244</v>
+        <v>-7.19936597823833</v>
       </c>
       <c r="G176" t="n">
-        <v>6.07342897719389</v>
+        <v>-8.256469912477</v>
       </c>
       <c r="H176" t="n">
-        <v>5.90757834685172</v>
+        <v>-8.64330368882743</v>
       </c>
       <c r="I176" t="n">
-        <v>5.75312472841112</v>
+        <v>-9.07361756450029</v>
       </c>
       <c r="J176" t="n">
-        <v>7.36638850169627</v>
+        <v>-9.55299096464174</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-5.30052397728642</v>
+        <v>9.11277923782784</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.95996268876588</v>
+        <v>9.98041386546244</v>
       </c>
       <c r="C177" t="n">
-        <v>-6.19620777909816</v>
+        <v>11.9940029708493</v>
       </c>
       <c r="D177" t="n">
-        <v>-6.72800673680168</v>
+        <v>11.9140345043606</v>
       </c>
       <c r="E177" t="n">
-        <v>-7.29286264023527</v>
+        <v>12.9171276265157</v>
       </c>
       <c r="F177" t="n">
-        <v>-7.74441646014237</v>
+        <v>14.2740948085958</v>
       </c>
       <c r="G177" t="n">
-        <v>-7.44098753282257</v>
+        <v>14.314690254682</v>
       </c>
       <c r="H177" t="n">
-        <v>-8.62595479536341</v>
+        <v>18.4097108917266</v>
       </c>
       <c r="I177" t="n">
-        <v>-9.05631230733931</v>
+        <v>17.5136766275142</v>
       </c>
       <c r="J177" t="n">
-        <v>-9.34875239991892</v>
+        <v>18.2415769358305</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9.94101554593591</v>
+        <v>11.2178011970146</v>
       </c>
       <c r="B178" t="n">
-        <v>11.3739286027993</v>
+        <v>10.7400285225027</v>
       </c>
       <c r="C178" t="n">
-        <v>11.9407111425881</v>
+        <v>11.9885298647366</v>
       </c>
       <c r="D178" t="n">
-        <v>13.5150754254999</v>
+        <v>12.6206498177504</v>
       </c>
       <c r="E178" t="n">
-        <v>14.6011387130517</v>
+        <v>14.3522535387466</v>
       </c>
       <c r="F178" t="n">
-        <v>14.9300633210122</v>
+        <v>14.8436742459772</v>
       </c>
       <c r="G178" t="n">
-        <v>16.5677096817225</v>
+        <v>15.0416515703403</v>
       </c>
       <c r="H178" t="n">
-        <v>17.7978560322193</v>
+        <v>16.3597935011171</v>
       </c>
       <c r="I178" t="n">
-        <v>19.2033806367171</v>
+        <v>17.8711417179157</v>
       </c>
       <c r="J178" t="n">
-        <v>-9.30947620943201</v>
+        <v>19.3850670680173</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>10.5647438701158</v>
+        <v>9.91074096693368</v>
       </c>
       <c r="B179" t="n">
-        <v>10.9646001041685</v>
+        <v>11.0843223475101</v>
       </c>
       <c r="C179" t="n">
-        <v>11.9815763026285</v>
+        <v>11.8170271835705</v>
       </c>
       <c r="D179" t="n">
-        <v>-6.32539651659487</v>
+        <v>13.6980316051937</v>
       </c>
       <c r="E179" t="n">
-        <v>-7.04656260719662</v>
+        <v>13.2162933456553</v>
       </c>
       <c r="F179" t="n">
-        <v>-7.41123693679454</v>
+        <v>16.3076945309609</v>
       </c>
       <c r="G179" t="n">
-        <v>-7.49161839714954</v>
+        <v>15.41671059454</v>
       </c>
       <c r="H179" t="n">
-        <v>-8.73416006894681</v>
+        <v>17.6226570205599</v>
       </c>
       <c r="I179" t="n">
-        <v>-8.8870992735659</v>
+        <v>16.1089990382641</v>
       </c>
       <c r="J179" t="n">
-        <v>-9.4019677486308</v>
+        <v>19.0879363731649</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9.50366436765942</v>
+        <v>3.31321303435551</v>
       </c>
       <c r="B180" t="n">
-        <v>9.64421530832017</v>
+        <v>2.84897728814062</v>
       </c>
       <c r="C180" t="n">
-        <v>11.6379814259085</v>
+        <v>3.83327934479341</v>
       </c>
       <c r="D180" t="n">
-        <v>12.2508871781561</v>
+        <v>3.90531781383508</v>
       </c>
       <c r="E180" t="n">
-        <v>12.928815238079</v>
+        <v>4.8977293494321</v>
       </c>
       <c r="F180" t="n">
-        <v>15.8397082372891</v>
+        <v>4.73396605229606</v>
       </c>
       <c r="G180" t="n">
-        <v>6.15704998357922</v>
+        <v>5.85012730724769</v>
       </c>
       <c r="H180" t="n">
-        <v>5.5410716898674</v>
+        <v>5.114782439984</v>
       </c>
       <c r="I180" t="n">
-        <v>7.04069790283264</v>
+        <v>6.64672628048385</v>
       </c>
       <c r="J180" t="n">
-        <v>7.71763844743296</v>
+        <v>7.34824028781489</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-4.5333465729213</v>
+        <v>-4.63429049297411</v>
       </c>
       <c r="B181" t="n">
-        <v>-5.73834471209738</v>
+        <v>-5.2982805949365</v>
       </c>
       <c r="C181" t="n">
-        <v>-6.3125852869133</v>
+        <v>-5.94023485606099</v>
       </c>
       <c r="D181" t="n">
-        <v>-6.75274834216009</v>
+        <v>-6.28839410653805</v>
       </c>
       <c r="E181" t="n">
-        <v>-6.64640669057472</v>
+        <v>14.09695122187</v>
       </c>
       <c r="F181" t="n">
-        <v>-7.72242057355971</v>
+        <v>15.010944019737</v>
       </c>
       <c r="G181" t="n">
-        <v>-7.67884549080182</v>
+        <v>16.0035239100329</v>
       </c>
       <c r="H181" t="n">
-        <v>-8.35337561509058</v>
+        <v>17.5675170085443</v>
       </c>
       <c r="I181" t="n">
-        <v>-9.40840307540203</v>
+        <v>18.2296087938853</v>
       </c>
       <c r="J181" t="n">
-        <v>-9.38230170759442</v>
+        <v>19.1063356634709</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.5414283644811</v>
+        <v>-5.08519142880536</v>
       </c>
       <c r="B182" t="n">
-        <v>11.3641135942018</v>
+        <v>-6.01296529346566</v>
       </c>
       <c r="C182" t="n">
-        <v>13.7441280975577</v>
+        <v>12.4276361484325</v>
       </c>
       <c r="D182" t="n">
-        <v>14.3633162692874</v>
+        <v>12.4947182635479</v>
       </c>
       <c r="E182" t="n">
-        <v>14.3720669992952</v>
+        <v>15.1819867065199</v>
       </c>
       <c r="F182" t="n">
-        <v>15.0529801180441</v>
+        <v>14.6799992369891</v>
       </c>
       <c r="G182" t="n">
-        <v>17.5691330402733</v>
+        <v>15.0926914499831</v>
       </c>
       <c r="H182" t="n">
-        <v>18.4097227651819</v>
+        <v>17.0829235004112</v>
       </c>
       <c r="I182" t="n">
-        <v>17.7964931759323</v>
+        <v>17.1223756385164</v>
       </c>
       <c r="J182" t="n">
-        <v>18.9173161399286</v>
+        <v>19.3306818666064</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>10.9321263358927</v>
+        <v>9.09410268376424</v>
       </c>
       <c r="B183" t="n">
-        <v>10.0291312454777</v>
+        <v>12.4112140799515</v>
       </c>
       <c r="C183" t="n">
-        <v>13.0035265107359</v>
+        <v>5.05847280266171</v>
       </c>
       <c r="D183" t="n">
-        <v>15.0475265674884</v>
+        <v>4.11075793425494</v>
       </c>
       <c r="E183" t="n">
-        <v>13.8986105760528</v>
+        <v>4.11425868047282</v>
       </c>
       <c r="F183" t="n">
-        <v>14.8757013618621</v>
+        <v>14.5425912496368</v>
       </c>
       <c r="G183" t="n">
-        <v>15.1962959779055</v>
+        <v>16.1522657677667</v>
       </c>
       <c r="H183" t="n">
-        <v>-8.72072482404849</v>
+        <v>16.3363164740413</v>
       </c>
       <c r="I183" t="n">
-        <v>-8.81681098499686</v>
+        <v>18.2059985916819</v>
       </c>
       <c r="J183" t="n">
-        <v>-9.80956551386491</v>
+        <v>20.3095091583186</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9.68914823925394</v>
+        <v>-4.7032924882137</v>
       </c>
       <c r="B184" t="n">
-        <v>11.348612398991</v>
+        <v>-5.80516806891953</v>
       </c>
       <c r="C184" t="n">
-        <v>12.1178214802988</v>
+        <v>-6.142585728719</v>
       </c>
       <c r="D184" t="n">
-        <v>12.9712414846119</v>
+        <v>-6.31835955161299</v>
       </c>
       <c r="E184" t="n">
-        <v>13.4924980049065</v>
+        <v>-7.15593521639315</v>
       </c>
       <c r="F184" t="n">
-        <v>15.2646248826805</v>
+        <v>-7.69913701910879</v>
       </c>
       <c r="G184" t="n">
-        <v>16.0415828310211</v>
+        <v>-7.78010100712991</v>
       </c>
       <c r="H184" t="n">
-        <v>17.4947395841884</v>
+        <v>-8.83242025723075</v>
       </c>
       <c r="I184" t="n">
-        <v>18.5999890074207</v>
+        <v>-8.94542381366666</v>
       </c>
       <c r="J184" t="n">
-        <v>19.6664861468839</v>
+        <v>-9.41505654971454</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.848004865895</v>
+        <v>-5.03355823251584</v>
       </c>
       <c r="B185" t="n">
-        <v>11.7867648670252</v>
+        <v>-5.35353232298153</v>
       </c>
       <c r="C185" t="n">
-        <v>11.6877269278562</v>
+        <v>4.08657644389483</v>
       </c>
       <c r="D185" t="n">
-        <v>13.5933196292592</v>
+        <v>4.61841600644211</v>
       </c>
       <c r="E185" t="n">
-        <v>4.9459953851473</v>
+        <v>5.21285521001089</v>
       </c>
       <c r="F185" t="n">
-        <v>5.59895212788472</v>
+        <v>5.3070195435803</v>
       </c>
       <c r="G185" t="n">
-        <v>5.26956767473567</v>
+        <v>5.27825567706227</v>
       </c>
       <c r="H185" t="n">
-        <v>6.53024168923883</v>
+        <v>6.85372469131791</v>
       </c>
       <c r="I185" t="n">
-        <v>6.2567934541137</v>
+        <v>6.36987592854232</v>
       </c>
       <c r="J185" t="n">
-        <v>6.60538941917632</v>
+        <v>6.03102837446452</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.34318327663444</v>
+        <v>8.63841673410477</v>
       </c>
       <c r="B186" t="n">
-        <v>10.3080838547033</v>
+        <v>11.1613501612316</v>
       </c>
       <c r="C186" t="n">
-        <v>11.1457274403041</v>
+        <v>10.4817964075469</v>
       </c>
       <c r="D186" t="n">
-        <v>13.0498200382017</v>
+        <v>13.8678535685339</v>
       </c>
       <c r="E186" t="n">
-        <v>13.7985668220091</v>
+        <v>13.6518903389045</v>
       </c>
       <c r="F186" t="n">
-        <v>15.4808041439259</v>
+        <v>15.4526565808225</v>
       </c>
       <c r="G186" t="n">
-        <v>16.4405138231387</v>
+        <v>16.5673014846096</v>
       </c>
       <c r="H186" t="n">
-        <v>15.5872873560891</v>
+        <v>16.6411547789168</v>
       </c>
       <c r="I186" t="n">
-        <v>17.1511893428367</v>
+        <v>17.5194644960477</v>
       </c>
       <c r="J186" t="n">
-        <v>19.3491644342616</v>
+        <v>17.5191094742798</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-5.23014048909542</v>
+        <v>9.16054990858354</v>
       </c>
       <c r="B187" t="n">
-        <v>-5.55181517329359</v>
+        <v>10.5574715131613</v>
       </c>
       <c r="C187" t="n">
-        <v>-6.08291332167313</v>
+        <v>12.9441094817315</v>
       </c>
       <c r="D187" t="n">
-        <v>-6.56827139096774</v>
+        <v>-6.47902159297668</v>
       </c>
       <c r="E187" t="n">
-        <v>-6.9871478569593</v>
+        <v>-6.73234539939322</v>
       </c>
       <c r="F187" t="n">
-        <v>-7.4612831834489</v>
+        <v>-7.12035561930581</v>
       </c>
       <c r="G187" t="n">
-        <v>-8.17765544010976</v>
+        <v>-7.7191613707693</v>
       </c>
       <c r="H187" t="n">
-        <v>-8.56299249905003</v>
+        <v>-8.44820323272043</v>
       </c>
       <c r="I187" t="n">
-        <v>-8.72147730088758</v>
+        <v>-9.55043626420871</v>
       </c>
       <c r="J187" t="n">
-        <v>19.4546508516703</v>
+        <v>-9.42245453856078</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>10.4403983771652</v>
+        <v>8.96959968629392</v>
       </c>
       <c r="B188" t="n">
-        <v>11.3569624169542</v>
+        <v>12.1414204248096</v>
       </c>
       <c r="C188" t="n">
-        <v>3.70081172443942</v>
+        <v>12.0187505938942</v>
       </c>
       <c r="D188" t="n">
-        <v>4.19200911181514</v>
+        <v>11.7553713958521</v>
       </c>
       <c r="E188" t="n">
-        <v>4.05439867539741</v>
+        <v>13.455523083752</v>
       </c>
       <c r="F188" t="n">
-        <v>4.62073096389531</v>
+        <v>15.059771188801</v>
       </c>
       <c r="G188" t="n">
-        <v>6.28031614482448</v>
+        <v>-8.230634074312</v>
       </c>
       <c r="H188" t="n">
-        <v>6.47382245596499</v>
+        <v>-8.60068371838348</v>
       </c>
       <c r="I188" t="n">
-        <v>6.11627152181995</v>
+        <v>-9.19819891600343</v>
       </c>
       <c r="J188" t="n">
-        <v>6.5558173425203</v>
+        <v>-9.44578709290936</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-4.78311414403468</v>
+        <v>-5.38069637782026</v>
       </c>
       <c r="B189" t="n">
-        <v>-5.73462262933115</v>
+        <v>-5.28655078621733</v>
       </c>
       <c r="C189" t="n">
-        <v>-6.288898343206</v>
+        <v>-5.92294428899209</v>
       </c>
       <c r="D189" t="n">
-        <v>-6.63230980525414</v>
+        <v>-6.62045905995661</v>
       </c>
       <c r="E189" t="n">
-        <v>-6.69476135611993</v>
+        <v>-7.11627580844531</v>
       </c>
       <c r="F189" t="n">
-        <v>-7.48189665244431</v>
+        <v>-7.42311121781174</v>
       </c>
       <c r="G189" t="n">
-        <v>-7.68998225800145</v>
+        <v>-7.86187149722602</v>
       </c>
       <c r="H189" t="n">
-        <v>-8.28477895105589</v>
+        <v>-8.64548455568154</v>
       </c>
       <c r="I189" t="n">
-        <v>17.2275510183023</v>
+        <v>-8.82440282121966</v>
       </c>
       <c r="J189" t="n">
-        <v>18.8593239701752</v>
+        <v>-9.44698577883448</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-5.06696001746694</v>
+        <v>9.62426501420082</v>
       </c>
       <c r="B190" t="n">
-        <v>-5.64249505302456</v>
+        <v>11.3393696570201</v>
       </c>
       <c r="C190" t="n">
-        <v>3.07064018805985</v>
+        <v>12.4781337342813</v>
       </c>
       <c r="D190" t="n">
-        <v>3.96929838468743</v>
+        <v>12.4077331240983</v>
       </c>
       <c r="E190" t="n">
-        <v>5.05914687265685</v>
+        <v>13.9084589209514</v>
       </c>
       <c r="F190" t="n">
-        <v>5.09509013010461</v>
+        <v>-7.56348998714686</v>
       </c>
       <c r="G190" t="n">
-        <v>5.02339684628532</v>
+        <v>-8.27776560214183</v>
       </c>
       <c r="H190" t="n">
-        <v>6.0051878213047</v>
+        <v>-8.2877823526694</v>
       </c>
       <c r="I190" t="n">
-        <v>6.76052199156951</v>
+        <v>18.3391689800633</v>
       </c>
       <c r="J190" t="n">
-        <v>7.86052826669458</v>
+        <v>18.7308824900859</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-4.66308727489717</v>
+        <v>-4.74229192066552</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.71542044140127</v>
+        <v>-5.31290308364849</v>
       </c>
       <c r="C191" t="n">
-        <v>-6.12012244219899</v>
+        <v>-6.27585782694231</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.8641238572297</v>
+        <v>-6.36139028589014</v>
       </c>
       <c r="E191" t="n">
-        <v>-6.70144024866558</v>
+        <v>-6.99101937820632</v>
       </c>
       <c r="F191" t="n">
-        <v>-8.16470626910595</v>
+        <v>-7.57832946021649</v>
       </c>
       <c r="G191" t="n">
-        <v>-8.14989731562021</v>
+        <v>15.1708792844664</v>
       </c>
       <c r="H191" t="n">
-        <v>-8.46455230644637</v>
+        <v>17.0118711094925</v>
       </c>
       <c r="I191" t="n">
-        <v>-9.07580857383994</v>
+        <v>19.3550721057838</v>
       </c>
       <c r="J191" t="n">
-        <v>-9.72110064228022</v>
+        <v>18.4365583092325</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.4030669697669</v>
+        <v>9.01822094274717</v>
       </c>
       <c r="B192" t="n">
-        <v>10.9262685321071</v>
+        <v>11.9716553996101</v>
       </c>
       <c r="C192" t="n">
-        <v>10.8266067631868</v>
+        <v>11.8343276877013</v>
       </c>
       <c r="D192" t="n">
-        <v>3.76081557896454</v>
+        <v>12.7002879272084</v>
       </c>
       <c r="E192" t="n">
-        <v>4.86621197742373</v>
+        <v>13.0397704661967</v>
       </c>
       <c r="F192" t="n">
-        <v>4.04281878639505</v>
+        <v>14.8407825507485</v>
       </c>
       <c r="G192" t="n">
-        <v>5.67393386180994</v>
+        <v>4.53042761847576</v>
       </c>
       <c r="H192" t="n">
-        <v>6.48487734803252</v>
+        <v>6.42317245392856</v>
       </c>
       <c r="I192" t="n">
-        <v>6.69699867590245</v>
+        <v>6.63729418599796</v>
       </c>
       <c r="J192" t="n">
-        <v>7.44953683410238</v>
+        <v>6.84454131034796</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.62347464797234</v>
+        <v>-4.97538033134566</v>
       </c>
       <c r="B193" t="n">
-        <v>2.49002567486432</v>
+        <v>-5.77302800574494</v>
       </c>
       <c r="C193" t="n">
-        <v>3.74187592767398</v>
+        <v>-6.32856728118689</v>
       </c>
       <c r="D193" t="n">
-        <v>4.49523833063464</v>
+        <v>-6.40954037198745</v>
       </c>
       <c r="E193" t="n">
-        <v>5.69596507894234</v>
+        <v>-7.05660755363213</v>
       </c>
       <c r="F193" t="n">
-        <v>4.34077662329432</v>
+        <v>-7.64028037111616</v>
       </c>
       <c r="G193" t="n">
-        <v>5.8610049444697</v>
+        <v>-7.9489218832402</v>
       </c>
       <c r="H193" t="n">
-        <v>6.27580774534087</v>
+        <v>-8.05622277380045</v>
       </c>
       <c r="I193" t="n">
-        <v>6.36319590683238</v>
+        <v>-9.14373813470225</v>
       </c>
       <c r="J193" t="n">
-        <v>6.93655477619104</v>
+        <v>-9.66865529185392</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3.48316557350893</v>
+        <v>-5.31151744389426</v>
       </c>
       <c r="B194" t="n">
-        <v>2.40003551470561</v>
+        <v>11.6093681415554</v>
       </c>
       <c r="C194" t="n">
-        <v>3.64697064623318</v>
+        <v>12.8968189760304</v>
       </c>
       <c r="D194" t="n">
-        <v>3.30108196854817</v>
+        <v>14.3067863690742</v>
       </c>
       <c r="E194" t="n">
-        <v>4.83049032844223</v>
+        <v>14.409264725953</v>
       </c>
       <c r="F194" t="n">
-        <v>5.20762012761144</v>
+        <v>14.9329839092304</v>
       </c>
       <c r="G194" t="n">
-        <v>5.59693947040965</v>
+        <v>15.4966088487109</v>
       </c>
       <c r="H194" t="n">
-        <v>5.73895030419427</v>
+        <v>16.1160039113007</v>
       </c>
       <c r="I194" t="n">
-        <v>6.65146693717532</v>
+        <v>18.211851216093</v>
       </c>
       <c r="J194" t="n">
-        <v>6.91392081972965</v>
+        <v>17.738010033794</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9.88076374654537</v>
+        <v>-4.77776892092529</v>
       </c>
       <c r="B195" t="n">
-        <v>11.1967349248871</v>
+        <v>-5.66458617921381</v>
       </c>
       <c r="C195" t="n">
-        <v>12.4943422180981</v>
+        <v>-5.95220057170464</v>
       </c>
       <c r="D195" t="n">
-        <v>12.7232455527668</v>
+        <v>-6.2985369344097</v>
       </c>
       <c r="E195" t="n">
-        <v>14.8439910177963</v>
+        <v>-7.17753774388021</v>
       </c>
       <c r="F195" t="n">
-        <v>16.1461179634083</v>
+        <v>-7.67226530535391</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.95803380244568</v>
+        <v>-7.94365093422084</v>
       </c>
       <c r="H195" t="n">
-        <v>-8.25138173996635</v>
+        <v>-8.77288798104136</v>
       </c>
       <c r="I195" t="n">
-        <v>16.7384239191029</v>
+        <v>-9.13002101970349</v>
       </c>
       <c r="J195" t="n">
-        <v>19.2019571050719</v>
+        <v>-9.06960066445822</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-4.80048767484459</v>
+        <v>9.72680326454297</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.52545355994189</v>
+        <v>11.1413544436585</v>
       </c>
       <c r="C196" t="n">
-        <v>-5.8260385721854</v>
+        <v>11.7977180945156</v>
       </c>
       <c r="D196" t="n">
-        <v>-6.42446441096019</v>
+        <v>12.4980650946962</v>
       </c>
       <c r="E196" t="n">
-        <v>-7.36033440004697</v>
+        <v>13.5244731068099</v>
       </c>
       <c r="F196" t="n">
-        <v>-7.8090173431348</v>
+        <v>14.9090684395355</v>
       </c>
       <c r="G196" t="n">
-        <v>-8.48227380769379</v>
+        <v>16.3308278917483</v>
       </c>
       <c r="H196" t="n">
-        <v>-8.45026770549775</v>
+        <v>16.6917410962483</v>
       </c>
       <c r="I196" t="n">
-        <v>-9.22480697456511</v>
+        <v>18.0771401926755</v>
       </c>
       <c r="J196" t="n">
-        <v>-9.15237557744803</v>
+        <v>19.9311261140122</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.4092824148286</v>
+        <v>-5.02824493948776</v>
       </c>
       <c r="B197" t="n">
-        <v>10.6467375884416</v>
+        <v>-5.45448039451329</v>
       </c>
       <c r="C197" t="n">
-        <v>11.9337547271061</v>
+        <v>-5.47732721773489</v>
       </c>
       <c r="D197" t="n">
-        <v>13.8885514198876</v>
+        <v>-6.58400659421785</v>
       </c>
       <c r="E197" t="n">
-        <v>14.3750552906285</v>
+        <v>-6.97617751943266</v>
       </c>
       <c r="F197" t="n">
-        <v>16.4414644824815</v>
+        <v>-7.56680042885637</v>
       </c>
       <c r="G197" t="n">
-        <v>15.3816245231047</v>
+        <v>-7.68027883316546</v>
       </c>
       <c r="H197" t="n">
-        <v>5.31059004507004</v>
+        <v>-8.36537248280443</v>
       </c>
       <c r="I197" t="n">
-        <v>6.40796955174943</v>
+        <v>-8.91511622877348</v>
       </c>
       <c r="J197" t="n">
-        <v>6.96811260567443</v>
+        <v>-9.74772336045161</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>10.0267073949974</v>
+        <v>2.51164069436331</v>
       </c>
       <c r="B198" t="n">
-        <v>11.1674061151478</v>
+        <v>4.3810376425759</v>
       </c>
       <c r="C198" t="n">
-        <v>12.757635327149</v>
+        <v>3.92038118278205</v>
       </c>
       <c r="D198" t="n">
-        <v>12.5665089197299</v>
+        <v>4.78361442785719</v>
       </c>
       <c r="E198" t="n">
-        <v>14.1131728283184</v>
+        <v>4.96264955418408</v>
       </c>
       <c r="F198" t="n">
-        <v>15.357849254915</v>
+        <v>4.73716057136449</v>
       </c>
       <c r="G198" t="n">
-        <v>-7.87036135832716</v>
+        <v>5.68364072005144</v>
       </c>
       <c r="H198" t="n">
-        <v>-8.88562745605729</v>
+        <v>5.96061616850996</v>
       </c>
       <c r="I198" t="n">
-        <v>-8.8779038858326</v>
+        <v>7.21056688819484</v>
       </c>
       <c r="J198" t="n">
-        <v>-9.31389305436088</v>
+        <v>7.31515747375643</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-4.93734505567052</v>
+        <v>2.82131495959458</v>
       </c>
       <c r="B199" t="n">
-        <v>-5.50352094242631</v>
+        <v>3.69714024065233</v>
       </c>
       <c r="C199" t="n">
-        <v>-5.9469126856524</v>
+        <v>11.9335279952538</v>
       </c>
       <c r="D199" t="n">
-        <v>-6.31755883500984</v>
+        <v>14.7886293557562</v>
       </c>
       <c r="E199" t="n">
-        <v>-6.82053947458246</v>
+        <v>14.5880464489598</v>
       </c>
       <c r="F199" t="n">
-        <v>-6.98564703670865</v>
+        <v>15.2581120328485</v>
       </c>
       <c r="G199" t="n">
-        <v>-7.93161892617939</v>
+        <v>15.6313514643669</v>
       </c>
       <c r="H199" t="n">
-        <v>-8.72382602433103</v>
+        <v>16.6845166622282</v>
       </c>
       <c r="I199" t="n">
-        <v>-9.00067841165555</v>
+        <v>17.1343464080514</v>
       </c>
       <c r="J199" t="n">
-        <v>-9.29779845721272</v>
+        <v>6.4327412970414</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-5.39956100973481</v>
+        <v>11.1957059300366</v>
       </c>
       <c r="B200" t="n">
-        <v>-6.06678949210982</v>
+        <v>10.2666899057539</v>
       </c>
       <c r="C200" t="n">
-        <v>-5.94938025518655</v>
+        <v>4.68930037188641</v>
       </c>
       <c r="D200" t="n">
-        <v>-6.25798777363252</v>
+        <v>3.92044815530686</v>
       </c>
       <c r="E200" t="n">
-        <v>-7.18987273704388</v>
+        <v>4.14414430525328</v>
       </c>
       <c r="F200" t="n">
-        <v>-7.79052600619225</v>
+        <v>6.07145770694757</v>
       </c>
       <c r="G200" t="n">
-        <v>-8.11465833017447</v>
+        <v>6.19969068730832</v>
       </c>
       <c r="H200" t="n">
-        <v>-8.31622065169826</v>
+        <v>5.8393439310202</v>
       </c>
       <c r="I200" t="n">
-        <v>-8.91242964673625</v>
+        <v>7.10630486727722</v>
       </c>
       <c r="J200" t="n">
-        <v>-9.07239946705228</v>
+        <v>6.83059543527005</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-4.8079455176822</v>
+        <v>9.42060811009629</v>
       </c>
       <c r="B201" t="n">
-        <v>-5.25463490119392</v>
+        <v>10.8050790440052</v>
       </c>
       <c r="C201" t="n">
-        <v>-6.29454481294305</v>
+        <v>12.1191089037799</v>
       </c>
       <c r="D201" t="n">
-        <v>-6.64504116723008</v>
+        <v>13.1541425218588</v>
       </c>
       <c r="E201" t="n">
-        <v>-7.09879089975726</v>
+        <v>4.7494048701217</v>
       </c>
       <c r="F201" t="n">
-        <v>-7.49389362818924</v>
+        <v>5.08988635322585</v>
       </c>
       <c r="G201" t="n">
-        <v>-7.60259459336499</v>
+        <v>5.70350972848853</v>
       </c>
       <c r="H201" t="n">
-        <v>-8.24159479850197</v>
+        <v>6.14659133190926</v>
       </c>
       <c r="I201" t="n">
-        <v>-9.1791242700431</v>
+        <v>6.78634462988548</v>
       </c>
       <c r="J201" t="n">
-        <v>-9.79606225905032</v>
+        <v>8.01732985998956</v>
       </c>
     </row>
   </sheetData>
